--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.01</v>
+        <v>1.81</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.19</v>
+        <v>3.78</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>4.72</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>4.73</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-peterborough/2ekZmvIK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-port-vale/hpvem7R9/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Cheltenham</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.61</v>
+        <v>2.33</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.31</v>
+        <v>2.79</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.24</v>
+        <v>3.18</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 11:36</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.61</v>
+        <v>2.91</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.42</v>
+        <v>2.77</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>1.69</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.68</v>
+        <v>4.02</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.72</v>
+        <v>4.15</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.73</v>
+        <v>5.9</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-port-vale/hpvem7R9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-wigan/hQ7rRGA7/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:04</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:04</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:04</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.78</v>
+        <v>3.39</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-burton/nLhbnRtG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.62</v>
+        <v>2.21</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.76</v>
+        <v>2.43</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:42</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.43</v>
+        <v>3.06</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.63</v>
+        <v>3.24</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:42</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.78</v>
+        <v>3.04</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.15</v>
+        <v>3.19</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:42</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-lincoln-city/OpGRUbBr/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-fleetwood-town/KC9zTxte/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22/06/2023 14:07</t>
+          <t>22/06/2023 14:05</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>22/06/2023 14:07</t>
+          <t>22/06/2023 14:05</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.55</v>
+        <v>3.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.23</v>
+        <v>4.78</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>22/06/2023 14:07</t>
+          <t>22/06/2023 14:05</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.74</v>
+        <v>5.15</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-bristol-rovers/8YkVlK2E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-lincoln-city/OpGRUbBr/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:04</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:16</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:04</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:16</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.81</v>
+        <v>4.03</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:04</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.39</v>
+        <v>4.78</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-burton/nLhbnRtG/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.69</v>
+        <v>2.61</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.61</v>
+        <v>2.31</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.02</v>
+        <v>3.24</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.15</v>
+        <v>2.61</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>5.9</v>
+        <v>3.42</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-wigan/hQ7rRGA7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.33</v>
+        <v>2.03</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:07</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.79</v>
+        <v>2.06</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>3.27</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:07</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.18</v>
+        <v>3.55</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>05/08/2023 11:36</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.91</v>
+        <v>3.23</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:07</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.77</v>
+        <v>3.74</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-bristol-rovers/8YkVlK2E/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>22/06/2023 14:08</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>05/08/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>22/06/2023 14:08</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>05/08/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>22/06/2023 14:09</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:56</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>22/06/2023 14:09</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:56</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>3.67</v>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>22/06/2023 14:09</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.55</v>
+        <v>2.37</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-exeter/KCV5rIur/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-peterborough/2ekZmvIK/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.21</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22/06/2023 14:05</t>
+          <t>22/06/2023 14:09</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05/08/2023 15:42</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.06</v>
+        <v>3.41</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>22/06/2023 14:05</t>
+          <t>22/06/2023 14:09</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>05/08/2023 15:42</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.04</v>
+        <v>3.67</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>22/06/2023 14:05</t>
+          <t>22/06/2023 14:09</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.19</v>
+        <v>3.55</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>05/08/2023 15:42</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-fleetwood-town/KC9zTxte/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-exeter/KCV5rIur/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.29</v>
+        <v>5.17</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.41</v>
+        <v>4.14</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.36</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.37</v>
+        <v>3.66</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.26</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-barnsley/tfx4ERuF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.39</v>
+        <v>3.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.73</v>
+        <v>3.41</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:34</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 00:29</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.06</v>
+        <v>2.26</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 13:38</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-reading/84xqFbWP/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-barnsley/tfx4ERuF/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.65</v>
+        <v>3.44</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.92</v>
+        <v>4.44</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.78</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.76</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-charlton/UDwuGvHJ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.31</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:34</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.67</v>
+        <v>2.87</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.18</v>
+        <v>3.4</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>05/08/2023 18:24</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:32</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>05/08/2023 18:24</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:52</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>2.56</v>
-      </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.06</v>
+        <v>3.49</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:32</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.03</v>
+        <v>2.56</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.45</v>
+        <v>3.06</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.16</v>
+        <v>3.31</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.49</v>
+        <v>2.45</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
         </is>
       </c>
     </row>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.24</v>
+        <v>1.92</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,15 +2352,15 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.31</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.41</v>
+        <v>4.05</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,15 +2368,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.87</v>
+        <v>4.78</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>3.76</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-charlton/UDwuGvHJ/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
       <c r="J22" t="n">
-        <v>3.44</v>
+        <v>2.39</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4.44</v>
+        <v>2.73</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:34</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.64</v>
+        <v>3.38</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:34</t>
+          <t>12/08/2023 00:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>3.06</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>2.7</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 13:38</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-reading/84xqFbWP/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
       <c r="J23" t="n">
-        <v>5.17</v>
+        <v>2.56</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4.14</v>
+        <v>2.07</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.9</v>
+        <v>3.38</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.66</v>
+        <v>3.27</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.68</v>
+        <v>2.88</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.93</v>
+        <v>4.07</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-shrewsbury/0dUAAIvs/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.38</v>
+        <v>3.66</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.07</v>
+        <v>4.2</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-shrewsbury/0dUAAIvs/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-northampton/vmTE9xfm/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.66</v>
+        <v>3.45</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.22</v>
+        <v>3.59</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.82</v>
+        <v>3.67</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-northampton/vmTE9xfm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.53</v>
+        <v>4.41</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>4.27</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.63</v>
+        <v>1.69</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.54</v>
+        <v>4.97</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.85</v>
+        <v>5.09</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:37</t>
+          <t>15/08/2023 18:42</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.69</v>
+        <v>2.81</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.43</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.41</v>
+        <v>3.56</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.27</v>
+        <v>3.18</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.07</v>
+        <v>2.56</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.28</v>
+        <v>2.93</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.57</v>
+        <v>3.27</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,32 +3188,32 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.12</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>15/08/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>15/08/2023 20:41</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:43</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 18:42</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.76</v>
+        <v>3.39</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,48 +3356,48 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="N32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
         <v>3.31</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>15/08/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S32" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:40</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T32" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.84</v>
+        <v>3.46</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,32 +3464,32 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.98</v>
+        <v>3.35</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>15/08/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="R33" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:43</t>
-        </is>
-      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.78</v>
+        <v>3.56</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.89</v>
+        <v>4.01</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-shrewsbury/2PdEoW64/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-reading/OYcAnCib/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.56</v>
+        <v>3.78</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.01</v>
+        <v>3.89</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-reading/OYcAnCib/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-shrewsbury/2PdEoW64/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.87</v>
+        <v>2.68</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:46</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26/08/2023 13:54</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.73</v>
+        <v>2.84</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:46</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-blackpool/fXELqAyH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.19</v>
+        <v>2.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:46</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 13:54</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.84</v>
+        <v>2.73</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-blackpool/fXELqAyH/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.24</v>
+        <v>3.51</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.75</v>
+        <v>4.18</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.93</v>
+        <v>3.27</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-portsmouth/MoV1Puj2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-carlisle/reWcQLzd/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.41</v>
+        <v>3.24</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.11</v>
+        <v>2.93</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-barnsley/Oj9plPS2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-portsmouth/MoV1Puj2/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Charlton</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
       <c r="J60" t="n">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.94</v>
+        <v>3.61</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.67</v>
+        <v>2.84</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.49</v>
+        <v>3.11</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-charlton/zVSkSs6q/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-barnsley/Oj9plPS2/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Carlisle</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
       <c r="J61" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.29</v>
+        <v>1.79</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.51</v>
+        <v>3.81</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.44</v>
+        <v>3.94</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.18</v>
+        <v>4.67</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.27</v>
+        <v>4.49</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-carlisle/reWcQLzd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-charlton/zVSkSs6q/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.43</v>
+        <v>1.75</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.42</v>
+        <v>3.75</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.61</v>
+        <v>3.83</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.81</v>
+        <v>4.87</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.36</v>
+        <v>5.11</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-peterborough/WxlTbtsL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-port-vale/lEbOaMRE/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Port Vale</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 00:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 00:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.83</v>
+        <v>3.57</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.87</v>
+        <v>3.51</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 00:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.11</v>
+        <v>3.56</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-port-vale/lEbOaMRE/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-wigan/xfDlmqr9/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.37</v>
+        <v>3.52</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:19</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.09</v>
+        <v>2.6</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.98</v>
+        <v>3.34</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-wycombe/ANaK02C8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-derby/WGChn3cF/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.19</v>
+        <v>3.38</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.03</v>
+        <v>3.3</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.85</v>
+        <v>3.46</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-stevenage/M76xxJZ7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-lincoln-city/A7BdoNCL/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:17</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.68</v>
+        <v>3.31</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.85</v>
+        <v>3.22</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:17</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.94</v>
+        <v>3.03</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:17</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-fleetwood-town/0hITwu5e/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-shrewsbury/nkEPvLkk/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.44</v>
+        <v>1.93</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>02/09/2023 15:17</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.68</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.22</v>
+        <v>3.85</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>02/09/2023 15:17</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.03</v>
+        <v>3.94</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>02/09/2023 15:17</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-shrewsbury/nkEPvLkk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-fleetwood-town/0hITwu5e/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.97</v>
+        <v>2.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.6</v>
+        <v>2.81</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.48</v>
+        <v>3.36</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-exeter/jJSgpsSR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-peterborough/WxlTbtsL/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.18</v>
+        <v>4.01</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.14</v>
+        <v>3.91</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.46</v>
+        <v>1.95</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.8</v>
+        <v>1.99</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-lincoln-city/A7BdoNCL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-barnsley/rH7YxaK1/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.22</v>
+        <v>2.96</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.52</v>
+        <v>3.03</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/09/2023 15:19</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.34</v>
+        <v>2.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-derby/WGChn3cF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-stevenage/M76xxJZ7/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>29/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.11</v>
+        <v>2.97</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>29/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.51</v>
+        <v>2.6</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>29/08/2023 00:42</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.56</v>
+        <v>2.48</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-wigan/xfDlmqr9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-exeter/jJSgpsSR/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>4.01</v>
+        <v>2.25</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.91</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.53</v>
+        <v>3.41</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.62</v>
+        <v>3.37</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.95</v>
+        <v>3.09</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.99</v>
+        <v>2.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-barnsley/rH7YxaK1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-wycombe/ANaK02C8/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2.41</v>
+        <v>1.56</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.43</v>
+        <v>1.53</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.49</v>
+        <v>4.11</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.79</v>
+        <v>6.08</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.95</v>
+        <v>6.92</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.98</v>
+        <v>2.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.19</v>
+        <v>3.54</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.36</v>
+        <v>2.79</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.36</v>
+        <v>2.95</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>2.17</v>
+        <v>2.98</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.87</v>
+        <v>3.37</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.38</v>
+        <v>2.36</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.17</v>
+        <v>2.36</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>3.49</v>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>30/09/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:44</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>3.52</v>
-      </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.62</v>
+        <v>3.83</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.11</v>
+        <v>3.38</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.06</v>
+        <v>4.17</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
         <v>2.06</v>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:32</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P119" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:32</t>
-        </is>
-      </c>
-      <c r="R119" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
-        <v>3.7</v>
-      </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.98</v>
+        <v>2.06</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.4</v>
+        <v>3.71</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.98</v>
+        <v>2.98</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.68</v>
+        <v>3.44</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.33</v>
+        <v>3.28</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.49</v>
+        <v>2.4</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.59</v>
+        <v>2.88</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3</v>
+        <v>3.49</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.97</v>
+        <v>3.59</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>3</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Shrewsbury</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>1.56</v>
+        <v>2.26</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.11</v>
+        <v>3.5</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>4.21</v>
+        <v>3.24</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>6.08</v>
+        <v>3</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>6.92</v>
+        <v>2.97</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>2.61</v>
+        <v>1.78</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.84</v>
+        <v>1.8</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.37</v>
+        <v>3.78</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.64</v>
+        <v>4.57</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.52</v>
+        <v>4.73</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,163 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:19</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:19</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:19</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45206.5625</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
         <v>2</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
         <v>1</v>
       </c>
-      <c r="J125" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
+      <c r="J126" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
         <v>1.8</v>
       </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>03/10/2023 19:21</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P125" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>03/10/2023 19:57</t>
-        </is>
-      </c>
-      <c r="R125" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T125" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="U125" t="inlineStr">
-        <is>
-          <t>03/10/2023 19:57</t>
-        </is>
-      </c>
-      <c r="V125" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-bristol-rovers/6TqRg9HE/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.72</v>
+        <v>3.81</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>4.73</v>
+        <v>3.39</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-port-vale/hpvem7R9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>2.61</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:16</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="P5" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>05/08/2023 15:24</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>22/06/2023 14:08</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>05/08/2023 15:16</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>22/06/2023 14:06</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>3.39</v>
-      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.61</v>
+        <v>1.69</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.31</v>
+        <v>1.81</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.95</v>
+        <v>3.78</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.24</v>
+        <v>3.68</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.61</v>
+        <v>4.72</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.42</v>
+        <v>4.73</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-port-vale/hpvem7R9/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.89</v>
+        <v>2.63</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:21</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.94</v>
+        <v>2.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.46</v>
+        <v>2.56</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:21</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.66</v>
+        <v>3.44</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.27</v>
+        <v>3.94</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.43</v>
+        <v>4.46</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Barnsley</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>2</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.9</v>
+        <v>2.13</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.36</v>
+        <v>3.66</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.6</v>
+        <v>3.27</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.56</v>
+        <v>3.43</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.13</v>
+        <v>1.92</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.49</v>
+        <v>2.03</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.62</v>
+        <v>4.13</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.02</v>
+        <v>3.79</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.81</v>
+        <v>2.49</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.58</v>
+        <v>3.02</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.23</v>
+        <v>2.81</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.26</v>
+        <v>2.58</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.98</v>
+        <v>2.21</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.84</v>
+        <v>3.14</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>4.13</v>
+        <v>3.84</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.79</v>
+        <v>3.39</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.7</v>
+        <v>3.32</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.41</v>
+        <v>3.8</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.31</v>
+        <v>3.82</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.31</v>
+        <v>4</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.14</v>
+        <v>1.78</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.11</v>
+        <v>1.96</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.21</v>
+        <v>3.7</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.42</v>
+        <v>4.31</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.31</v>
+        <v>4.31</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.53</v>
+        <v>3.14</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,48 +10072,48 @@
         </is>
       </c>
       <c r="L105" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>2.42</v>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O105" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>24/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P105" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R105" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T105" t="n">
-        <v>3.06</v>
+        <v>2.31</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>2.53</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.92</v>
+        <v>2.42</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.82</v>
+        <v>2.83</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4</v>
+        <v>3.06</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>3.09</v>
+        <v>2.67</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.64</v>
+        <v>3.08</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.23</v>
+        <v>3.15</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.49</v>
+        <v>3.43</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.44</v>
+        <v>2.71</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.67</v>
+        <v>3.09</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>2</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Cheltenham</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
       <c r="J109" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.7</v>
+        <v>3.53</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.74</v>
+        <v>5.01</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.02</v>
+        <v>3.57</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.34</v>
+        <v>4.74</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.36</v>
+        <v>5.02</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>2</v>
-      </c>
       <c r="J111" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,48 +10624,48 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N111" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
         <v>3.48</v>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>24/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T111" t="n">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>4.11</v>
+        <v>3.78</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>4.21</v>
+        <v>3.72</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>6.08</v>
+        <v>4.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>6.92</v>
+        <v>4.73</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,63 +11069,63 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.41</v>
+        <v>1.56</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.43</v>
+        <v>1.53</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.49</v>
+        <v>4.11</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.79</v>
+        <v>6.08</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.95</v>
+        <v>6.92</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,34 +11437,34 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.06</v>
+        <v>2.41</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -11472,28 +11472,28 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.71</v>
+        <v>2.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.33</v>
+        <v>3.54</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.59</v>
+        <v>3.7</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3</v>
+        <v>3.49</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.97</v>
+        <v>3.59</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.8</v>
+        <v>2.57</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.72</v>
+        <v>3.24</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>4.57</v>
+        <v>3</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.73</v>
+        <v>2.97</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
         </is>
       </c>
     </row>
@@ -12046,6 +12046,926 @@
       <c r="V126" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-bristol-rovers/6TqRg9HE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:39</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>4</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
-      </c>
       <c r="J109" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,48 +10440,48 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N109" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
         <v>3.48</v>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S109" t="inlineStr">
         <is>
           <t>24/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P109" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R109" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T109" t="n">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.36</v>
+        <v>3.48</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.34</v>
+        <v>5.01</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
         <v>1.6</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O128" t="inlineStr">
         <is>
           <t>03/10/2023 20:12</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:00</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="O128" t="inlineStr">
+      <c r="P128" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="S128" t="inlineStr">
         <is>
           <t>03/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P128" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:00</t>
-        </is>
-      </c>
-      <c r="R128" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
       <c r="T128" t="n">
-        <v>6.25</v>
+        <v>5.52</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.36</v>
+        <v>1.61</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.41</v>
+        <v>4.07</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.79</v>
+        <v>4.71</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.15</v>
+        <v>5.88</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>4.29</v>
+        <v>2.14</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>6.41</v>
+        <v>2.4</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.02</v>
+        <v>3.35</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>1.78</v>
+        <v>3.39</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>1.58</v>
+        <v>3.14</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.26</v>
+        <v>4.29</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.93</v>
+        <v>6.41</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.46</v>
+        <v>4.02</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.11</v>
+        <v>1.78</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>1</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>4</v>
-      </c>
       <c r="J132" t="n">
-        <v>2.43</v>
+        <v>2.26</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.29</v>
+        <v>2.93</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.27</v>
+        <v>3.38</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.07</v>
+        <v>3.11</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.34</v>
+        <v>2.48</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,14 +12633,14 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.39</v>
+        <v>2.79</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.75</v>
+        <v>4.06</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.07</v>
+        <v>4.29</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.71</v>
+        <v>5.69</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.95</v>
+        <v>3.81</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.37</v>
+        <v>3.61</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>5.22</v>
+        <v>4.15</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>5.52</v>
+        <v>4.8</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>1.78</v>
+        <v>2.43</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.81</v>
+        <v>3.27</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.61</v>
+        <v>3.37</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.15</v>
+        <v>3.07</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,108 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>4.8</v>
+        <v>3.34</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45208.875</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-cambridge-utd/CfYVZmQr/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Leyton Orient</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>2.33</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.24</v>
+        <v>2.79</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:16</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:16</t>
+          <t>05/08/2023 11:36</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.81</v>
+        <v>2.91</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.39</v>
+        <v>2.77</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>2.61</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.79</v>
+        <v>2.31</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.18</v>
+        <v>3.24</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 11:36</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.91</v>
+        <v>2.61</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.77</v>
+        <v>3.42</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.61</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.24</v>
+        <v>3.42</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.61</v>
+        <v>3.81</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.36</v>
+        <v>3.96</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.48</v>
+        <v>3.97</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.34</v>
+        <v>4.05</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.36</v>
+        <v>4.23</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>2</v>
-      </c>
       <c r="J111" t="n">
-        <v>1.73</v>
+        <v>2.16</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,48 +10624,48 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N111" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
         <v>3.48</v>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>24/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T111" t="n">
-        <v>3.57</v>
+        <v>3.36</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.64</v>
+        <v>2.13</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.18</v>
+        <v>3.48</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.2</v>
+        <v>3.53</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.3</v>
+        <v>5.01</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.29</v>
+        <v>3.57</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.18</v>
+        <v>1.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.51</v>
+        <v>1.64</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.31</v>
+        <v>4.18</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.81</v>
+        <v>5.29</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.97</v>
+        <v>3.6</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.05</v>
+        <v>3.55</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.23</v>
+        <v>2.81</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.78</v>
+        <v>4.11</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.72</v>
+        <v>4.21</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.57</v>
+        <v>6.08</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.73</v>
+        <v>6.92</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,63 +11069,63 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.56</v>
+        <v>2.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.53</v>
+        <v>2.43</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.11</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.21</v>
+        <v>3.54</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>6.08</v>
+        <v>2.79</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>6.92</v>
+        <v>2.95</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.43</v>
+        <v>1.8</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.49</v>
+        <v>3.78</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.54</v>
+        <v>3.72</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.79</v>
+        <v>4.57</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.95</v>
+        <v>4.73</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.03</v>
+        <v>1.82</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.33</v>
+        <v>3.81</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.19</v>
+        <v>3.61</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.9</v>
+        <v>4.15</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.57</v>
+        <v>4.8</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.66</v>
+        <v>2.41</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.6</v>
+        <v>3.03</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.95</v>
+        <v>3.33</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.22</v>
+        <v>2.9</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.52</v>
+        <v>2.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.07</v>
+        <v>4.37</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.71</v>
+        <v>5.22</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.88</v>
+        <v>5.52</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.4</v>
+        <v>1.61</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.35</v>
+        <v>4.07</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.39</v>
+        <v>4.71</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.14</v>
+        <v>5.88</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>4.29</v>
+        <v>2.14</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>6.41</v>
+        <v>2.4</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4.02</v>
+        <v>3.35</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>1.78</v>
+        <v>3.39</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>1.58</v>
+        <v>3.14</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J132" t="n">
-        <v>2.26</v>
+        <v>2.43</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.93</v>
+        <v>2.29</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.38</v>
+        <v>3.27</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.11</v>
+        <v>3.07</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.48</v>
+        <v>3.34</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.5</v>
+        <v>4.29</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.36</v>
+        <v>6.41</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.41</v>
+        <v>4.02</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.79</v>
+        <v>1.78</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.15</v>
+        <v>1.58</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.06</v>
+        <v>3.32</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.29</v>
+        <v>3.41</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>5.69</v>
+        <v>2.79</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>6.25</v>
+        <v>3.15</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.81</v>
+        <v>4.06</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.61</v>
+        <v>4.29</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.15</v>
+        <v>5.69</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.8</v>
+        <v>6.25</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>1</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>4</v>
-      </c>
       <c r="J136" t="n">
-        <v>2.43</v>
+        <v>2.26</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.29</v>
+        <v>2.93</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.27</v>
+        <v>3.38</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.07</v>
+        <v>3.11</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.34</v>
+        <v>2.48</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,374 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/burton-cambridge-utd/CfYVZmQr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>3</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45213.66666666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>14/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,63 +581,63 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.79</v>
+        <v>3.01</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="N2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>22/06/2023 14:08</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>05/08/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>22/06/2023 14:06</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>05/08/2023 11:36</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>2.91</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-peterborough/2ekZmvIK/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Cheltenham</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.61</v>
+        <v>2.33</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.31</v>
+        <v>2.79</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.24</v>
+        <v>3.18</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 11:36</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.61</v>
+        <v>2.91</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.42</v>
+        <v>2.77</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
-        <v>2.17</v>
+        <v>2.61</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.01</v>
+        <v>2.31</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.58</v>
+        <v>3.24</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:47</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.37</v>
+        <v>3.42</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-peterborough/2ekZmvIK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,22 +9873,22 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.92</v>
+        <v>3.08</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,40 +9896,40 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
+          <t>30/09/2023 15:18</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
           <t>30/09/2023 15:57</t>
         </is>
       </c>
-      <c r="R103" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T103" t="n">
-        <v>4</v>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:57</t>
-        </is>
-      </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,22 +10241,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.08</v>
+        <v>1.92</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,31 +10264,31 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.43</v>
+        <v>3.8</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.71</v>
+        <v>3.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.56</v>
+        <v>2.41</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.53</v>
+        <v>2.43</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>4.11</v>
+        <v>3.49</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>4.21</v>
+        <v>3.54</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>6.08</v>
+        <v>2.79</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>6.92</v>
+        <v>2.95</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>2.41</v>
+        <v>2.98</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.43</v>
+        <v>3.37</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.54</v>
+        <v>3.19</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.79</v>
+        <v>2.36</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.95</v>
+        <v>2.36</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.98</v>
+        <v>2.17</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.37</v>
+        <v>1.87</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.19</v>
+        <v>3.83</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.36</v>
+        <v>3.38</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.36</v>
+        <v>4.17</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.17</v>
+        <v>3.49</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.87</v>
+        <v>3.66</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.83</v>
+        <v>3.62</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.38</v>
+        <v>2.11</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.17</v>
+        <v>2.06</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>3.49</v>
+        <v>1.78</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.66</v>
+        <v>1.8</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.52</v>
+        <v>3.78</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.11</v>
+        <v>4.57</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.06</v>
+        <v>4.73</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.78</v>
+        <v>2.98</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.78</v>
+        <v>3.44</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.72</v>
+        <v>3.28</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.57</v>
+        <v>2.4</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.73</v>
+        <v>2.88</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.98</v>
+        <v>1.56</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.62</v>
+        <v>1.53</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.44</v>
+        <v>4.11</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.28</v>
+        <v>4.21</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.4</v>
+        <v>6.08</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.88</v>
+        <v>6.92</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.54</v>
+        <v>3.33</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.71</v>
+        <v>3.49</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.7</v>
+        <v>3.59</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>3</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>2</v>
-      </c>
       <c r="J123" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.49</v>
+        <v>3</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.59</v>
+        <v>2.97</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J124" t="n">
-        <v>2.26</v>
+        <v>2.61</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.57</v>
+        <v>2.84</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.97</v>
+        <v>2.52</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Barnsley</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>4</v>
-      </c>
       <c r="J125" t="n">
-        <v>2.61</v>
+        <v>2.06</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.64</v>
+        <v>3.71</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.81</v>
+        <v>4.06</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.61</v>
+        <v>4.29</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.15</v>
+        <v>5.69</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.8</v>
+        <v>6.25</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.03</v>
+        <v>2.36</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>3.41</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.57</v>
+        <v>3.15</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.66</v>
+        <v>4.29</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.6</v>
+        <v>6.41</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.37</v>
+        <v>4.02</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.22</v>
+        <v>1.78</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.52</v>
+        <v>1.58</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.61</v>
+        <v>2.93</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.75</v>
+        <v>3.38</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.07</v>
+        <v>3.46</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.71</v>
+        <v>3.11</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.88</v>
+        <v>2.48</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>1</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>4</v>
-      </c>
       <c r="J132" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.07</v>
+        <v>3.39</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>4.29</v>
+        <v>1.76</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>6.41</v>
+        <v>1.61</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>1.78</v>
+        <v>4.71</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>1.58</v>
+        <v>5.88</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.5</v>
+        <v>1.66</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.32</v>
+        <v>3.95</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.41</v>
+        <v>4.37</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.79</v>
+        <v>5.22</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.15</v>
+        <v>5.52</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.6</v>
+        <v>2.41</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.55</v>
+        <v>3.03</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.06</v>
+        <v>3.33</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.29</v>
+        <v>3.19</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>5.69</v>
+        <v>2.9</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>6.25</v>
+        <v>2.57</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Barnsley</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
       <c r="J136" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.93</v>
+        <v>1.82</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.38</v>
+        <v>3.81</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.11</v>
+        <v>4.15</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.48</v>
+        <v>4.8</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Leyton Orient</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:29</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.03</v>
+        <v>3.54</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.73</v>
+        <v>3.57</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:52</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
         </is>
       </c>
     </row>
@@ -13177,30 +13177,30 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.17</v>
+        <v>1.89</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,31 +13208,31 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:29</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.54</v>
+        <v>4.32</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>3.57</v>
+        <v>4.15</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.04</v>
+        <v>2.72</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>4.32</v>
+        <v>3.03</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.15</v>
+        <v>2.73</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:52</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
         </is>
       </c>
     </row>
@@ -13426,6 +13426,282 @@
       <c r="V141" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>2.61</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.79</v>
+        <v>2.31</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.18</v>
+        <v>3.24</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 11:36</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.91</v>
+        <v>2.61</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:08</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.77</v>
+        <v>3.42</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 15:27</t>
+          <t>05/08/2023 15:24</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>1.69</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4.02</v>
+        <v>3.68</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.15</v>
+        <v>4.72</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:00</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5.9</v>
+        <v>4.73</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-wigan/hQ7rRGA7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-port-vale/hpvem7R9/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:04</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.24</v>
+        <v>1.74</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:16</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:04</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:16</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.81</v>
+        <v>4.03</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>22/06/2023 14:06</t>
+          <t>22/06/2023 14:04</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.39</v>
+        <v>4.78</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>05/08/2023 15:57</t>
+          <t>05/08/2023 15:48</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-burton/nLhbnRtG/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.21</v>
+        <v>1.62</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.43</v>
+        <v>1.76</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:42</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.06</v>
+        <v>3.43</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.24</v>
+        <v>3.63</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:42</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.04</v>
+        <v>4.78</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.19</v>
+        <v>5.15</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 15:42</t>
+          <t>05/08/2023 15:44</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-fleetwood-town/KC9zTxte/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-lincoln-city/OpGRUbBr/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>22/06/2023 14:05</t>
+          <t>22/06/2023 14:07</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>22/06/2023 14:05</t>
+          <t>22/06/2023 14:07</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.78</v>
+        <v>3.23</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>22/06/2023 14:05</t>
+          <t>22/06/2023 14:07</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.15</v>
+        <v>3.74</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 15:44</t>
+          <t>05/08/2023 15:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-lincoln-city/OpGRUbBr/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-bristol-rovers/8YkVlK2E/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>22/06/2023 14:04</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>22/06/2023 14:04</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:16</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>22/06/2023 14:04</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.78</v>
+        <v>3.39</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 15:48</t>
+          <t>05/08/2023 15:57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-burton/nLhbnRtG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-leyton-orient/EZ8vSde1/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>1.69</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.68</v>
+        <v>4.02</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.72</v>
+        <v>4.15</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>22/06/2023 14:00</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.73</v>
+        <v>5.9</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>05/08/2023 15:59</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-port-vale/hpvem7R9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-wigan/hQ7rRGA7/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.03</v>
+        <v>2.33</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>22/06/2023 14:07</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.06</v>
+        <v>2.79</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>22/06/2023 14:07</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.55</v>
+        <v>3.18</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 11:36</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.23</v>
+        <v>2.91</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>22/06/2023 14:07</t>
+          <t>22/06/2023 14:06</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.74</v>
+        <v>2.77</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>05/08/2023 15:55</t>
+          <t>05/08/2023 15:27</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-bristol-rovers/8YkVlK2E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-stevenage/UsiRk0m8/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.61</v>
+        <v>1.83</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:09</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.31</v>
+        <v>2.13</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.95</v>
+        <v>3.41</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:09</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.61</v>
+        <v>3.67</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>22/06/2023 14:08</t>
+          <t>22/06/2023 14:09</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.42</v>
+        <v>3.55</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>05/08/2023 15:24</t>
+          <t>05/08/2023 15:56</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-cheltenham/EVhwmbXQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-exeter/KCV5rIur/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>2.21</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22/06/2023 14:09</t>
+          <t>22/06/2023 14:05</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.13</v>
+        <v>2.43</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:42</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.41</v>
+        <v>3.06</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>22/06/2023 14:09</t>
+          <t>22/06/2023 14:05</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:42</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.67</v>
+        <v>3.04</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>22/06/2023 14:09</t>
+          <t>22/06/2023 14:05</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.55</v>
+        <v>3.19</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>05/08/2023 15:56</t>
+          <t>05/08/2023 15:42</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-exeter/KCV5rIur/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-fleetwood-town/KC9zTxte/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>5.17</v>
+        <v>3.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.14</v>
+        <v>3.41</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>3.36</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.66</v>
+        <v>3.37</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.68</v>
+        <v>2.26</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:11</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-barnsley/tfx4ERuF/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.29</v>
+        <v>5.17</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.41</v>
+        <v>4.14</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.36</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.37</v>
+        <v>3.66</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.26</v>
+        <v>1.68</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:11</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-barnsley/tfx4ERuF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,38 +1869,38 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.44</v>
+        <v>2.55</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4.44</v>
+        <v>2.24</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.64</v>
+        <v>3.41</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1908,24 +1908,24 @@
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.25</v>
+        <v>2.87</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,18 +1961,18 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>2.55</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1980,44 +1980,44 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:34</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.55</v>
+        <v>3.44</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.24</v>
+        <v>4.44</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:34</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.49</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>1.93</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.31</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.15</v>
+        <v>3.59</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.03</v>
+        <v>3.67</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.45</v>
+        <v>4.18</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.45</v>
+        <v>3.31</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.59</v>
+        <v>3.15</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.67</v>
+        <v>3.03</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.18</v>
+        <v>2.45</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.41</v>
+        <v>3.53</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.27</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.69</v>
+        <v>2.63</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.84</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.98</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.97</v>
+        <v>3.54</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.09</v>
+        <v>2.85</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15/08/2023 18:42</t>
+          <t>15/08/2023 20:37</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.81</v>
+        <v>2.69</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.56</v>
+        <v>4.41</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.18</v>
+        <v>4.27</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.56</v>
+        <v>2.07</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.93</v>
+        <v>2.28</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>15/08/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>15/08/2023 20:41</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:37</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>2.69</v>
+        <v>3.18</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.79</v>
+        <v>2.71</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 18:42</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.39</v>
+        <v>2.76</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Burton</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.31</v>
+        <v>3.11</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.54</v>
+        <v>3.39</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.12</v>
+        <v>1.71</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,39 +3448,39 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>15/08/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="N33" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O33" t="inlineStr">
+      <c r="R33" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P33" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:36</t>
-        </is>
-      </c>
-      <c r="R33" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T33" t="n">
-        <v>3.65</v>
+        <v>5.09</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.03</v>
+        <v>3.38</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.15</v>
+        <v>3.29</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>15/08/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="R35" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:43</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:44</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.21</v>
+        <v>1.46</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3.27</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.38</v>
+        <v>4.32</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>4.71</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.2</v>
+        <v>6.54</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.37</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-stevenage/GSzqWj7H/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-cheltenham/82yuXWiB/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>2.68</v>
+        <v>3.21</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.93</v>
+        <v>3.32</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.11</v>
+        <v>3.41</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.14</v>
+        <v>3.58</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.74</v>
+        <v>2.28</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.68</v>
+        <v>2.21</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-lincoln-city/fJZnVAMN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-peterborough/UBxyYCx5/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.46</v>
+        <v>1.96</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.32</v>
+        <v>3.52</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.71</v>
+        <v>3.48</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>6.54</v>
+        <v>3.97</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>8.869999999999999</v>
+        <v>3.42</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-cheltenham/82yuXWiB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-oxford-utd/SrG5IXxI/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.21</v>
+        <v>1.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.32</v>
+        <v>1.68</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.41</v>
+        <v>4.3</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.58</v>
+        <v>3.93</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.28</v>
+        <v>6.29</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.21</v>
+        <v>5.4</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-peterborough/UBxyYCx5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-leyton-orient/M5F9HihO/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.48</v>
+        <v>2.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.73</v>
+        <v>3.27</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.42</v>
+        <v>3.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.95</v>
+        <v>3.27</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.88</v>
+        <v>3.2</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.87</v>
+        <v>2.37</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-fleetwood-town/nmmWYhNb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-stevenage/GSzqWj7H/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Port Vale</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 13:06</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19/08/2023 13:06</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.96</v>
+        <v>2.92</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.84</v>
+        <v>2.66</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 14:49</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-port-vale/YqqSZY7h/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-exeter/vNqOzFhn/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>15/08/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
         <v>2</v>
       </c>
-      <c r="J45" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>15/08/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>2.81</v>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 13:06</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.17</v>
+        <v>3.53</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 13:06</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.92</v>
+        <v>3.96</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.66</v>
+        <v>3.84</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 14:49</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-exeter/vNqOzFhn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-port-vale/YqqSZY7h/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.93</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>6.29</v>
+        <v>3.94</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.4</v>
+        <v>4.12</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-leyton-orient/M5F9HihO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-burton/xrPiUUyU/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Oxford Utd</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.96</v>
+        <v>2.68</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.2</v>
+        <v>2.93</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.52</v>
+        <v>3.11</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.48</v>
+        <v>3.14</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.97</v>
+        <v>2.74</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.42</v>
+        <v>2.68</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-oxford-utd/SrG5IXxI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-lincoln-city/fJZnVAMN/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.9</v>
+        <v>4.42</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.94</v>
+        <v>6.88</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.12</v>
+        <v>4.87</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-burton/xrPiUUyU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-fleetwood-town/nmmWYhNb/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>3.44</v>
+        <v>2.29</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.38</v>
+        <v>2.86</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:36</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.59</v>
+        <v>3.28</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.89</v>
+        <v>2.64</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bolton/S641lYMo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-northampton/6c35mhxh/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.29</v>
+        <v>2.03</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 15:36</t>
+          <t>26/08/2023 15:49</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.1</v>
+        <v>3.56</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.64</v>
+        <v>4.01</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-northampton/6c35mhxh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-reading/OYcAnCib/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.56</v>
+        <v>3.78</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.01</v>
+        <v>3.89</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:49</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-reading/OYcAnCib/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-shrewsbury/2PdEoW64/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.01</v>
+        <v>3.44</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.1</v>
+        <v>4.38</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.32</v>
+        <v>3.59</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.78</v>
+        <v>2.16</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.89</v>
+        <v>1.89</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-shrewsbury/2PdEoW64/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bolton/S641lYMo/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,63 +5457,63 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.19</v>
+        <v>1.76</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.68</v>
+        <v>1.79</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.34</v>
+        <v>3.81</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.25</v>
+        <v>3.94</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.84</v>
+        <v>4.49</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-charlton/zVSkSs6q/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.87</v>
+        <v>2.52</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.29</v>
+        <v>3.41</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:38</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.57</v>
+        <v>2.84</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:50</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-derby/ELRgR1Lk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-barnsley/Oj9plPS2/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.29</v>
+        <v>2.68</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.18</v>
+        <v>3.27</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.27</v>
+        <v>2.84</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:18</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-carlisle/reWcQLzd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.58</v>
+        <v>1.92</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.24</v>
+        <v>3.51</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.75</v>
+        <v>4.18</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.93</v>
+        <v>3.27</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>26/08/2023 15:52</t>
+          <t>26/08/2023 15:18</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-portsmouth/MoV1Puj2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-carlisle/reWcQLzd/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.41</v>
+        <v>3.29</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:38</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>26/08/2023 15:50</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-barnsley/Oj9plPS2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-derby/ELRgR1Lk/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.79</v>
+        <v>2.57</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.81</v>
+        <v>3.24</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.94</v>
+        <v>3.31</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.67</v>
+        <v>2.75</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.49</v>
+        <v>2.93</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:52</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-charlton/zVSkSs6q/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-portsmouth/MoV1Puj2/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Port Vale</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>1.75</v>
+        <v>2.43</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.75</v>
+        <v>3.42</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.83</v>
+        <v>3.61</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.87</v>
+        <v>2.81</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>5.11</v>
+        <v>3.36</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-port-vale/lEbOaMRE/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-peterborough/WxlTbtsL/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Wigan</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>29/08/2023 00:42</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.49</v>
+        <v>3.75</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>29/08/2023 00:42</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.57</v>
+        <v>3.83</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.51</v>
+        <v>4.87</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>29/08/2023 00:42</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.56</v>
+        <v>5.11</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-wigan/xfDlmqr9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-port-vale/lEbOaMRE/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.2</v>
+        <v>3.41</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.52</v>
+        <v>3.37</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>02/09/2023 15:19</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.6</v>
+        <v>3.09</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.34</v>
+        <v>2.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:53</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-derby/WGChn3cF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-wycombe/ANaK02C8/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>2.18</v>
+        <v>2.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.38</v>
+        <v>3.19</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:50</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.46</v>
+        <v>2.85</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>02/09/2023 15:56</t>
+          <t>02/09/2023 15:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-lincoln-city/A7BdoNCL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-stevenage/M76xxJZ7/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,63 +6469,63 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.44</v>
+        <v>1.93</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>02/09/2023 15:17</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.31</v>
+        <v>3.68</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.22</v>
+        <v>3.85</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>02/09/2023 15:17</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.03</v>
+        <v>3.94</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>02/09/2023 15:17</t>
+          <t>02/09/2023 15:57</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-shrewsbury/nkEPvLkk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-fleetwood-town/0hITwu5e/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,63 +6561,63 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:17</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.68</v>
+        <v>3.31</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.85</v>
+        <v>3.22</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:17</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.94</v>
+        <v>3.03</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:17</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-fleetwood-town/0hITwu5e/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-shrewsbury/nkEPvLkk/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.18</v>
+        <v>2.97</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="N68" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>29/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
         <v>3.42</v>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P68" t="n">
-        <v>3.61</v>
-      </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.81</v>
+        <v>2.6</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>29/08/2023 10:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.36</v>
+        <v>2.48</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>02/09/2023 15:57</t>
+          <t>02/09/2023 15:52</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-peterborough/WxlTbtsL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-exeter/jJSgpsSR/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>4.01</v>
+        <v>2.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.91</v>
+        <v>2.14</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.53</v>
+        <v>3.38</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>02/09/2023 15:31</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.95</v>
+        <v>3.46</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.99</v>
+        <v>3.8</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>02/09/2023 15:53</t>
+          <t>02/09/2023 15:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-barnsley/rH7YxaK1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-lincoln-city/A7BdoNCL/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.96</v>
+        <v>2.22</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.03</v>
+        <v>3.52</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>02/09/2023 15:50</t>
+          <t>02/09/2023 15:19</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.74</v>
+        <v>3.34</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>02/09/2023 15:59</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-stevenage/M76xxJZ7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-derby/WGChn3cF/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>29/08/2023 00:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.97</v>
+        <v>2.11</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>29/08/2023 00:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.42</v>
+        <v>3.57</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:31</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.6</v>
+        <v>3.51</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>29/08/2023 10:12</t>
+          <t>29/08/2023 00:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.48</v>
+        <v>3.56</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>02/09/2023 15:52</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-exeter/jJSgpsSR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-wigan/xfDlmqr9/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.25</v>
+        <v>4.01</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.5</v>
+        <v>3.91</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.41</v>
+        <v>3.53</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,32 +7052,32 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.37</v>
+        <v>3.62</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
+          <t>02/09/2023 15:31</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>29/08/2023 10:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>02/09/2023 15:53</t>
         </is>
       </c>
-      <c r="R72" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>29/08/2023 10:12</t>
-        </is>
-      </c>
-      <c r="T72" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:53</t>
-        </is>
-      </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-wycombe/ANaK02C8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-barnsley/rH7YxaK1/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.85</v>
+        <v>1.94</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.31</v>
+        <v>1.99</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.16</v>
+        <v>3.46</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.55</v>
+        <v>3.85</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.3</v>
+        <v>3.92</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bristol-rovers/QyJL2qag/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-charlton/4SHP13Ea/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="n">
-        <v>3.37</v>
+        <v>2.85</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bristol-rovers/QyJL2qag/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.92</v>
+        <v>3.37</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.4</v>
+        <v>3.39</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N80" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>08/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>3.59</v>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>08/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>3.32</v>
-      </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.09</v>
+        <v>2.18</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.18</v>
+        <v>2.17</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.62</v>
+        <v>3.32</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.85</v>
+        <v>4.09</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.92</v>
+        <v>3.18</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-charlton/4SHP13Ea/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.24</v>
+        <v>3.43</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.28</v>
+        <v>3.25</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.07</v>
+        <v>3.54</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.99</v>
+        <v>1.91</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.13</v>
+        <v>2.08</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.57</v>
+        <v>3.24</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.47</v>
+        <v>4.28</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.31</v>
+        <v>4.07</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-oxford-utd/80nenOEC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.7</v>
+        <v>2.99</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.56</v>
+        <v>3.13</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.82</v>
+        <v>3.41</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.01</v>
+        <v>3.57</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.12</v>
+        <v>2.47</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>6.76</v>
+        <v>2.31</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-cheltenham/jPijm4a6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-oxford-utd/80nenOEC/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.55</v>
+        <v>3.82</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>4.01</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.25</v>
+        <v>5.12</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.54</v>
+        <v>6.76</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-cheltenham/jPijm4a6/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3.47</v>
+        <v>1.72</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4.73</v>
+        <v>1.67</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:32</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.37</v>
+        <v>3.77</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.49</v>
+        <v>3.88</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:32</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.1</v>
+        <v>4.99</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.86</v>
+        <v>5.54</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:32</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-stevenage/v5U11fKG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-lincoln-city/jcTufCCj/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
       <c r="J92" t="n">
-        <v>1.72</v>
+        <v>2.63</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.67</v>
+        <v>2.9</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:32</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.88</v>
+        <v>3.36</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:32</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.99</v>
+        <v>2.6</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.54</v>
+        <v>2.56</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:32</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-lincoln-city/jcTufCCj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:21</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.75</v>
+        <v>3.56</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.79</v>
+        <v>3.44</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.56</v>
+        <v>3.94</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.56</v>
+        <v>4.46</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2.63</v>
+        <v>3.47</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.9</v>
+        <v>4.73</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.56</v>
+        <v>1.86</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-stevenage/v5U11fKG/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Shrewsbury</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:21</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.94</v>
+        <v>3.27</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.46</v>
+        <v>3.43</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.66</v>
+        <v>3.79</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.27</v>
+        <v>4.56</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.43</v>
+        <v>4.56</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.92</v>
+        <v>2.13</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.03</v>
+        <v>2.49</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.56</v>
+        <v>3.35</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.13</v>
+        <v>3.62</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.79</v>
+        <v>3.02</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.49</v>
+        <v>2.81</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>3.38</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.02</v>
+        <v>2.58</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.81</v>
+        <v>2.23</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
           <t>23/09/2023 15:37</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:46</t>
-        </is>
-      </c>
       <c r="R99" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.58</v>
+        <v>3.26</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.14</v>
+        <v>3.84</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.26</v>
+        <v>3.39</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.84</v>
+        <v>4.13</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.39</v>
+        <v>3.79</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.08</v>
+        <v>1.96</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.71</v>
+        <v>4.31</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.4</v>
+        <v>4.31</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>2</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Carlisle</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
       <c r="J104" t="n">
-        <v>1.78</v>
+        <v>3.14</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.96</v>
+        <v>3.11</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.7</v>
+        <v>3.21</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.41</v>
+        <v>3.59</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>4.31</v>
+        <v>2.42</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.31</v>
+        <v>2.31</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>3.14</v>
+        <v>2.53</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.11</v>
+        <v>2.42</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.42</v>
+        <v>2.83</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.31</v>
+        <v>3.06</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.42</v>
+        <v>3.08</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.06</v>
+        <v>2.4</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.76</v>
+        <v>2.23</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.55</v>
+        <v>3.36</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.74</v>
+        <v>3.34</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.02</v>
+        <v>3.36</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.36</v>
+        <v>3.48</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.34</v>
+        <v>5.01</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.13</v>
+        <v>1.64</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.48</v>
+        <v>4.18</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.53</v>
+        <v>4.2</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.57</v>
+        <v>5.29</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>2.18</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.64</v>
+        <v>2.51</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.18</v>
+        <v>3.31</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.29</v>
+        <v>2.81</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Blackpool</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.51</v>
+        <v>1.76</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.31</v>
+        <v>3.55</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.55</v>
+        <v>4.74</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.81</v>
+        <v>5.02</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.43</v>
+        <v>1.8</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.49</v>
+        <v>3.78</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.54</v>
+        <v>3.72</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.79</v>
+        <v>4.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.95</v>
+        <v>4.73</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Fleetwood</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>2</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.98</v>
+        <v>1.56</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.37</v>
+        <v>1.53</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.32</v>
+        <v>4.11</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.19</v>
+        <v>4.21</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.36</v>
+        <v>6.08</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.36</v>
+        <v>6.92</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11153,34 +11153,34 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.87</v>
+        <v>2.43</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N117" t="n">
@@ -11188,36 +11188,36 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.83</v>
+        <v>3.54</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.38</v>
+        <v>2.79</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.17</v>
+        <v>2.95</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>3.49</v>
+        <v>2.98</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.66</v>
+        <v>3.37</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.62</v>
+        <v>3.19</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.11</v>
+        <v>2.36</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.57</v>
+        <v>3.38</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.73</v>
+        <v>4.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>1.56</v>
+        <v>2.61</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.53</v>
+        <v>2.84</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.11</v>
+        <v>3.37</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4.21</v>
+        <v>3.52</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>6.08</v>
+        <v>2.64</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>6.92</v>
+        <v>2.52</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.33</v>
+        <v>3.54</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.49</v>
+        <v>3.71</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.59</v>
+        <v>3.7</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3</v>
+        <v>3.49</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.97</v>
+        <v>3.59</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-stevenage/6gTHSWIF/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2.61</v>
+        <v>2.26</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.52</v>
+        <v>2.97</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
         <v>2.06</v>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:32</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P125" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:32</t>
-        </is>
-      </c>
-      <c r="R125" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>30/09/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T125" t="n">
-        <v>3.7</v>
-      </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Cambridge Utd</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
       <c r="J142" t="n">
-        <v>2.77</v>
+        <v>1.65</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.14</v>
+        <v>4.06</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.25</v>
+        <v>3.81</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.75</v>
+        <v>4.72</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.48</v>
+        <v>4.49</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
         </is>
       </c>
     </row>
@@ -13545,71 +13545,71 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.65</v>
+        <v>2.77</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.82</v>
+        <v>3.1</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>4.06</v>
+        <v>3.14</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.81</v>
+        <v>3.25</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.72</v>
+        <v>2.75</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.49</v>
+        <v>2.48</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -13702,6 +13702,834 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>4</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>4</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:31</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:24</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:31</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:46</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.37</v>
+        <v>1.92</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.39</v>
+        <v>2.4</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.18</v>
+        <v>4.09</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.17</v>
+        <v>3.18</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.92</v>
+        <v>3.37</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.4</v>
+        <v>3.39</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N81" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>08/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>3.59</v>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>08/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>3.32</v>
-      </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.09</v>
+        <v>2.18</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.18</v>
+        <v>2.17</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.43</v>
+        <v>3.24</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.25</v>
+        <v>4.28</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.54</v>
+        <v>4.07</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.49</v>
+        <v>4.06</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.24</v>
+        <v>3.95</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.28</v>
+        <v>5.09</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.07</v>
+        <v>4.01</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-leyton-orient/CUxo9oMP/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.15</v>
+        <v>3.55</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.13</v>
+        <v>3.43</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.86</v>
+        <v>3.25</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.92</v>
+        <v>3.54</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-burton/IBgrkQUg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.06</v>
+        <v>4.15</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.95</v>
+        <v>4.13</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.09</v>
+        <v>5.86</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.01</v>
+        <v>4.92</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-leyton-orient/CUxo9oMP/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-burton/IBgrkQUg/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.63</v>
+        <v>1.79</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.36</v>
+        <v>3.79</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.6</v>
+        <v>4.56</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.56</v>
+        <v>4.56</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.79</v>
+        <v>2.63</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.79</v>
+        <v>3.36</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.56</v>
+        <v>2.6</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.56</v>
+        <v>2.56</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.57</v>
+        <v>3.38</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.73</v>
+        <v>4.17</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.43</v>
+        <v>1.8</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.49</v>
+        <v>3.78</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.54</v>
+        <v>3.72</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.79</v>
+        <v>4.57</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.95</v>
+        <v>4.73</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.17</v>
+        <v>3.49</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.87</v>
+        <v>3.66</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.83</v>
+        <v>3.62</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.38</v>
+        <v>2.11</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.17</v>
+        <v>2.06</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.98</v>
+        <v>2.41</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.4</v>
+        <v>2.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.61</v>
+        <v>2.98</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.52</v>
+        <v>3.28</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
-        <v>3.49</v>
+        <v>2.61</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.66</v>
+        <v>2.84</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N125" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
         <v>3.52</v>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>30/09/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P125" t="n">
-        <v>3.62</v>
-      </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.06</v>
+        <v>3.81</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.29</v>
+        <v>3.61</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.69</v>
+        <v>4.15</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>6.25</v>
+        <v>4.8</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.36</v>
+        <v>3.03</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.41</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.15</v>
+        <v>2.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>4.29</v>
+        <v>1.76</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>6.41</v>
+        <v>1.61</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>1.78</v>
+        <v>4.71</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>1.58</v>
+        <v>5.88</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,48 +12372,48 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
           <t>07/10/2023 15:52</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O130" t="inlineStr">
+      <c r="R130" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S130" t="inlineStr">
         <is>
           <t>03/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P130" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q130" t="inlineStr">
+      <c r="T130" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U130" t="inlineStr">
         <is>
           <t>07/10/2023 15:52</t>
         </is>
       </c>
-      <c r="R130" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T130" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:52</t>
-        </is>
-      </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.43</v>
+        <v>1.66</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.29</v>
+        <v>1.6</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.27</v>
+        <v>3.95</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.37</v>
+        <v>4.37</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.07</v>
+        <v>5.22</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.34</v>
+        <v>5.52</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.4</v>
+        <v>2.93</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.39</v>
+        <v>3.11</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.14</v>
+        <v>2.48</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.76</v>
+        <v>4.29</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.61</v>
+        <v>6.41</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.07</v>
+        <v>4.02</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.71</v>
+        <v>1.78</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.88</v>
+        <v>1.58</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.95</v>
+        <v>3.32</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>5.22</v>
+        <v>2.79</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.52</v>
+        <v>3.15</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>2.41</v>
+        <v>1.6</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.03</v>
+        <v>1.55</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.33</v>
+        <v>4.06</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.19</v>
+        <v>4.29</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.9</v>
+        <v>5.69</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.57</v>
+        <v>6.25</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>1.78</v>
+        <v>2.43</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.81</v>
+        <v>3.27</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.61</v>
+        <v>3.37</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.15</v>
+        <v>3.07</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>4.8</v>
+        <v>3.34</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.82</v>
+        <v>2.67</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>4.06</v>
+        <v>3.38</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.81</v>
+        <v>3.35</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.72</v>
+        <v>2.46</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.49</v>
+        <v>2.78</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,14 +13553,14 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>2.77</v>
+        <v>3.96</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.1</v>
+        <v>4.39</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.14</v>
+        <v>3.58</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.48</v>
+        <v>1.91</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:42</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,48 +13660,48 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N144" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
         <v>4.15</v>
       </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>14/10/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P144" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:19</t>
-        </is>
-      </c>
-      <c r="R144" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>14/10/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T144" t="n">
-        <v>7.77</v>
-      </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -13729,30 +13729,30 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.81</v>
+        <v>1.8</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -13760,15 +13760,15 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.34</v>
+        <v>3.88</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.48</v>
+        <v>4.02</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -13776,15 +13776,15 @@
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.62</v>
+        <v>4.63</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.57</v>
+        <v>4.31</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
         </is>
       </c>
     </row>
@@ -13821,71 +13821,71 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.91</v>
+        <v>3.53</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.96</v>
+        <v>4.12</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,22 +13921,22 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
@@ -13944,15 +13944,15 @@
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.53</v>
+        <v>3.32</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -13960,11 +13960,11 @@
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T147" t="n">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.19</v>
+        <v>2.77</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.19</v>
+        <v>3.1</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>3.14</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.51</v>
+        <v>2.75</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.67</v>
+        <v>1.92</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.38</v>
+        <v>3.77</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.35</v>
+        <v>3.91</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.46</v>
+        <v>3.96</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.78</v>
+        <v>3.9</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.89</v>
+        <v>2.76</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.03</v>
+        <v>2.81</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>4.12</v>
+        <v>2.62</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>3.85</v>
+        <v>2.57</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.88</v>
+        <v>4.15</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.02</v>
+        <v>4.85</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>4.63</v>
+        <v>5.86</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>4.31</v>
+        <v>7.77</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>1</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
       <c r="J152" t="n">
-        <v>3.96</v>
+        <v>1.65</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>4.39</v>
+        <v>1.82</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.58</v>
+        <v>4.06</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.52</v>
+        <v>3.81</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>1.95</v>
+        <v>4.72</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>1.91</v>
+        <v>4.49</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:42</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,63 +14473,1167 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>14/10/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>Port Vale</t>
         </is>
       </c>
-      <c r="I153" t="n">
+      <c r="G154" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>14/10/2023 17:12</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>14/10/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:52</t>
-        </is>
-      </c>
-      <c r="R153" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>14/10/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T153" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>21/10/2023 15:51</t>
-        </is>
-      </c>
-      <c r="V153" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:04</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>3</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:04</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-stevenage/fotfEzab/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>3</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-burton/Sbv2CETA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45223.86458333334</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>4</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45223.875</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>24/10/2023 20:53</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-fleetwood-town/l8iVB2fc/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.07</v>
+        <v>2.68</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.28</v>
+        <v>2.71</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 18:42</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.56</v>
+        <v>2.76</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.18</v>
+        <v>2.81</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.71</v>
+        <v>2.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 18:42</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.76</v>
+        <v>3.39</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.24</v>
+        <v>1.71</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.79</v>
+        <v>1.69</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.31</v>
+        <v>3.84</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.11</v>
+        <v>3.98</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.39</v>
+        <v>4.97</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.83</v>
+        <v>5.09</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:44</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.84</v>
+        <v>4.03</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.98</v>
+        <v>3.57</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.97</v>
+        <v>5.15</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>5.09</v>
+        <v>4.04</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:44</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.03</v>
+        <v>3.57</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,32 +3648,32 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.57</v>
+        <v>3.55</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>15/08/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="R35" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.46</v>
+        <v>1.57</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.71</v>
+        <v>1.69</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.31</v>
+        <v>4.15</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>4.13</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.08</v>
+        <v>5.86</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.7</v>
+        <v>4.92</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-blackpool/0fBYasqC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-burton/IBgrkQUg/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.89</v>
+        <v>3.54</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-cambridge-utd/ni7U0NT5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.46</v>
+        <v>3.82</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.62</v>
+        <v>4.01</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.85</v>
+        <v>5.12</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.92</v>
+        <v>6.76</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-charlton/4SHP13Ea/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-cheltenham/jPijm4a6/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,63 +7665,63 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.31</v>
+        <v>3.13</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>16/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>08/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
           <t>16/09/2023 15:50</t>
         </is>
       </c>
-      <c r="N79" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>08/09/2023 15:43</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:51</t>
-        </is>
-      </c>
       <c r="R79" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bristol-rovers/QyJL2qag/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-oxford-utd/80nenOEC/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.09</v>
+        <v>4.28</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>3.37</v>
+        <v>1.66</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.39</v>
+        <v>1.88</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.58</v>
+        <v>4.06</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.18</v>
+        <v>5.09</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.17</v>
+        <v>4.01</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-leyton-orient/CUxo9oMP/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.07</v>
+        <v>3.18</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.66</v>
+        <v>3.37</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.88</v>
+        <v>3.39</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.06</v>
+        <v>3.58</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.95</v>
+        <v>3.59</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>5.09</v>
+        <v>2.18</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.01</v>
+        <v>2.17</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-leyton-orient/CUxo9oMP/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.13</v>
+        <v>3.31</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.41</v>
+        <v>3.16</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>16/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>08/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
           <t>16/09/2023 15:50</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>08/09/2023 15:42</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:38</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-oxford-utd/80nenOEC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bristol-rovers/QyJL2qag/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.82</v>
+        <v>3.46</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.01</v>
+        <v>3.62</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.12</v>
+        <v>3.85</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.76</v>
+        <v>3.92</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-cheltenham/jPijm4a6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-charlton/4SHP13Ea/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.25</v>
+        <v>4.35</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.54</v>
+        <v>3.89</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-cambridge-utd/ni7U0NT5/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.69</v>
+        <v>2.71</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.15</v>
+        <v>3.31</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.13</v>
+        <v>3.41</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>5.86</v>
+        <v>3.08</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.92</v>
+        <v>2.7</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-burton/IBgrkQUg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-blackpool/0fBYasqC/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.52</v>
+        <v>3.42</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.12</v>
+        <v>4.28</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.96</v>
+        <v>3.97</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-portsmouth/rDiXc0dR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-burton/ryzKldJD/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>4.28</v>
+        <v>3.12</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.97</v>
+        <v>2.96</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-burton/ryzKldJD/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-portsmouth/rDiXc0dR/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,63 +8953,63 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1.89</v>
+        <v>2.63</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:21</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.94</v>
+        <v>2.6</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.46</v>
+        <v>2.56</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
       <c r="J94" t="n">
-        <v>3.47</v>
+        <v>1.89</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>4.73</v>
+        <v>1.93</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:21</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.37</v>
+        <v>3.56</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.1</v>
+        <v>3.94</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.86</v>
+        <v>4.46</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-stevenage/v5U11fKG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.63</v>
+        <v>3.47</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.9</v>
+        <v>4.73</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.56</v>
+        <v>1.86</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-stevenage/v5U11fKG/</t>
         </is>
       </c>
     </row>
@@ -9865,71 +9865,71 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.96</v>
+        <v>3.08</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.31</v>
+        <v>2.71</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.31</v>
+        <v>2.4</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.14</v>
+        <v>1.78</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.11</v>
+        <v>1.96</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.21</v>
+        <v>3.7</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.42</v>
+        <v>4.31</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.31</v>
+        <v>4.31</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.53</v>
+        <v>3.14</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,48 +10072,48 @@
         </is>
       </c>
       <c r="L105" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>2.42</v>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O105" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>24/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P105" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R105" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T105" t="n">
-        <v>3.06</v>
+        <v>2.31</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.08</v>
+        <v>2.42</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.4</v>
+        <v>3.06</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,63 +10241,63 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>3.09</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.92</v>
+        <v>2.64</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.32</v>
+        <v>3.23</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.8</v>
+        <v>3.49</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.82</v>
+        <v>2.44</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>3.09</v>
+        <v>2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.64</v>
+        <v>1.92</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.49</v>
+        <v>3.8</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.44</v>
+        <v>3.82</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.72</v>
+        <v>4</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.97</v>
+        <v>3.7</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.05</v>
+        <v>4.74</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4.23</v>
+        <v>5.02</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.7</v>
+        <v>3.97</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.74</v>
+        <v>4.05</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>5.02</v>
+        <v>4.23</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.49</v>
+        <v>3.78</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.83</v>
+        <v>3.72</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.38</v>
+        <v>4.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.17</v>
+        <v>4.73</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.8</v>
+        <v>2.43</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>4.57</v>
+        <v>2.79</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.73</v>
+        <v>2.95</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>3.49</v>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>30/09/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:44</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>3.52</v>
-      </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.62</v>
+        <v>3.83</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.11</v>
+        <v>3.38</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.06</v>
+        <v>4.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>2.41</v>
+        <v>2.61</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.43</v>
+        <v>2.84</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.49</v>
+        <v>3.37</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.79</v>
+        <v>2.64</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.95</v>
+        <v>2.52</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2.61</v>
+        <v>3.49</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.84</v>
+        <v>3.66</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.37</v>
+        <v>3.52</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.81</v>
+        <v>3.95</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.61</v>
+        <v>4.37</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.15</v>
+        <v>5.22</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.8</v>
+        <v>5.52</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.03</v>
+        <v>1.82</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.33</v>
+        <v>3.81</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>3.61</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.9</v>
+        <v>4.15</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.57</v>
+        <v>4.8</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.76</v>
+        <v>2.41</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.61</v>
+        <v>3.03</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.75</v>
+        <v>3.33</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.07</v>
+        <v>3.19</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.71</v>
+        <v>2.9</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.88</v>
+        <v>2.57</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4.37</v>
+        <v>4.07</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.22</v>
+        <v>4.71</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>5.52</v>
+        <v>5.88</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,14 +12633,14 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J133" t="n">
-        <v>4.29</v>
+        <v>2.43</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>6.41</v>
+        <v>2.29</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.7</v>
+        <v>3.27</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.02</v>
+        <v>3.37</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>1.78</v>
+        <v>3.07</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>1.58</v>
+        <v>3.34</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.5</v>
+        <v>4.29</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.36</v>
+        <v>6.41</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.41</v>
+        <v>4.02</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.79</v>
+        <v>1.78</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.15</v>
+        <v>1.58</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.55</v>
+        <v>2.36</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.06</v>
+        <v>3.32</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.29</v>
+        <v>3.41</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>5.69</v>
+        <v>2.79</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>6.25</v>
+        <v>3.15</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J136" t="n">
-        <v>2.43</v>
+        <v>1.6</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.29</v>
+        <v>1.55</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.27</v>
+        <v>4.06</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.37</v>
+        <v>4.29</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.07</v>
+        <v>5.69</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.34</v>
+        <v>6.25</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.8</v>
+        <v>1.79</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.67</v>
+        <v>1.97</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.46</v>
+        <v>4.65</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.78</v>
+        <v>4.15</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.5</v>
+        <v>4.02</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.65</v>
+        <v>4.63</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.15</v>
+        <v>4.31</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
         </is>
       </c>
     </row>
@@ -13729,71 +13729,71 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.88</v>
+        <v>3.64</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>4.02</v>
+        <v>3.53</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>4.63</v>
+        <v>4.12</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>4.31</v>
+        <v>3.85</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>1.89</v>
+        <v>2.8</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.03</v>
+        <v>2.67</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.64</v>
+        <v>3.38</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>4.12</v>
+        <v>2.46</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Cambridge Utd</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.81</v>
+        <v>1.42</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.34</v>
+        <v>4.15</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.48</v>
+        <v>4.85</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.62</v>
+        <v>5.86</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.57</v>
+        <v>7.77</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1.57</v>
+        <v>2.77</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.42</v>
+        <v>3.1</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>4.15</v>
+        <v>3.14</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>5.86</v>
+        <v>2.75</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>7.77</v>
+        <v>2.48</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>2.98</v>
+        <v>2.21</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.31</v>
+        <v>2.58</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.37</v>
+        <v>3.32</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.6</v>
+        <v>3.14</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,14 +14657,14 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J155" t="n">
-        <v>2.21</v>
+        <v>2.88</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.14</v>
+        <v>3.48</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.45</v>
+        <v>2.51</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.58</v>
+        <v>2.51</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.5</v>
+        <v>2.98</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.6</v>
+        <v>3.31</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>4.28</v>
+        <v>3.37</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4.14</v>
+        <v>3.6</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>6.03</v>
+        <v>2.44</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.91</v>
+        <v>2.2</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>3.92</v>
+        <v>2.65</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>4.29</v>
+        <v>3.06</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.67</v>
+        <v>3.39</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.65</v>
+        <v>3.44</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>1.87</v>
+        <v>2.58</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>1.89</v>
+        <v>2.41</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.63</v>
+        <v>1.58</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.29</v>
+        <v>4.09</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.39</v>
+        <v>3.71</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.79</v>
+        <v>5.9</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.07</v>
+        <v>5.2</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-stevenage/fotfEzab/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
         </is>
       </c>
     </row>
@@ -15109,22 +15109,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.38</v>
+        <v>2.46</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>4.5</v>
+        <v>3.29</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.82</v>
+        <v>3.3</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         </is>
       </c>
       <c r="R160" t="n">
-        <v>7.23</v>
+        <v>3.57</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>9.26</v>
+        <v>3.09</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-burton/Sbv2CETA/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.58</v>
+        <v>3.92</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.74</v>
+        <v>4.29</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>4.09</v>
+        <v>3.67</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.71</v>
+        <v>3.65</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>5.9</v>
+        <v>1.87</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.2</v>
+        <v>1.89</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>2.91</v>
+        <v>2.63</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.33</v>
+        <v>3.29</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.51</v>
+        <v>2.79</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>2.27</v>
+        <v>3.07</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-stevenage/fotfEzab/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G163" t="n">
+        <v>3</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
         <v>2</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Burton</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
       <c r="J163" t="n">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,48 +15408,48 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.46</v>
+        <v>1.38</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
           <t>24/10/2023 20:41</t>
         </is>
       </c>
-      <c r="N163" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O163" t="inlineStr">
+      <c r="R163" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S163" t="inlineStr">
         <is>
           <t>21/10/2023 17:13</t>
         </is>
       </c>
-      <c r="P163" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q163" t="inlineStr">
+      <c r="T163" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="U163" t="inlineStr">
         <is>
           <t>24/10/2023 20:41</t>
         </is>
       </c>
-      <c r="R163" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T163" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="U163" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:41</t>
-        </is>
-      </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-burton/Sbv2CETA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -15485,14 +15485,14 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.88</v>
+        <v>1.5</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.56</v>
+        <v>1.6</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.36</v>
+        <v>4.28</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.48</v>
+        <v>4.14</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.51</v>
+        <v>6.03</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.81</v>
+        <v>5.91</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
         </is>
       </c>
     </row>
@@ -15634,6 +15634,1110 @@
       <c r="V165" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/reading-fleetwood-town/l8iVB2fc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-lincoln-city/6B0OlWh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>4</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-fleetwood-town/rVjZAM93/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>3</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:44</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:44</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:44</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>5.17</v>
+        <v>3.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.14</v>
+        <v>4.44</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:34</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.68</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 15:43</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.16</v>
+        <v>3.31</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.49</v>
+        <v>2.45</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.44</v>
+        <v>5.17</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.44</v>
+        <v>4.14</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:34</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>1.68</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-derby/hW4XdaAs/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>05/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>12/08/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>05/08/2023 18:24</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:32</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>05/08/2023 18:24</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:52</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.56</v>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.06</v>
+        <v>3.49</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:32</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
       <c r="J25" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.03</v>
+        <v>2.56</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.45</v>
+        <v>3.06</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-portsmouth/MBdlgH96/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>15/08/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="R26" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S26" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:36</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.63</v>
+        <v>1.69</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.54</v>
+        <v>4.97</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.85</v>
+        <v>5.09</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.56</v>
+        <v>2.24</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:37</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.88</v>
+        <v>3.39</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.85</v>
+        <v>2.68</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.96</v>
+        <v>2.71</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.59</v>
+        <v>3.26</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.43</v>
+        <v>3.24</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 18:42</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.41</v>
+        <v>2.76</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.27</v>
+        <v>2.81</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.68</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.71</v>
+        <v>2.13</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.26</v>
+        <v>3.38</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.24</v>
+        <v>3.58</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15/08/2023 18:42</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.76</v>
+        <v>3.29</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.81</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.79</v>
+        <v>1.96</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.31</v>
+        <v>3.59</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.11</v>
+        <v>3.43</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.39</v>
+        <v>4.41</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.83</v>
+        <v>4.27</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.71</v>
+        <v>2.56</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.69</v>
+        <v>2.93</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.84</v>
+        <v>3.27</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.98</v>
+        <v>3.12</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:37</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.97</v>
+        <v>2.88</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.09</v>
+        <v>2.69</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.97</v>
+        <v>2.63</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.03</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.57</v>
+        <v>3.31</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.15</v>
+        <v>3.54</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.04</v>
+        <v>2.85</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,32 +3556,32 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.58</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>15/08/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:43</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.36</v>
+        <v>3.51</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.56</v>
+        <v>3.89</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.78</v>
+        <v>3.74</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-cheltenham/G8C1JDNB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-exeter/QJJlMFwg/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.51</v>
+        <v>3.36</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.89</v>
+        <v>3.56</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.74</v>
+        <v>3.78</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-exeter/QJJlMFwg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-cheltenham/G8C1JDNB/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.46</v>
+        <v>2.68</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>2.93</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.32</v>
+        <v>3.11</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.71</v>
+        <v>3.14</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>6.54</v>
+        <v>2.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>15/08/2023 21:13</t>
+          <t>15/08/2023 21:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>8.869999999999999</v>
+        <v>2.68</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-cheltenham/82yuXWiB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-lincoln-city/fJZnVAMN/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.21</v>
+        <v>1.46</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.32</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.41</v>
+        <v>4.32</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.58</v>
+        <v>4.71</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.28</v>
+        <v>6.54</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.21</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-peterborough/UBxyYCx5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-cheltenham/82yuXWiB/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.27</v>
+        <v>2.62</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:44</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.38</v>
+        <v>3.45</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.27</v>
+        <v>3.51</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.37</v>
+        <v>2.74</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>19/08/2023 15:57</t>
+          <t>19/08/2023 15:44</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-stevenage/GSzqWj7H/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-bristol-rovers/0WpKyewt/</t>
         </is>
       </c>
     </row>
@@ -4437,46 +4437,46 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Exeter</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.6</v>
+        <v>2.21</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.81</v>
+        <v>3.27</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.17</v>
+        <v>3.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.32</v>
+        <v>3.27</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>15/08/2023 21:12</t>
+          <t>15/08/2023 21:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.66</v>
+        <v>2.37</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19/08/2023 15:58</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-exeter/vNqOzFhn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-stevenage/GSzqWj7H/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.59</v>
+        <v>1.48</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.62</v>
+        <v>1.73</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19/08/2023 15:44</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.45</v>
+        <v>4.42</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.51</v>
+        <v>3.95</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19/08/2023 15:55</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.6</v>
+        <v>6.88</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.74</v>
+        <v>4.87</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>19/08/2023 15:44</t>
+          <t>19/08/2023 15:56</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-bristol-rovers/0WpKyewt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-fleetwood-town/nmmWYhNb/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.81</v>
+        <v>3.21</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.94</v>
+        <v>3.32</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.9</v>
+        <v>3.41</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.94</v>
+        <v>2.28</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.12</v>
+        <v>2.21</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>19/08/2023 15:41</t>
+          <t>19/08/2023 15:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-burton/xrPiUUyU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-peterborough/UBxyYCx5/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:57</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>19/08/2023 15:27</t>
+          <t>19/08/2023 15:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-lincoln-city/fJZnVAMN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-exeter/vNqOzFhn/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.73</v>
+        <v>1.94</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.42</v>
+        <v>3.9</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>6.88</v>
+        <v>3.94</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.87</v>
+        <v>4.12</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/08/2023 15:56</t>
+          <t>19/08/2023 15:41</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-fleetwood-town/nmmWYhNb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-burton/xrPiUUyU/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.25</v>
+        <v>3.44</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.25</v>
+        <v>4.38</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.24</v>
+        <v>1.89</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wycombe/E3GJPlpo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bolton/S641lYMo/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Shrewsbury</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.1</v>
+        <v>2.68</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.78</v>
+        <v>3.27</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>19/08/2023 16:13</t>
+          <t>20/08/2023 16:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.89</v>
+        <v>2.84</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>26/08/2023 15:58</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-shrewsbury/2PdEoW64/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.44</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.38</v>
+        <v>2.25</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.89</v>
+        <v>3.24</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bolton/S641lYMo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wycombe/E3GJPlpo/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.19</v>
+        <v>2.01</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.27</v>
+        <v>3.78</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>20/08/2023 16:42</t>
+          <t>19/08/2023 16:13</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.84</v>
+        <v>3.89</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-cambridge-utd/dndIpjMA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-shrewsbury/2PdEoW64/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.69</v>
+        <v>2.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.15</v>
+        <v>3.31</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.13</v>
+        <v>3.41</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>5.86</v>
+        <v>3.08</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.92</v>
+        <v>2.7</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-burton/IBgrkQUg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-blackpool/0fBYasqC/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:57</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.25</v>
+        <v>4.35</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>08/09/2023 15:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.54</v>
+        <v>3.89</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>16/09/2023 15:21</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-cambridge-utd/ni7U0NT5/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.7</v>
+        <v>2.85</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.56</v>
+        <v>3.31</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.82</v>
+        <v>3.16</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.01</v>
+        <v>3.38</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>5.12</v>
+        <v>2.55</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>6.76</v>
+        <v>2.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-cheltenham/jPijm4a6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bristol-rovers/QyJL2qag/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.99</v>
+        <v>3.37</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.13</v>
+        <v>3.39</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.47</v>
+        <v>2.18</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-oxford-utd/80nenOEC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.07</v>
+        <v>3.18</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.06</v>
+        <v>3.46</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.95</v>
+        <v>3.62</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.01</v>
+        <v>3.92</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:55</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-leyton-orient/CUxo9oMP/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-charlton/4SHP13Ea/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.09</v>
+        <v>4.28</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-northampton/IBFD45Ut/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-carlisle/0fZtAR6J/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>3.37</v>
+        <v>2.99</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.39</v>
+        <v>3.13</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:50</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.17</v>
+        <v>2.31</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-bolton/d2EH3Pqm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-oxford-utd/80nenOEC/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Bristol Rovers</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
       <c r="J84" t="n">
-        <v>2.85</v>
+        <v>1.7</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.31</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.16</v>
+        <v>3.82</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.38</v>
+        <v>4.01</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.55</v>
+        <v>5.12</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>08/09/2023 15:43</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.3</v>
+        <v>6.76</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>16/09/2023 15:50</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bristol-rovers/QyJL2qag/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-cheltenham/jPijm4a6/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.46</v>
+        <v>3.55</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.62</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>09/09/2023 17:13</t>
+          <t>08/09/2023 15:43</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.92</v>
+        <v>3.54</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>16/09/2023 15:55</t>
+          <t>16/09/2023 15:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-charlton/4SHP13Ea/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-portsmouth/CYhnlpp0/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.76</v>
+        <v>4.13</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>16/09/2023 15:57</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.35</v>
+        <v>5.86</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.89</v>
+        <v>4.92</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-cambridge-utd/ni7U0NT5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-burton/IBgrkQUg/</t>
         </is>
       </c>
     </row>
@@ -8393,30 +8393,30 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.46</v>
+        <v>1.66</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.71</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -8424,15 +8424,15 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.31</v>
+        <v>4.06</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.41</v>
+        <v>3.95</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,15 +8440,15 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.08</v>
+        <v>5.09</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>08/09/2023 15:42</t>
+          <t>09/09/2023 17:13</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.7</v>
+        <v>4.01</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-blackpool/0fBYasqC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-leyton-orient/CUxo9oMP/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.04</v>
+        <v>2.43</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.28</v>
+        <v>3.12</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.97</v>
+        <v>2.96</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>19/09/2023 20:41</t>
+          <t>19/09/2023 20:44</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-burton/ryzKldJD/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-portsmouth/rDiXc0dR/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.43</v>
+        <v>2.04</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.52</v>
+        <v>3.42</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.12</v>
+        <v>4.28</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.96</v>
+        <v>3.97</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>19/09/2023 20:44</t>
+          <t>19/09/2023 20:41</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-portsmouth/rDiXc0dR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-burton/ryzKldJD/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>1.72</v>
+        <v>3.47</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.67</v>
+        <v>4.73</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:32</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.77</v>
+        <v>3.37</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.88</v>
+        <v>3.49</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:32</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.99</v>
+        <v>2.1</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.54</v>
+        <v>1.86</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>23/09/2023 15:32</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-lincoln-city/jcTufCCj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-stevenage/v5U11fKG/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:32</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:32</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.56</v>
+        <v>4.99</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.56</v>
+        <v>5.54</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:32</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-lincoln-city/jcTufCCj/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.63</v>
+        <v>1.79</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.36</v>
+        <v>3.79</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>4.56</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.56</v>
+        <v>4.56</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.89</v>
+        <v>2.63</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:21</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.94</v>
+        <v>2.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.46</v>
+        <v>2.56</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:21</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.66</v>
+        <v>3.44</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.27</v>
+        <v>3.94</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.43</v>
+        <v>4.46</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>3.47</v>
+        <v>2.22</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.73</v>
+        <v>2.13</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.49</v>
+        <v>3.66</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.86</v>
+        <v>3.43</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-stevenage/v5U11fKG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.13</v>
+        <v>1.92</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.49</v>
+        <v>2.03</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.62</v>
+        <v>4.13</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.02</v>
+        <v>3.79</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.81</v>
+        <v>2.49</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.58</v>
+        <v>3.02</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.14</v>
+        <v>3.84</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.26</v>
+        <v>3.39</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.98</v>
+        <v>3.12</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.17</v>
+        <v>3.53</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.84</v>
+        <v>2.33</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.39</v>
+        <v>2.18</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-derby/Iktg3Gk4/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.03</v>
+        <v>2.81</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.56</v>
+        <v>3.41</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>4.13</v>
+        <v>3.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.79</v>
+        <v>2.58</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>3.12</v>
+        <v>2.21</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.53</v>
+        <v>2.23</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.33</v>
+        <v>3.14</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.18</v>
+        <v>3.26</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-derby/Iktg3Gk4/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,63 +9873,63 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.67</v>
+        <v>2.18</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.08</v>
+        <v>2.51</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.15</v>
+        <v>3.31</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.71</v>
+        <v>3.55</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,22 +10333,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.92</v>
+        <v>3.08</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -10356,40 +10356,40 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>30/09/2023 15:18</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
           <t>30/09/2023 15:57</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>4</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:57</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Blackpool</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
       <c r="J113" t="n">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.6</v>
+        <v>3.97</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.55</v>
+        <v>4.05</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.81</v>
+        <v>4.23</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.96</v>
+        <v>3.32</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.97</v>
+        <v>3.8</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.05</v>
+        <v>3.82</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.23</v>
+        <v>4</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.72</v>
+        <v>3.83</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.57</v>
+        <v>3.38</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.73</v>
+        <v>4.17</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.11</v>
+        <v>3.78</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.21</v>
+        <v>3.72</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>6.08</v>
+        <v>4.57</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>6.92</v>
+        <v>4.73</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.41</v>
+        <v>1.56</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.43</v>
+        <v>1.53</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.49</v>
+        <v>4.11</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.79</v>
+        <v>6.08</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.95</v>
+        <v>6.92</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.98</v>
+        <v>2.41</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.19</v>
+        <v>3.54</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.36</v>
+        <v>2.79</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.36</v>
+        <v>2.95</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>2.17</v>
+        <v>2.98</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.87</v>
+        <v>3.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.38</v>
+        <v>2.36</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.17</v>
+        <v>2.36</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.61</v>
+        <v>3.49</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.84</v>
+        <v>3.66</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.37</v>
+        <v>3.52</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
-        <v>3.49</v>
+        <v>2.61</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.66</v>
+        <v>2.84</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N125" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
         <v>3.52</v>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>30/09/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P125" t="n">
-        <v>3.62</v>
-      </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.95</v>
+        <v>3.81</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.37</v>
+        <v>3.61</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.22</v>
+        <v>4.15</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.52</v>
+        <v>4.8</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.82</v>
+        <v>3.03</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.81</v>
+        <v>3.33</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.61</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.15</v>
+        <v>2.9</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.8</v>
+        <v>2.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.41</v>
+        <v>1.66</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>3.03</v>
+        <v>1.6</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.33</v>
+        <v>3.95</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.19</v>
+        <v>4.37</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.9</v>
+        <v>5.22</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.57</v>
+        <v>5.52</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.4</v>
+        <v>1.61</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.35</v>
+        <v>4.07</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.39</v>
+        <v>4.71</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.14</v>
+        <v>5.88</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,48 +12464,48 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
           <t>07/10/2023 15:52</t>
         </is>
       </c>
-      <c r="N131" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O131" t="inlineStr">
+      <c r="R131" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S131" t="inlineStr">
         <is>
           <t>03/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P131" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:00</t>
-        </is>
-      </c>
-      <c r="R131" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
       <c r="T131" t="n">
-        <v>5.88</v>
+        <v>3.14</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,14 +12633,14 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.43</v>
+        <v>4.29</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.29</v>
+        <v>6.41</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.27</v>
+        <v>3.7</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.37</v>
+        <v>4.02</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.07</v>
+        <v>1.78</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.34</v>
+        <v>1.58</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>4.29</v>
+        <v>2.5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>6.41</v>
+        <v>2.36</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.7</v>
+        <v>3.32</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.02</v>
+        <v>3.41</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>1.78</v>
+        <v>2.79</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1.58</v>
+        <v>3.15</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.36</v>
+        <v>1.55</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.32</v>
+        <v>4.06</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.41</v>
+        <v>4.29</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.15</v>
+        <v>6.25</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>1.6</v>
+        <v>2.43</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.55</v>
+        <v>2.29</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>4.06</v>
+        <v>3.27</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>4.29</v>
+        <v>3.37</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>5.69</v>
+        <v>3.07</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>6.25</v>
+        <v>3.34</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -13085,30 +13085,30 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,31 +13116,31 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:29</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.04</v>
+        <v>2.72</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.32</v>
+        <v>3.03</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>4.15</v>
+        <v>2.73</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:52</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.03</v>
+        <v>4.32</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.73</v>
+        <v>4.15</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:52</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
         </is>
       </c>
     </row>
@@ -13361,30 +13361,30 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G141" t="n">
+        <v>3</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Burton</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
       <c r="J141" t="n">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -13392,40 +13392,40 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
+          <t>14/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
           <t>14/10/2023 15:58</t>
         </is>
       </c>
-      <c r="R141" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>09/10/2023 20:11</t>
-        </is>
-      </c>
-      <c r="T141" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>14/10/2023 15:58</t>
-        </is>
-      </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.97</v>
+        <v>2.67</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.65</v>
+        <v>2.46</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.15</v>
+        <v>2.78</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -13545,71 +13545,71 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
       <c r="J143" t="n">
-        <v>3.96</v>
+        <v>1.65</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>4.39</v>
+        <v>1.82</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.58</v>
+        <v>4.06</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.52</v>
+        <v>3.81</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>1.95</v>
+        <v>4.72</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>1.91</v>
+        <v>4.49</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:42</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.75</v>
+        <v>2.77</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.88</v>
+        <v>3.14</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.63</v>
+        <v>2.75</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.31</v>
+        <v>2.48</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.03</v>
+        <v>1.42</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.64</v>
+        <v>4.15</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.53</v>
+        <v>4.85</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>4.12</v>
+        <v>5.86</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.85</v>
+        <v>7.77</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.78</v>
+        <v>2.57</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G147" t="n">
+        <v>4</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
       <c r="J147" t="n">
-        <v>2.19</v>
+        <v>1.83</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>3.77</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.35</v>
+        <v>3.91</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.51</v>
+        <v>3.96</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>2.76</v>
+        <v>2.05</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.81</v>
+        <v>2.11</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.34</v>
+        <v>3.53</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.62</v>
+        <v>3.66</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.57</v>
+        <v>3.6</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1.83</v>
+        <v>2.19</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.77</v>
+        <v>3.32</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.91</v>
+        <v>3.35</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.96</v>
+        <v>3.51</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.42</v>
+        <v>2.03</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4.15</v>
+        <v>3.64</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.85</v>
+        <v>3.53</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.86</v>
+        <v>4.12</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.77</v>
+        <v>3.85</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>2.77</v>
+        <v>1.75</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.14</v>
+        <v>3.88</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.75</v>
+        <v>4.63</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.48</v>
+        <v>4.31</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1.65</v>
+        <v>3.96</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.82</v>
+        <v>4.39</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>4.06</v>
+        <v>3.58</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.81</v>
+        <v>3.52</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>4.72</v>
+        <v>1.95</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>4.49</v>
+        <v>1.91</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:42</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,63 +14473,63 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.53</v>
+        <v>3.69</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.66</v>
+        <v>4.65</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.21</v>
+        <v>2.98</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>2.58</v>
+        <v>3.31</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.14</v>
+        <v>3.6</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,14 +14657,14 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>2.88</v>
+        <v>2.21</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.48</v>
+        <v>3.14</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>2.51</v>
+        <v>3.45</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,14 +14749,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J156" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,11 +14780,11 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R156" t="n">
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.27</v>
+        <v>2.81</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
       <c r="J157" t="n">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>4.09</v>
+        <v>4.28</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.71</v>
+        <v>4.14</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>5.9</v>
+        <v>6.03</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.2</v>
+        <v>5.91</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.14</v>
+        <v>3.71</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>6.03</v>
+        <v>5.9</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>5.91</v>
+        <v>5.2</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>3.38</v>
+        <v>2.55</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.57</v>
+        <v>3.21</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.08</v>
+        <v>2.93</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" t="n">
-        <v>1.75</v>
+        <v>3.38</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.74</v>
+        <v>3.56</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.79</v>
+        <v>3.57</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.58</v>
+        <v>2.08</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>5.1</v>
+        <v>2.11</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I168" t="n">
         <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:32</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.88</v>
+        <v>3.63</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.91</v>
+        <v>4.58</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>4.07</v>
+        <v>5.1</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:32</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.22</v>
+        <v>3.59</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>3.33</v>
+        <v>4.07</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-lincoln-city/6B0OlWh1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2.47</v>
+        <v>2.01</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,11 +16052,11 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="N170" t="n">
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.89</v>
+        <v>3.93</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.9</v>
+        <v>3.33</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-lincoln-city/6B0OlWh1/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>1.95</v>
+        <v>2.51</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1.91</v>
+        <v>3.16</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.59</v>
+        <v>3.37</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.66</v>
+        <v>3.37</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.95</v>
+        <v>2.74</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>4.19</v>
+        <v>2.38</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.51</v>
+        <v>2.04</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>3.16</v>
+        <v>2.43</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.37</v>
+        <v>3.18</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 11:52</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.74</v>
+        <v>3.96</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.38</v>
+        <v>3.27</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,14 +16313,14 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.46</v>
+        <v>3.55</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3.31</v>
+        <v>4.34</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.17</v>
+        <v>3.69</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:47</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.03</v>
+        <v>3.59</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.84</v>
+        <v>3.66</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>4.46</v>
+        <v>3.95</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.4</v>
+        <v>4.19</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:47</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-fleetwood-town/rVjZAM93/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J175" t="n">
-        <v>2.55</v>
+        <v>2.13</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.24</v>
+        <v>3.46</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.93</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.64</v>
+        <v>3.17</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.43</v>
+        <v>1.83</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:47</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.13</v>
+        <v>4.03</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.18</v>
+        <v>3.84</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>28/10/2023 11:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.96</v>
+        <v>4.46</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.27</v>
+        <v>4.4</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:47</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-fleetwood-town/rVjZAM93/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,439 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>24/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45230.86458333334</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-oxford-utd/zBWBjIl1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45230.86458333334</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>Wigan</t>
         </is>
       </c>
-      <c r="G177" t="n">
+      <c r="G179" t="n">
         <v>2</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Shrewsbury</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-charlton/Mq0Zjn0s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45230.86458333334</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>4</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:57</t>
-        </is>
-      </c>
-      <c r="N177" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P177" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:57</t>
-        </is>
-      </c>
-      <c r="R177" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>24/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T177" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="U177" t="inlineStr">
-        <is>
-          <t>28/10/2023 15:57</t>
-        </is>
-      </c>
-      <c r="V177" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
+      <c r="J180" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:31</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-northampton/0hvagK4r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45230.86458333334</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-cambridge-utd/48kvj6Fm/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>4.13</v>
+        <v>3.84</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.79</v>
+        <v>3.39</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.84</v>
+        <v>4.13</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.39</v>
+        <v>3.79</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.51</v>
+        <v>1.92</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.55</v>
+        <v>3.82</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.81</v>
+        <v>4</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,48 +9980,48 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
+          <t>30/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
           <t>30/09/2023 15:51</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R104" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.14</v>
+        <v>1.56</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.11</v>
+        <v>1.64</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.21</v>
+        <v>4.18</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.59</v>
+        <v>4.2</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.31</v>
+        <v>5.29</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.53</v>
+        <v>1.73</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.42</v>
+        <v>2.13</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.83</v>
+        <v>5.01</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.06</v>
+        <v>3.57</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
       <c r="J107" t="n">
-        <v>3.09</v>
+        <v>2.16</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.64</v>
+        <v>2.23</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.44</v>
+        <v>3.34</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.72</v>
+        <v>3.36</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.67</v>
+        <v>1.81</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.71</v>
+        <v>4.74</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.4</v>
+        <v>5.02</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.7</v>
+        <v>3.97</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.74</v>
+        <v>4.05</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.02</v>
+        <v>4.23</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>1</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Leyton Orient</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
       <c r="J110" t="n">
-        <v>2.16</v>
+        <v>3.09</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.23</v>
+        <v>2.64</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.34</v>
+        <v>2.44</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.73</v>
+        <v>2.67</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.57</v>
+        <v>2.4</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>2.53</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.18</v>
+        <v>3.2</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.2</v>
+        <v>3.42</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.3</v>
+        <v>2.83</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.29</v>
+        <v>3.06</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>2</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Bristol Rovers</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
       <c r="J113" t="n">
-        <v>1.77</v>
+        <v>3.14</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.83</v>
+        <v>3.11</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.96</v>
+        <v>3.21</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.97</v>
+        <v>3.59</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.05</v>
+        <v>2.42</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.23</v>
+        <v>2.31</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.82</v>
+        <v>4.31</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4</v>
+        <v>4.31</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.17</v>
+        <v>2.98</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.87</v>
+        <v>3.37</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.38</v>
+        <v>2.36</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.17</v>
+        <v>2.36</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.8</v>
+        <v>2.43</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>4.57</v>
+        <v>2.79</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.73</v>
+        <v>2.95</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>1.56</v>
+        <v>2.61</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.53</v>
+        <v>2.84</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.11</v>
+        <v>3.37</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.21</v>
+        <v>3.52</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>6.08</v>
+        <v>2.64</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>6.92</v>
+        <v>2.52</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.43</v>
+        <v>1.8</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.49</v>
+        <v>3.78</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.54</v>
+        <v>3.72</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.79</v>
+        <v>4.57</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.95</v>
+        <v>4.73</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Fleetwood</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>2</v>
-      </c>
       <c r="J119" t="n">
-        <v>2.98</v>
+        <v>1.56</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.37</v>
+        <v>1.53</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.32</v>
+        <v>4.11</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.19</v>
+        <v>4.21</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.36</v>
+        <v>6.08</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.36</v>
+        <v>6.92</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>3.49</v>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>30/09/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:44</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
-        <v>3.52</v>
-      </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.62</v>
+        <v>3.83</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.11</v>
+        <v>3.38</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.06</v>
+        <v>4.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2.61</v>
+        <v>3.49</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.84</v>
+        <v>3.66</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.37</v>
+        <v>3.52</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
         <v>1</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Wigan</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
       <c r="J127" t="n">
-        <v>1.78</v>
+        <v>2.26</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.82</v>
+        <v>2.93</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.81</v>
+        <v>3.38</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.15</v>
+        <v>3.11</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.8</v>
+        <v>2.48</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>2.41</v>
+        <v>1.6</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.03</v>
+        <v>1.55</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.33</v>
+        <v>4.06</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>4.29</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.9</v>
+        <v>5.69</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.57</v>
+        <v>6.25</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.95</v>
+        <v>3.32</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.22</v>
+        <v>2.79</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.52</v>
+        <v>3.15</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.76</v>
+        <v>4.29</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.61</v>
+        <v>6.41</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.07</v>
+        <v>4.02</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.71</v>
+        <v>1.78</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.88</v>
+        <v>1.58</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,48 +12556,48 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
           <t>07/10/2023 15:52</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O132" t="inlineStr">
+      <c r="R132" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S132" t="inlineStr">
         <is>
           <t>03/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P132" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q132" t="inlineStr">
+      <c r="T132" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U132" t="inlineStr">
         <is>
           <t>07/10/2023 15:52</t>
         </is>
       </c>
-      <c r="R132" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T132" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:52</t>
-        </is>
-      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>4.29</v>
+        <v>1.76</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>6.41</v>
+        <v>1.61</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>1.78</v>
+        <v>4.71</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>1.58</v>
+        <v>5.88</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.5</v>
+        <v>1.66</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.32</v>
+        <v>3.95</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.41</v>
+        <v>4.37</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.79</v>
+        <v>5.22</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.15</v>
+        <v>5.52</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.6</v>
+        <v>2.41</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.55</v>
+        <v>3.03</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.06</v>
+        <v>3.33</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.29</v>
+        <v>3.19</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>5.69</v>
+        <v>2.9</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>6.25</v>
+        <v>2.57</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.43</v>
+        <v>1.78</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.29</v>
+        <v>1.82</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.27</v>
+        <v>3.81</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.37</v>
+        <v>3.61</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.07</v>
+        <v>4.15</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.34</v>
+        <v>4.8</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -13269,30 +13269,30 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,40 +13300,40 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>14/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>14/10/2023 15:58</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>09/10/2023 20:11</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>14/10/2023 15:58</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
         </is>
       </c>
     </row>
@@ -13361,30 +13361,30 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>2.17</v>
+        <v>1.89</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -13392,31 +13392,31 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>14/10/2023 15:29</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.54</v>
+        <v>4.32</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.57</v>
+        <v>4.15</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.8</v>
+        <v>1.79</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.67</v>
+        <v>1.97</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.38</v>
+        <v>3.69</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.46</v>
+        <v>4.65</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.78</v>
+        <v>4.15</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -13545,71 +13545,71 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.65</v>
+        <v>3.96</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.82</v>
+        <v>4.39</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>4.06</v>
+        <v>3.58</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.81</v>
+        <v>3.52</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.72</v>
+        <v>1.95</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.49</v>
+        <v>1.91</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:42</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.77</v>
+        <v>1.75</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.14</v>
+        <v>3.88</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.25</v>
+        <v>4.02</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.75</v>
+        <v>4.63</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.48</v>
+        <v>4.31</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.42</v>
+        <v>2.03</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>4.15</v>
+        <v>3.64</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>4.85</v>
+        <v>3.53</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>5.86</v>
+        <v>4.12</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>7.77</v>
+        <v>3.85</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.76</v>
+        <v>2.19</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.81</v>
+        <v>2.19</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.62</v>
+        <v>3.51</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.57</v>
+        <v>3.6</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.92</v>
+        <v>2.67</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.77</v>
+        <v>3.38</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.91</v>
+        <v>3.35</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.96</v>
+        <v>2.46</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.9</v>
+        <v>2.78</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Wigan</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.55</v>
+        <v>3.91</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.66</v>
+        <v>3.96</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>2.19</v>
+        <v>2.76</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.19</v>
+        <v>2.81</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.51</v>
+        <v>2.62</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>3.6</v>
+        <v>2.57</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.03</v>
+        <v>1.42</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.64</v>
+        <v>4.15</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.53</v>
+        <v>4.85</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>4.12</v>
+        <v>5.86</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>3.85</v>
+        <v>7.77</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>
@@ -14281,71 +14281,71 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1.75</v>
+        <v>2.77</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.88</v>
+        <v>3.14</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.02</v>
+        <v>3.25</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>4.63</v>
+        <v>2.75</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>4.31</v>
+        <v>2.48</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>1</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
       <c r="J152" t="n">
-        <v>3.96</v>
+        <v>1.65</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>4.39</v>
+        <v>1.82</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.58</v>
+        <v>4.06</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.52</v>
+        <v>3.81</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>1.95</v>
+        <v>4.72</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>1.91</v>
+        <v>4.49</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:42</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,63 +14473,63 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>1.97</v>
+        <v>2.11</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.69</v>
+        <v>3.53</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>4.65</v>
+        <v>3.66</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I154" t="n">
         <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,14 +14657,14 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.21</v>
+        <v>2.91</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.14</v>
+        <v>3.57</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.45</v>
+        <v>2.51</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.05</v>
+        <v>2.27</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.56</v>
+        <v>3.31</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.81</v>
+        <v>2.2</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J157" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,11 +14872,11 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R157" t="n">
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.27</v>
+        <v>2.81</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>3.06</v>
+        <v>1.6</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.39</v>
+        <v>4.28</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.44</v>
+        <v>4.14</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>2.58</v>
+        <v>6.03</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>2.41</v>
+        <v>5.91</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -15025,14 +15025,14 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>1.5</v>
+        <v>2.21</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.6</v>
+        <v>2.58</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>4.28</v>
+        <v>3.32</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.14</v>
+        <v>3.14</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>6.03</v>
+        <v>3.45</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.91</v>
+        <v>3.05</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
         </is>
       </c>
     </row>
@@ -15109,22 +15109,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.1</v>
+        <v>3.92</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.46</v>
+        <v>4.29</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.29</v>
+        <v>3.67</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.57</v>
+        <v>1.87</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.09</v>
+        <v>1.89</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-burton/Sbv2CETA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>3.92</v>
+        <v>2.63</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>4.29</v>
+        <v>2.42</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.67</v>
+        <v>3.29</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.65</v>
+        <v>3.39</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>1.87</v>
+        <v>2.79</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>1.89</v>
+        <v>3.07</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-stevenage/fotfEzab/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>2.63</v>
+        <v>1.41</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,48 +15316,48 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.42</v>
+        <v>1.38</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>24/10/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
           <t>24/10/2023 20:41</t>
         </is>
       </c>
-      <c r="N162" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O162" t="inlineStr">
+      <c r="R162" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S162" t="inlineStr">
         <is>
           <t>21/10/2023 17:13</t>
         </is>
       </c>
-      <c r="P162" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q162" t="inlineStr">
+      <c r="T162" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="U162" t="inlineStr">
         <is>
           <t>24/10/2023 20:41</t>
         </is>
       </c>
-      <c r="R162" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>21/10/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T162" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="U162" t="inlineStr">
-        <is>
-          <t>24/10/2023 20:41</t>
-        </is>
-      </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-stevenage/fotfEzab/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.5</v>
+        <v>4.09</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.82</v>
+        <v>3.71</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>7.23</v>
+        <v>5.9</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>9.26</v>
+        <v>5.2</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.74</v>
+        <v>2.46</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.09</v>
+        <v>3.29</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.71</v>
+        <v>3.3</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>5.9</v>
+        <v>3.57</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>5.2</v>
+        <v>3.09</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-burton/Sbv2CETA/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.93</v>
+        <v>2.17</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.24</v>
+        <v>3.55</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.93</v>
+        <v>4.34</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.64</v>
+        <v>3.69</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>3.38</v>
+        <v>2.55</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.57</v>
+        <v>3.21</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.08</v>
+        <v>2.93</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
         </is>
       </c>
     </row>
@@ -15845,22 +15845,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J168" t="n">
-        <v>1.75</v>
+        <v>3.38</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.74</v>
+        <v>3.56</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.79</v>
+        <v>3.57</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.58</v>
+        <v>2.08</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>5.1</v>
+        <v>2.11</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>2</v>
       </c>
       <c r="J169" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:32</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.88</v>
+        <v>3.63</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.91</v>
+        <v>4.58</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>4.07</v>
+        <v>5.1</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:32</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.22</v>
+        <v>3.59</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>3.33</v>
+        <v>4.07</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-lincoln-city/6B0OlWh1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>3.16</v>
+        <v>2.37</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.37</v>
+        <v>3.22</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.74</v>
+        <v>3.93</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>2.38</v>
+        <v>3.33</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-lincoln-city/6B0OlWh1/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16240,11 +16240,11 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.13</v>
+        <v>3.42</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.18</v>
+        <v>3.6</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>28/10/2023 11:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.96</v>
+        <v>2.89</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.88</v>
+        <v>2.51</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.17</v>
+        <v>3.16</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.55</v>
+        <v>3.37</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>4.34</v>
+        <v>2.74</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.69</v>
+        <v>2.38</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>2</v>
-      </c>
       <c r="J177" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16700,11 +16700,11 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.42</v>
+        <v>3.13</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.6</v>
+        <v>3.18</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 11:52</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.89</v>
+        <v>3.96</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,14 +16773,14 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>3.31</v>
+        <v>1.83</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>3.4</v>
+        <v>1.76</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:43</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.19</v>
+        <v>3.68</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.21</v>
+        <v>3.83</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:43</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.25</v>
+        <v>4.38</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.34</v>
+        <v>4.8</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:40</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-oxford-utd/zBWBjIl1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-cambridge-utd/48kvj6Fm/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>2.49</v>
+        <v>1.61</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:31</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.68</v>
+        <v>3.85</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:44</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>2.81</v>
+        <v>5.4</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>2.98</v>
+        <v>7.11</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:44</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-charlton/Mq0Zjn0s/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-northampton/0hvagK4r/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J180" t="n">
-        <v>1.61</v>
+        <v>3.31</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:31</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.85</v>
+        <v>3.19</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:44</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>5.4</v>
+        <v>2.25</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>7.11</v>
+        <v>2.34</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:44</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-northampton/0hvagK4r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-oxford-utd/zBWBjIl1/</t>
         </is>
       </c>
     </row>
@@ -17041,22 +17041,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="n">
-        <v>1.83</v>
+        <v>2.49</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -17064,48 +17064,140 @@
         </is>
       </c>
       <c r="L181" t="n">
-        <v>1.76</v>
+        <v>2.35</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>31/10/2023 20:43</t>
+          <t>31/10/2023 20:29</t>
         </is>
       </c>
       <c r="N181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
         <v>3.68</v>
       </c>
-      <c r="O181" t="inlineStr">
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S181" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P181" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>31/10/2023 20:43</t>
-        </is>
-      </c>
-      <c r="R181" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="S181" t="inlineStr">
+      <c r="T181" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>31/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-charlton/Mq0Zjn0s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45231.86458333334</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>3</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="T181" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="U181" t="inlineStr">
-        <is>
-          <t>31/10/2023 20:40</t>
-        </is>
-      </c>
-      <c r="V181" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-cambridge-utd/48kvj6Fm/</t>
+      <c r="L182" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>01/11/2023 20:35</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>01/11/2023 20:35</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>01/11/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-blackpool/dKX7ibZf/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.98</v>
+        <v>2.21</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.84</v>
+        <v>3.14</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.39</v>
+        <v>3.26</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.03</v>
+        <v>2.81</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.56</v>
+        <v>3.41</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.13</v>
+        <v>3.38</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.79</v>
+        <v>2.58</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.81</v>
+        <v>2.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.41</v>
+        <v>3.59</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.38</v>
+        <v>3.84</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.21</v>
+        <v>1.92</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9816,11 +9816,11 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.14</v>
+        <v>4.13</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.82</v>
+        <v>4.31</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4</v>
+        <v>4.31</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.18</v>
+        <v>3.14</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.51</v>
+        <v>3.11</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.81</v>
+        <v>2.31</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>1.56</v>
+        <v>2.53</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.18</v>
+        <v>3.2</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.2</v>
+        <v>3.42</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>5.3</v>
+        <v>2.83</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.29</v>
+        <v>3.06</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.73</v>
+        <v>2.67</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.57</v>
+        <v>2.4</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.34</v>
+        <v>3.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.36</v>
+        <v>4</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.81</v>
+        <v>3.09</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.76</v>
+        <v>2.64</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.55</v>
+        <v>3.23</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.74</v>
+        <v>2.44</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.02</v>
+        <v>2.72</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
       <c r="J110" t="n">
-        <v>3.09</v>
+        <v>1.81</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,48 +10532,48 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.64</v>
+        <v>1.76</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>30/09/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
           <t>30/09/2023 15:48</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O110" t="inlineStr">
+      <c r="R110" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S110" t="inlineStr">
         <is>
           <t>23/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P110" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:48</t>
-        </is>
-      </c>
-      <c r="R110" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
       <c r="T110" t="n">
-        <v>2.72</v>
+        <v>5.02</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.67</v>
+        <v>2.16</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3.08</v>
+        <v>2.23</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.15</v>
+        <v>3.36</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.71</v>
+        <v>3.34</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.4</v>
+        <v>3.36</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>2.53</v>
+        <v>1.73</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.42</v>
+        <v>2.13</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.83</v>
+        <v>5.01</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.06</v>
+        <v>3.57</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>3.14</v>
+        <v>1.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.11</v>
+        <v>1.64</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.21</v>
+        <v>4.18</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.59</v>
+        <v>4.2</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.31</v>
+        <v>5.29</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,48 +10900,48 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
+          <t>30/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
           <t>30/09/2023 15:51</t>
         </is>
       </c>
-      <c r="N114" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R114" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T114" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.98</v>
+        <v>1.78</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.37</v>
+        <v>1.8</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.32</v>
+        <v>3.78</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.19</v>
+        <v>3.72</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.36</v>
+        <v>4.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.36</v>
+        <v>4.73</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,63 +11069,63 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.41</v>
+        <v>1.56</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.43</v>
+        <v>1.53</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.49</v>
+        <v>4.11</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.54</v>
+        <v>4.21</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.79</v>
+        <v>6.08</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.95</v>
+        <v>6.92</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.61</v>
+        <v>2.41</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.84</v>
+        <v>2.43</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.52</v>
+        <v>2.95</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>2</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
       <c r="J118" t="n">
-        <v>1.78</v>
+        <v>2.98</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.8</v>
+        <v>3.37</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.78</v>
+        <v>3.32</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.57</v>
+        <v>2.36</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.73</v>
+        <v>2.36</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.56</v>
+        <v>2.17</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.11</v>
+        <v>3.49</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.21</v>
+        <v>3.83</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>6.08</v>
+        <v>3.38</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>6.92</v>
+        <v>4.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.17</v>
+        <v>2.98</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.87</v>
+        <v>2.62</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.83</v>
+        <v>3.28</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.38</v>
+        <v>2.4</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.17</v>
+        <v>2.88</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>2.98</v>
+        <v>2.61</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.28</v>
+        <v>3.52</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Barnsley</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
       <c r="J127" t="n">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.93</v>
+        <v>1.82</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.38</v>
+        <v>3.81</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>3.11</v>
+        <v>4.15</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.48</v>
+        <v>4.8</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.6</v>
+        <v>2.41</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.55</v>
+        <v>3.03</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.06</v>
+        <v>3.33</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.29</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.69</v>
+        <v>2.9</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>6.25</v>
+        <v>2.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.5</v>
+        <v>1.66</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.32</v>
+        <v>3.95</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.41</v>
+        <v>4.37</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.79</v>
+        <v>5.22</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.15</v>
+        <v>5.52</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>4.29</v>
+        <v>1.76</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>6.41</v>
+        <v>1.61</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.02</v>
+        <v>4.07</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>1.78</v>
+        <v>4.71</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>1.58</v>
+        <v>5.88</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>1</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Wycombe</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>4</v>
-      </c>
       <c r="J131" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.07</v>
+        <v>3.39</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.14</v>
+        <v>4.29</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.4</v>
+        <v>6.41</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.35</v>
+        <v>4.02</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.39</v>
+        <v>1.78</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.14</v>
+        <v>1.58</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.61</v>
+        <v>2.93</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.75</v>
+        <v>3.38</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.07</v>
+        <v>3.46</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.71</v>
+        <v>3.11</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.88</v>
+        <v>2.48</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.6</v>
+        <v>2.36</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.95</v>
+        <v>3.32</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>5.22</v>
+        <v>2.79</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.52</v>
+        <v>3.15</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>2.41</v>
+        <v>1.6</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.03</v>
+        <v>1.55</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.33</v>
+        <v>4.06</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.19</v>
+        <v>4.29</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.9</v>
+        <v>5.69</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.57</v>
+        <v>6.25</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J136" t="n">
-        <v>1.78</v>
+        <v>2.43</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.82</v>
+        <v>2.29</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.81</v>
+        <v>3.27</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.61</v>
+        <v>3.37</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.15</v>
+        <v>3.07</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>4.8</v>
+        <v>3.34</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,63 +13093,63 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>4.09</v>
+        <v>3.03</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.93</v>
+        <v>2.73</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:52</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -13185,63 +13185,63 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.03</v>
+        <v>4.09</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.73</v>
+        <v>3.93</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:52</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J156" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>3.31</v>
+        <v>2.56</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.2</v>
+        <v>2.81</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>2.88</v>
+        <v>2.21</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.48</v>
+        <v>3.14</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.51</v>
+        <v>3.45</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>2.21</v>
+        <v>2.98</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.58</v>
+        <v>3.31</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.32</v>
+        <v>3.37</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.14</v>
+        <v>3.6</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I172" t="n">
-        <v>2</v>
-      </c>
       <c r="J172" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16240,11 +16240,11 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.42</v>
+        <v>3.13</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.6</v>
+        <v>3.18</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 11:52</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>2.89</v>
+        <v>3.96</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16700,11 +16700,11 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.13</v>
+        <v>3.42</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.18</v>
+        <v>3.6</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>28/10/2023 11:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.96</v>
+        <v>2.89</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.83</v>
+        <v>1.61</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:43</t>
+          <t>31/10/2023 20:31</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.68</v>
+        <v>3.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.83</v>
+        <v>3.85</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:43</t>
+          <t>31/10/2023 20:44</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>4.38</v>
+        <v>5.4</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.8</v>
+        <v>7.11</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:40</t>
+          <t>31/10/2023 20:44</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-cambridge-utd/48kvj6Fm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-northampton/0hvagK4r/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>1.61</v>
+        <v>3.31</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:31</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.85</v>
+        <v>3.19</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:44</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>5.4</v>
+        <v>2.25</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>7.11</v>
+        <v>2.34</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:44</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-northampton/0hvagK4r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-oxford-utd/zBWBjIl1/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J180" t="n">
-        <v>3.31</v>
+        <v>2.49</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:29</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.21</v>
+        <v>3.68</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:29</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>2.25</v>
+        <v>2.81</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:29</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-oxford-utd/zBWBjIl1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-charlton/Mq0Zjn0s/</t>
         </is>
       </c>
     </row>
@@ -17041,22 +17041,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.49</v>
+        <v>1.83</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -17064,15 +17064,15 @@
         </is>
       </c>
       <c r="L181" t="n">
-        <v>2.35</v>
+        <v>1.76</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:43</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -17080,15 +17080,15 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3.68</v>
+        <v>3.83</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:43</t>
         </is>
       </c>
       <c r="R181" t="n">
-        <v>2.81</v>
+        <v>4.38</v>
       </c>
       <c r="S181" t="inlineStr">
         <is>
@@ -17096,16 +17096,16 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>2.98</v>
+        <v>4.8</v>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:40</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-charlton/Mq0Zjn0s/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-cambridge-utd/48kvj6Fm/</t>
         </is>
       </c>
     </row>
@@ -17198,6 +17198,190 @@
       <c r="V182" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-blackpool/dKX7ibZf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45237.86458333334</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45237.86458333334</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>31/10/2023 07:11</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>31/10/2023 07:11</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>31/10/2023 07:11</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V184"/>
+  <dimension ref="A1:V185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17225,30 +17225,30 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
         <v>2</v>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
       <c r="J183" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>3.07</v>
+        <v>3.93</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
@@ -17256,15 +17256,15 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -17272,24 +17272,24 @@
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>07/11/2023 20:42</t>
+          <t>07/11/2023 20:43</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
         </is>
       </c>
     </row>
@@ -17317,30 +17317,30 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>3.58</v>
+        <v>3.29</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.93</v>
+        <v>3.07</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,15 +17348,15 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -17364,24 +17364,116 @@
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>07/11/2023 20:43</t>
+          <t>07/11/2023 20:42</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45237.875</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>07/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-bristol-rovers/n900clND/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V185"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.23</v>
+        <v>2.81</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.26</v>
+        <v>2.58</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.81</v>
+        <v>3.53</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.38</v>
+        <v>2.33</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-derby/Iktg3Gk4/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>3.12</v>
+        <v>2.21</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.53</v>
+        <v>2.23</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.33</v>
+        <v>3.14</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.18</v>
+        <v>3.26</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-derby/Iktg3Gk4/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.98</v>
+        <v>2.17</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.37</v>
+        <v>1.87</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.32</v>
+        <v>3.49</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.19</v>
+        <v>3.83</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.36</v>
+        <v>3.38</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.36</v>
+        <v>4.17</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.17</v>
+        <v>3.49</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.87</v>
+        <v>3.66</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.83</v>
+        <v>3.62</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.38</v>
+        <v>2.11</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.17</v>
+        <v>2.06</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>2</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Wigan</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>2.98</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.62</v>
+        <v>3.37</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.61</v>
+        <v>2.98</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.52</v>
+        <v>3.28</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
         </is>
       </c>
     </row>
@@ -11889,71 +11889,71 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
-        <v>3.49</v>
+        <v>2.61</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.66</v>
+        <v>2.84</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N125" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
         <v>3.52</v>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>30/09/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P125" t="n">
-        <v>3.62</v>
-      </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.11</v>
+        <v>2.64</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.37</v>
+        <v>4.07</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>5.22</v>
+        <v>4.71</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.52</v>
+        <v>5.88</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,48 +12372,48 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
           <t>07/10/2023 15:52</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O130" t="inlineStr">
+      <c r="R130" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S130" t="inlineStr">
         <is>
           <t>03/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P130" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:00</t>
-        </is>
-      </c>
-      <c r="R130" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
       <c r="T130" t="n">
-        <v>5.88</v>
+        <v>3.14</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.35</v>
+        <v>4.37</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.39</v>
+        <v>5.22</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.14</v>
+        <v>5.52</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>4.29</v>
+        <v>2.26</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>6.41</v>
+        <v>2.93</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.02</v>
+        <v>3.46</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>1.78</v>
+        <v>3.11</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.26</v>
+        <v>4.29</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.93</v>
+        <v>6.41</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.46</v>
+        <v>4.02</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.11</v>
+        <v>1.78</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Leyton Orient</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:29</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.03</v>
+        <v>3.54</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.73</v>
+        <v>3.57</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:52</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>3.93</v>
+        <v>4.15</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.33</v>
+        <v>3.22</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:29</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.54</v>
+        <v>3.03</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3.57</v>
+        <v>2.73</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:52</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.32</v>
+        <v>4.09</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.15</v>
+        <v>3.93</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.97</v>
+        <v>2.67</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.65</v>
+        <v>2.46</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.15</v>
+        <v>2.78</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>3.96</v>
+        <v>1.79</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>4.39</v>
+        <v>1.97</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.58</v>
+        <v>3.69</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>1.95</v>
+        <v>4.65</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>1.91</v>
+        <v>4.15</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:42</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.75</v>
+        <v>3.96</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.8</v>
+        <v>4.39</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.88</v>
+        <v>3.58</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4.02</v>
+        <v>3.52</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.63</v>
+        <v>1.95</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.31</v>
+        <v>1.91</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:42</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
         </is>
       </c>
     </row>
@@ -13729,71 +13729,71 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.64</v>
+        <v>3.88</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.53</v>
+        <v>4.02</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>4.12</v>
+        <v>4.63</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.19</v>
+        <v>1.89</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.32</v>
+        <v>3.64</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.35</v>
+        <v>3.53</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.51</v>
+        <v>4.12</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.67</v>
+        <v>2.19</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13956,11 +13956,11 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.46</v>
+        <v>3.51</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.77</v>
+        <v>4.06</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.91</v>
+        <v>3.81</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.96</v>
+        <v>4.72</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.9</v>
+        <v>4.49</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,63 +14105,63 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.76</v>
+        <v>1.83</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.81</v>
+        <v>1.92</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.34</v>
+        <v>3.77</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.48</v>
+        <v>3.91</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.62</v>
+        <v>3.96</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.57</v>
+        <v>3.9</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G150" t="n">
+        <v>4</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
         <v>1</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Carlisle</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
       <c r="J150" t="n">
-        <v>1.57</v>
+        <v>2.76</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.42</v>
+        <v>2.81</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>4.15</v>
+        <v>3.34</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.85</v>
+        <v>3.48</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.86</v>
+        <v>2.62</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.77</v>
+        <v>2.57</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2.77</v>
+        <v>1.57</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.14</v>
+        <v>4.15</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.25</v>
+        <v>4.85</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.75</v>
+        <v>5.86</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>2.48</v>
+        <v>7.77</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1.65</v>
+        <v>2.77</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.82</v>
+        <v>3.1</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>4.06</v>
+        <v>3.14</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.81</v>
+        <v>3.25</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>4.72</v>
+        <v>2.75</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>4.49</v>
+        <v>2.48</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J154" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.06</v>
+        <v>2.56</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.58</v>
+        <v>2.51</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.56</v>
+        <v>3.31</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.81</v>
+        <v>2.2</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,14 +15669,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:32</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.55</v>
+        <v>3.88</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.32</v>
+        <v>3.59</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.34</v>
+        <v>4.91</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.69</v>
+        <v>4.07</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,14 +15853,14 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>3.38</v>
+        <v>1.88</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>3.56</v>
+        <v>2.17</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.08</v>
+        <v>4.34</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.11</v>
+        <v>3.69</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J169" t="n">
-        <v>1.75</v>
+        <v>3.38</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.74</v>
+        <v>3.56</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.79</v>
+        <v>3.57</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.58</v>
+        <v>2.08</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>5.1</v>
+        <v>2.11</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I170" t="n">
         <v>2</v>
       </c>
       <c r="J170" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:32</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.88</v>
+        <v>3.63</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.91</v>
+        <v>4.58</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>4.07</v>
+        <v>5.1</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J172" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.13</v>
+        <v>3.46</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.18</v>
+        <v>3.43</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>28/10/2023 11:52</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2.51</v>
+        <v>2.04</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>3.16</v>
+        <v>2.43</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.37</v>
+        <v>3.18</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 11:52</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.74</v>
+        <v>3.96</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.38</v>
+        <v>3.27</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1.95</v>
+        <v>2.51</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.91</v>
+        <v>3.16</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.59</v>
+        <v>3.37</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.66</v>
+        <v>3.37</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.95</v>
+        <v>2.74</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.19</v>
+        <v>2.38</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.46</v>
+        <v>3.59</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.43</v>
+        <v>3.66</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>3.95</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.17</v>
+        <v>4.19</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
         </is>
       </c>
     </row>
@@ -17225,30 +17225,30 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>3.58</v>
+        <v>3.29</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>3.93</v>
+        <v>3.07</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
@@ -17256,15 +17256,15 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -17272,24 +17272,24 @@
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>07/11/2023 20:43</t>
+          <t>07/11/2023 20:42</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
         </is>
       </c>
     </row>
@@ -17317,30 +17317,30 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
         <v>2</v>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
       <c r="J184" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.07</v>
+        <v>3.93</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,15 +17348,15 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -17364,24 +17364,24 @@
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>07/11/2023 20:42</t>
+          <t>07/11/2023 20:43</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
         </is>
       </c>
     </row>
@@ -17474,6 +17474,98 @@
       <c r="V185" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/reading-bristol-rovers/n900clND/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>5</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:53</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-cambridge-utd/t2KaNjaQ/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:V197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.55</v>
+        <v>1.96</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.16</v>
+        <v>3.66</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>3.82</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.49</v>
+        <v>4.2</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:24</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-northampton/vmTE9xfm/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>2.77</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>3.43</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.59</v>
+        <v>3.26</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:52</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.67</v>
+        <v>2.56</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 18:24</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>4.18</v>
+        <v>3.06</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 15:58</t>
+          <t>12/08/2023 15:32</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.38</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.05</v>
+        <v>3.27</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:34</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.78</v>
+        <v>2.88</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.76</v>
+        <v>4.07</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-charlton/UDwuGvHJ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-shrewsbury/0dUAAIvs/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.73</v>
+        <v>2.24</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:34</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 00:29</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.7</v>
+        <v>3.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 13:38</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-reading/84xqFbWP/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-cambridge-utd/rLcpfcf0/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.38</v>
+        <v>4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.27</v>
+        <v>4.05</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:34</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.88</v>
+        <v>4.78</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 15:55</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-shrewsbury/0dUAAIvs/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-charlton/UDwuGvHJ/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.66</v>
+        <v>3.45</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.22</v>
+        <v>3.59</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.82</v>
+        <v>3.67</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>06/08/2023 23:42</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>12/08/2023 15:24</t>
+          <t>12/08/2023 15:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-northampton/vmTE9xfm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-carlisle/S8adievJ/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.77</v>
+        <v>2.39</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:32</t>
+          <t>12/08/2023 15:34</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.26</v>
+        <v>3.38</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:52</t>
+          <t>12/08/2023 00:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.56</v>
+        <v>3.06</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>05/08/2023 18:24</t>
+          <t>06/08/2023 23:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.06</v>
+        <v>2.7</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:32</t>
+          <t>12/08/2023 13:38</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-wycombe/GYehhyPC/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-reading/84xqFbWP/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>15/08/2023 20:44</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.03</v>
+        <v>3.46</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,32 +2820,32 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>15/08/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="R26" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.69</v>
+        <v>2.63</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.84</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.98</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.97</v>
+        <v>3.54</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.09</v>
+        <v>2.85</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:36</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:37</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.39</v>
+        <v>2.88</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15/08/2023 20:40</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.68</v>
+        <v>1.85</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.71</v>
+        <v>1.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.26</v>
+        <v>3.59</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.24</v>
+        <v>3.43</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15/08/2023 18:42</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.76</v>
+        <v>4.41</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.81</v>
+        <v>4.27</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15/08/2023 20:02</t>
+          <t>15/08/2023 19:25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.13</v>
+        <v>2.28</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.38</v>
+        <v>3.57</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,32 +3188,32 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>15/08/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:43</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.85</v>
+        <v>2.68</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.96</v>
+        <v>2.71</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.59</v>
+        <v>3.26</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.43</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 18:42</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.41</v>
+        <v>2.76</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.27</v>
+        <v>2.81</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15/08/2023 19:25</t>
+          <t>15/08/2023 20:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-oxford-utd/44VuOy9t/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-wigan/EujW3YNO/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.56</v>
+        <v>2.24</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.93</v>
+        <v>2.79</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:37</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.88</v>
+        <v>3.39</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:40</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-lincoln-city/nTKpNeOn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-stevenage/zkiS4E8I/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.63</v>
+        <v>1.69</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:41</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.54</v>
+        <v>4.97</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.85</v>
+        <v>5.09</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>15/08/2023 20:36</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-burton/fgOhLZha/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-fleetwood-town/UyMR6zv6/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>15/08/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>15/08/2023 20:43</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>12/08/2023 16:13</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>15/08/2023 20:36</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:13</t>
-        </is>
-      </c>
       <c r="T34" t="n">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>15/08/2023 20:43</t>
+          <t>15/08/2023 20:44</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-leyton-orient/YqNdKg85/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-port-vale/zFMN7GOa/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.28</v>
+        <v>2.13</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>15/08/2023 20:41</t>
+          <t>15/08/2023 20:43</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.56</v>
+        <v>3.29</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bristol-rovers/SrvESH0P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-peterborough/MBIJ8d9g/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.51</v>
+        <v>3.36</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.89</v>
+        <v>3.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.74</v>
+        <v>3.78</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-exeter/QJJlMFwg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-cheltenham/G8C1JDNB/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.36</v>
+        <v>3.51</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.56</v>
+        <v>3.89</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.78</v>
+        <v>3.74</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-cheltenham/G8C1JDNB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-exeter/QJJlMFwg/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Shrewsbury</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:21</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:39</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.94</v>
+        <v>3.27</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.46</v>
+        <v>3.43</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:40</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:21</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.66</v>
+        <v>3.44</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.27</v>
+        <v>3.94</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.43</v>
+        <v>4.46</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:40</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-wycombe/0EVc2z5A/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.81</v>
+        <v>2.49</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.38</v>
+        <v>3.62</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.58</v>
+        <v>3.02</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.13</v>
+        <v>1.92</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.49</v>
+        <v>2.03</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.62</v>
+        <v>4.13</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.02</v>
+        <v>3.79</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-port-vale/4nxk4dzb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>3.12</v>
+        <v>1.98</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.53</v>
+        <v>2.17</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.33</v>
+        <v>3.84</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.18</v>
+        <v>3.39</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>23/09/2023 15:35</t>
+          <t>23/09/2023 15:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-derby/Iktg3Gk4/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.21</v>
+        <v>3.12</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.23</v>
+        <v>3.53</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.6</v>
+        <v>3.43</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.14</v>
+        <v>2.33</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.26</v>
+        <v>2.18</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:35</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-derby/Iktg3Gk4/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.17</v>
+        <v>2.81</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.61</v>
+        <v>3.44</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.84</v>
+        <v>3.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:54</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-peterborough/WtY5sZSp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.92</v>
+        <v>2.21</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.03</v>
+        <v>2.23</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.56</v>
+        <v>3.46</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9816,11 +9816,11 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>4.13</v>
+        <v>3.14</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-reading/fHAxa1bI/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.7</v>
+        <v>3.32</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.41</v>
+        <v>3.8</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.31</v>
+        <v>3.82</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.31</v>
+        <v>4</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>2</v>
-      </c>
       <c r="J104" t="n">
-        <v>3.14</v>
+        <v>2.18</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.11</v>
+        <v>2.51</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.31</v>
+        <v>2.81</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.53</v>
+        <v>1.56</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.2</v>
+        <v>4.18</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.42</v>
+        <v>4.2</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.83</v>
+        <v>5.3</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.06</v>
+        <v>5.29</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.67</v>
+        <v>1.73</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.08</v>
+        <v>2.13</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.4</v>
+        <v>3.57</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.82</v>
+        <v>3.34</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4</v>
+        <v>3.36</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
       <c r="J108" t="n">
-        <v>3.09</v>
+        <v>1.81</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,48 +10348,48 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.64</v>
+        <v>1.76</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>30/09/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
           <t>30/09/2023 15:48</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O108" t="inlineStr">
+      <c r="R108" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S108" t="inlineStr">
         <is>
           <t>23/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P108" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:48</t>
-        </is>
-      </c>
-      <c r="R108" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
       <c r="T108" t="n">
-        <v>2.72</v>
+        <v>5.02</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.81</v>
+        <v>3.09</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.76</v>
+        <v>2.64</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.55</v>
+        <v>3.23</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.74</v>
+        <v>2.44</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.02</v>
+        <v>2.72</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.16</v>
+        <v>2.67</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.23</v>
+        <v>3.08</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.36</v>
+        <v>3.15</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.34</v>
+        <v>2.71</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.36</v>
+        <v>2.4</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.73</v>
+        <v>2.53</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.13</v>
+        <v>2.42</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.53</v>
+        <v>3.42</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.01</v>
+        <v>2.83</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.57</v>
+        <v>3.06</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>3.14</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.64</v>
+        <v>3.11</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.18</v>
+        <v>3.21</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.2</v>
+        <v>3.59</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>5.3</v>
+        <v>2.42</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.29</v>
+        <v>2.31</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Blackpool</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.31</v>
+        <v>3.7</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.55</v>
+        <v>4.31</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.81</v>
+        <v>4.31</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.8</v>
+        <v>2.43</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>4.57</v>
+        <v>2.79</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.73</v>
+        <v>2.95</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11153,34 +11153,34 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.41</v>
+        <v>2.17</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N117" t="n">
@@ -11188,36 +11188,36 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.54</v>
+        <v>3.83</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.79</v>
+        <v>3.38</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.95</v>
+        <v>4.17</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.49</v>
+        <v>3.78</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.83</v>
+        <v>3.72</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.38</v>
+        <v>4.57</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.17</v>
+        <v>4.73</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.67</v>
+        <v>2.19</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13496,11 +13496,11 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.46</v>
+        <v>3.51</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.79</v>
+        <v>3.96</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.97</v>
+        <v>4.39</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.65</v>
+        <v>1.95</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.15</v>
+        <v>1.91</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:42</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>3.96</v>
+        <v>1.75</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>4.39</v>
+        <v>1.8</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.58</v>
+        <v>3.88</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.52</v>
+        <v>4.02</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>1.95</v>
+        <v>4.63</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>1.91</v>
+        <v>4.31</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:42</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
         </is>
       </c>
     </row>
@@ -13729,71 +13729,71 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.88</v>
+        <v>3.64</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>4.02</v>
+        <v>3.53</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>4.63</v>
+        <v>4.12</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>4.31</v>
+        <v>3.85</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>1.89</v>
+        <v>2.8</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.03</v>
+        <v>2.67</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.64</v>
+        <v>3.38</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>4.12</v>
+        <v>2.46</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,14 +13921,14 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>3.69</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.51</v>
+        <v>4.65</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>2</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
       <c r="J148" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.82</v>
+        <v>2.11</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4.06</v>
+        <v>3.53</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.72</v>
+        <v>3.66</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>4.49</v>
+        <v>3.6</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:54</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,63 +14105,63 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.92</v>
+        <v>2.81</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.77</v>
+        <v>3.34</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.91</v>
+        <v>3.48</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.96</v>
+        <v>2.62</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>3.9</v>
+        <v>2.57</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.81</v>
+        <v>1.42</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.34</v>
+        <v>4.15</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.48</v>
+        <v>4.85</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.62</v>
+        <v>5.86</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.57</v>
+        <v>7.77</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1.57</v>
+        <v>2.77</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.42</v>
+        <v>3.1</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>4.15</v>
+        <v>3.14</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>5.86</v>
+        <v>2.75</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>7.77</v>
+        <v>2.48</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>1</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Cambridge Utd</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
       <c r="J152" t="n">
-        <v>2.77</v>
+        <v>1.65</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.14</v>
+        <v>4.06</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.25</v>
+        <v>3.81</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.75</v>
+        <v>4.72</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2.48</v>
+        <v>4.49</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:54</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-northampton/OjH1qGaO/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Wigan</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>2</v>
-      </c>
       <c r="J153" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.55</v>
+        <v>3.91</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.66</v>
+        <v>3.96</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>1.5</v>
+        <v>2.65</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.6</v>
+        <v>3.06</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>4.28</v>
+        <v>3.39</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4.14</v>
+        <v>3.44</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>6.03</v>
+        <v>2.58</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>5.91</v>
+        <v>2.41</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>3.06</v>
+        <v>1.6</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.39</v>
+        <v>4.28</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.44</v>
+        <v>4.14</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.58</v>
+        <v>6.03</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.41</v>
+        <v>5.91</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-charlton/OQXAAhbN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -15669,14 +15669,14 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.93</v>
+        <v>2.17</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:32</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.88</v>
+        <v>3.55</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.59</v>
+        <v>3.32</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.91</v>
+        <v>4.34</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>4.07</v>
+        <v>3.69</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,14 +15853,14 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="n">
-        <v>1.88</v>
+        <v>3.38</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.17</v>
+        <v>3.56</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.32</v>
+        <v>3.57</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>4.34</v>
+        <v>2.08</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>3.69</v>
+        <v>2.11</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
         <v>2</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>3</v>
-      </c>
       <c r="J169" t="n">
-        <v>3.38</v>
+        <v>1.75</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>3.56</v>
+        <v>1.74</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.57</v>
+        <v>3.79</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>2.08</v>
+        <v>4.58</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.11</v>
+        <v>5.1</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -16037,14 +16037,14 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.74</v>
+        <v>2.37</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.63</v>
+        <v>3.42</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.79</v>
+        <v>3.22</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.58</v>
+        <v>3.93</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>5.1</v>
+        <v>3.33</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:49</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-lincoln-city/6B0OlWh1/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.37</v>
+        <v>1.93</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:32</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.42</v>
+        <v>3.88</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.22</v>
+        <v>3.59</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.93</v>
+        <v>4.91</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>3.33</v>
+        <v>4.07</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:49</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-lincoln-city/6B0OlWh1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.13</v>
+        <v>2.04</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.43</v>
+        <v>3.18</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 11:52</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2.04</v>
+        <v>2.51</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.43</v>
+        <v>3.16</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.18</v>
+        <v>3.37</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>28/10/2023 11:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3.96</v>
+        <v>2.74</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.27</v>
+        <v>2.38</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>2.51</v>
+        <v>1.95</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>3.16</v>
+        <v>1.91</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.37</v>
+        <v>3.66</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>2.38</v>
+        <v>4.19</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,14 +16497,14 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J175" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.95</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.19</v>
+        <v>3.17</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
         </is>
       </c>
     </row>
@@ -17225,30 +17225,30 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
         <v>2</v>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
       <c r="J183" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>3.07</v>
+        <v>3.93</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
@@ -17256,15 +17256,15 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -17272,24 +17272,24 @@
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>07/11/2023 20:42</t>
+          <t>07/11/2023 20:43</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
         </is>
       </c>
     </row>
@@ -17317,30 +17317,30 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>3.58</v>
+        <v>3.29</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.93</v>
+        <v>3.07</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,15 +17348,15 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -17364,24 +17364,24 @@
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>07/11/2023 20:43</t>
+          <t>07/11/2023 20:42</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
         </is>
       </c>
     </row>
@@ -17566,6 +17566,1018 @@
       <c r="V186" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/peterborough-cambridge-utd/t2KaNjaQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>3</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-reading/QZeWHUMm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-blackpool/jHsl5iwr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>3</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-barnsley/QZZ02kN0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>3</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-exeter/KdZ419x7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>3</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-oxford-utd/WWx90TiD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-port-vale/YyHiPCUD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-burton/CSFeOWqK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>2</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-charlton/rB6RIA7s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-stevenage/vw0zHlxf/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V197"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.63</v>
+        <v>1.89</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.9</v>
+        <v>1.93</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:21</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>3.94</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.56</v>
+        <v>4.46</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.89</v>
+        <v>2.63</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:21</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.94</v>
+        <v>2.6</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.46</v>
+        <v>2.56</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-shrewsbury/8vZ50EZM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.81</v>
+        <v>2.23</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
           <t>23/09/2023 15:37</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:46</t>
-        </is>
-      </c>
       <c r="R101" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.58</v>
+        <v>3.26</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.23</v>
+        <v>2.81</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.26</v>
+        <v>2.58</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.82</v>
+        <v>4.31</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4</v>
+        <v>4.31</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.18</v>
+        <v>3.14</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.51</v>
+        <v>3.11</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.81</v>
+        <v>2.31</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>1.56</v>
+        <v>2.53</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.18</v>
+        <v>3.2</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.2</v>
+        <v>3.42</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>5.3</v>
+        <v>2.83</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.29</v>
+        <v>3.06</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.73</v>
+        <v>2.67</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.57</v>
+        <v>2.4</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.34</v>
+        <v>3.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.36</v>
+        <v>4</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.81</v>
+        <v>3.09</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.76</v>
+        <v>2.64</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.55</v>
+        <v>3.23</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.7</v>
+        <v>3.49</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.74</v>
+        <v>2.44</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.02</v>
+        <v>2.72</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:39</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.97</v>
+        <v>3.7</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.05</v>
+        <v>4.74</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4.23</v>
+        <v>5.02</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
       <c r="J110" t="n">
-        <v>3.09</v>
+        <v>2.16</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.64</v>
+        <v>2.23</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.44</v>
+        <v>3.34</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.72</v>
+        <v>3.36</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>2.67</v>
+        <v>1.73</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3.08</v>
+        <v>2.13</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.4</v>
+        <v>3.57</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.53</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.2</v>
+        <v>4.18</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.42</v>
+        <v>4.2</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.83</v>
+        <v>5.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.06</v>
+        <v>5.29</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
       <c r="J113" t="n">
-        <v>3.14</v>
+        <v>2.18</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.11</v>
+        <v>2.51</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.31</v>
+        <v>2.81</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.7</v>
+        <v>3.96</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.41</v>
+        <v>3.97</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.31</v>
+        <v>4.05</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.31</v>
+        <v>4.23</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.41</v>
+        <v>2.98</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.43</v>
+        <v>3.37</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.54</v>
+        <v>3.19</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.79</v>
+        <v>2.36</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.95</v>
+        <v>2.36</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.11</v>
+        <v>3.78</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4.21</v>
+        <v>3.72</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>6.08</v>
+        <v>4.57</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>6.92</v>
+        <v>4.73</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.17</v>
+        <v>1.56</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.49</v>
+        <v>4.11</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.83</v>
+        <v>4.21</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.38</v>
+        <v>6.08</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.17</v>
+        <v>6.92</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.78</v>
+        <v>3.49</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.8</v>
+        <v>3.66</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.78</v>
+        <v>3.52</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.72</v>
+        <v>3.62</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.57</v>
+        <v>2.11</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.73</v>
+        <v>2.06</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>30/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>3.49</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>30/09/2023 22:42</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="M119" t="inlineStr">
+      <c r="P119" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q119" t="inlineStr">
         <is>
           <t>03/10/2023 20:44</t>
         </is>
       </c>
-      <c r="N119" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O119" t="inlineStr">
+      <c r="R119" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S119" t="inlineStr">
         <is>
           <t>30/09/2023 22:42</t>
         </is>
       </c>
-      <c r="P119" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q119" t="inlineStr">
+      <c r="T119" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U119" t="inlineStr">
         <is>
           <t>03/10/2023 20:44</t>
         </is>
       </c>
-      <c r="R119" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>30/09/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:44</t>
-        </is>
-      </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>2.98</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.37</v>
+        <v>2.62</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
-        <v>2.98</v>
+        <v>2.61</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.28</v>
+        <v>3.52</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -11613,71 +11613,71 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>3</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Port Vale</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.08</v>
+        <v>2.57</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.54</v>
+        <v>3.24</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.71</v>
+        <v>3</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.7</v>
+        <v>2.97</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>1</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>3</v>
-      </c>
       <c r="J124" t="n">
-        <v>2.26</v>
+        <v>2.17</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.57</v>
+        <v>1.87</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.24</v>
+        <v>3.83</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3</v>
+        <v>3.38</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.97</v>
+        <v>4.17</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Barnsley</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>4</v>
-      </c>
       <c r="J125" t="n">
-        <v>2.61</v>
+        <v>2.06</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.64</v>
+        <v>3.71</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.41</v>
+        <v>1.66</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.03</v>
+        <v>1.6</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.33</v>
+        <v>3.95</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.19</v>
+        <v>4.37</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.9</v>
+        <v>5.22</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.57</v>
+        <v>5.52</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,48 +12280,48 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
+          <t>07/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
           <t>07/10/2023 15:52</t>
         </is>
       </c>
-      <c r="N129" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O129" t="inlineStr">
+      <c r="R129" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S129" t="inlineStr">
         <is>
           <t>03/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P129" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>07/10/2023 16:00</t>
-        </is>
-      </c>
-      <c r="R129" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>03/10/2023 20:12</t>
-        </is>
-      </c>
       <c r="T129" t="n">
-        <v>5.88</v>
+        <v>3.14</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J130" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.66</v>
+        <v>2.41</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.6</v>
+        <v>3.03</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.95</v>
+        <v>3.33</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.22</v>
+        <v>2.9</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>5.52</v>
+        <v>2.57</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.26</v>
+        <v>4.29</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.93</v>
+        <v>6.41</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.46</v>
+        <v>4.02</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.11</v>
+        <v>1.78</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>4.29</v>
+        <v>2.5</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>6.41</v>
+        <v>2.36</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.7</v>
+        <v>3.32</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.02</v>
+        <v>3.41</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>1.78</v>
+        <v>2.79</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>1.58</v>
+        <v>3.15</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.36</v>
+        <v>1.55</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.32</v>
+        <v>4.06</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.41</v>
+        <v>4.29</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>2.79</v>
+        <v>5.69</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.15</v>
+        <v>6.25</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
         <v>1</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Carlisle</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>3</v>
-      </c>
       <c r="J135" t="n">
-        <v>1.6</v>
+        <v>2.26</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.55</v>
+        <v>2.93</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.06</v>
+        <v>3.38</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.29</v>
+        <v>3.46</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>5.69</v>
+        <v>3.11</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>6.25</v>
+        <v>2.48</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.43</v>
+        <v>1.76</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.29</v>
+        <v>1.61</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.27</v>
+        <v>3.75</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.37</v>
+        <v>4.07</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.07</v>
+        <v>4.71</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.34</v>
+        <v>5.88</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.19</v>
+        <v>2.67</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13496,11 +13496,11 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.51</v>
+        <v>2.46</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>3.6</v>
+        <v>2.78</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>3.96</v>
+        <v>1.79</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>4.39</v>
+        <v>1.97</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.58</v>
+        <v>3.69</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>1.95</v>
+        <v>4.65</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>1.91</v>
+        <v>4.15</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:42</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -13637,71 +13637,71 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.75</v>
+        <v>3.96</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.8</v>
+        <v>4.39</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.88</v>
+        <v>3.58</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4.02</v>
+        <v>3.52</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.63</v>
+        <v>1.95</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.31</v>
+        <v>1.91</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:42</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-derby/pKpqdgqU/</t>
         </is>
       </c>
     </row>
@@ -13729,71 +13729,71 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.64</v>
+        <v>3.88</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.53</v>
+        <v>4.02</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>4.12</v>
+        <v>4.63</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T145" t="n">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-wycombe/O4dzbFEH/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.8</v>
+        <v>1.89</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.67</v>
+        <v>2.03</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.38</v>
+        <v>3.64</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.35</v>
+        <v>3.53</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,14 +13921,14 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>1.79</v>
+        <v>2.19</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.69</v>
+        <v>3.32</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.65</v>
+        <v>3.51</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Wigan</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.55</v>
+        <v>3.91</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.66</v>
+        <v>3.96</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>14/10/2023 05:13</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.77</v>
+        <v>3.53</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.91</v>
+        <v>3.55</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.96</v>
+        <v>3.66</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 05:13</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-wigan/zVpK1cFh/</t>
         </is>
       </c>
     </row>
@@ -17225,30 +17225,30 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>3.58</v>
+        <v>3.29</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>3.93</v>
+        <v>3.07</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
@@ -17256,15 +17256,15 @@
         </is>
       </c>
       <c r="N183" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -17272,24 +17272,24 @@
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>31/10/2023 07:11</t>
+          <t>05/11/2023 19:43</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>07/11/2023 20:43</t>
+          <t>07/11/2023 20:42</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
         </is>
       </c>
     </row>
@@ -17317,30 +17317,30 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
         <v>2</v>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
       <c r="J184" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.07</v>
+        <v>3.93</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,15 +17348,15 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -17364,24 +17364,24 @@
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>05/11/2023 19:43</t>
+          <t>31/10/2023 07:11</t>
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>07/11/2023 20:42</t>
+          <t>07/11/2023 20:43</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-peterborough/GQDgoxVB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-bolton/Qaa4d8xK/</t>
         </is>
       </c>
     </row>
@@ -17593,71 +17593,71 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
         <v>2</v>
       </c>
-      <c r="J187" t="n">
-        <v>2.47</v>
-      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.53</v>
+        <v>2.28</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
+          <t>11/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
           <t>11/11/2023 15:58</t>
         </is>
       </c>
-      <c r="N187" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O187" t="inlineStr">
+      <c r="R187" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S187" t="inlineStr">
         <is>
           <t>07/11/2023 21:12</t>
         </is>
       </c>
-      <c r="P187" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R187" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>07/11/2023 21:12</t>
-        </is>
-      </c>
       <c r="T187" t="n">
-        <v>2.98</v>
+        <v>3.16</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:59</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-reading/QZeWHUMm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-blackpool/jHsl5iwr/</t>
         </is>
       </c>
     </row>
@@ -17685,22 +17685,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
         <v>1</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Blackpool</t>
-        </is>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
       <c r="J188" t="n">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -17708,15 +17708,15 @@
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.28</v>
+        <v>3.17</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
@@ -17724,15 +17724,15 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.79</v>
+        <v>2.36</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         </is>
       </c>
       <c r="T188" t="n">
-        <v>3.16</v>
+        <v>2.35</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-blackpool/jHsl5iwr/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I189" t="n">
         <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>3.17</v>
+        <v>3.37</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>2.72</v>
+        <v>1.79</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>3.37</v>
+        <v>1.71</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.2</v>
+        <v>3.78</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.34</v>
+        <v>3.93</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>2.76</v>
+        <v>4.5</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>2.29</v>
+        <v>5.09</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-barnsley/QZZ02kN0/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,14 +17969,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.71</v>
+        <v>2.13</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.78</v>
+        <v>3.31</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.93</v>
+        <v>3.64</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>4.5</v>
+        <v>3.03</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>5.09</v>
+        <v>3.44</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-barnsley/QZZ02kN0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-exeter/KdZ419x7/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G192" t="n">
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
         <v>3</v>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Exeter</t>
-        </is>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
       <c r="J192" t="n">
-        <v>2.44</v>
+        <v>3.05</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.13</v>
+        <v>2.9</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.31</v>
+        <v>3.38</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.64</v>
+        <v>3.29</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:25</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.03</v>
+        <v>2.38</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.44</v>
+        <v>2.59</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-exeter/KdZ419x7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-oxford-utd/WWx90TiD/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>3.05</v>
+        <v>2.11</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.29</v>
+        <v>3.2</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:25</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.38</v>
+        <v>3.71</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.59</v>
+        <v>2.98</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-oxford-utd/WWx90TiD/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-port-vale/YyHiPCUD/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.71</v>
+        <v>3.94</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-port-vale/YyHiPCUD/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-burton/CSFeOWqK/</t>
         </is>
       </c>
     </row>
@@ -18329,7 +18329,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -18337,14 +18337,14 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:44</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.36</v>
+        <v>4.01</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.94</v>
+        <v>4.95</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.25</v>
+        <v>4.21</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-burton/CSFeOWqK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-charlton/rB6RIA7s/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I196" t="n">
         <v>2</v>
       </c>
       <c r="J196" t="n">
-        <v>1.74</v>
+        <v>2.47</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>1.82</v>
+        <v>2.53</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:44</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.7</v>
+        <v>3.22</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4.01</v>
+        <v>3.32</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
+          <t>11/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>07/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
           <t>11/11/2023 15:58</t>
         </is>
       </c>
-      <c r="R196" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>03/11/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T196" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="U196" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:58</t>
-        </is>
-      </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-charlton/rB6RIA7s/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-reading/QZeWHUMm/</t>
         </is>
       </c>
     </row>
@@ -18578,6 +18578,190 @@
       <c r="V197" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/wycombe-stevenage/vw0zHlxf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>4</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-shrewsbury/CjbrFS66/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-lincoln-city/YLzFSoy6/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1.79</v>
+        <v>2.63</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.79</v>
+        <v>3.36</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:33</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.56</v>
+        <v>2.6</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>16/09/2023 17:13</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.56</v>
+        <v>2.56</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>23/09/2023 15:31</t>
+          <t>23/09/2023 15:56</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.63</v>
+        <v>1.79</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.36</v>
+        <v>3.79</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:33</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.6</v>
+        <v>4.56</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>16/09/2023 17:13</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.56</v>
+        <v>4.56</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>23/09/2023 15:56</t>
+          <t>23/09/2023 15:31</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-barnsley/nVX9aYlT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-exeter/hCAxehcp/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.23</v>
+        <v>2.81</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.14</v>
+        <v>3.38</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>19/09/2023 16:12</t>
+          <t>19/09/2023 20:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.26</v>
+        <v>2.58</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>23/09/2023 15:48</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.81</v>
+        <v>2.23</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>19/09/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
           <t>23/09/2023 15:37</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>19/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:46</t>
-        </is>
-      </c>
       <c r="R102" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>19/09/2023 20:12</t>
+          <t>19/09/2023 16:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.58</v>
+        <v>3.26</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:48</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-fleetwood-town/APxo5xLi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-wigan/WYws6I5o/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.7</v>
+        <v>3.32</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.41</v>
+        <v>3.8</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>4.31</v>
+        <v>3.82</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.31</v>
+        <v>4</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>2</v>
-      </c>
       <c r="J104" t="n">
-        <v>3.14</v>
+        <v>2.18</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.11</v>
+        <v>2.51</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.31</v>
+        <v>2.81</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.53</v>
+        <v>1.56</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.2</v>
+        <v>4.18</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.42</v>
+        <v>4.2</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.83</v>
+        <v>5.3</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.06</v>
+        <v>5.29</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.67</v>
+        <v>1.73</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.08</v>
+        <v>2.13</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.4</v>
+        <v>3.57</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.92</v>
+        <v>2.23</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.82</v>
+        <v>3.34</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4</v>
+        <v>3.36</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-burton/WGlF8BRq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Bolton</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
       <c r="J108" t="n">
-        <v>3.09</v>
+        <v>1.81</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,48 +10348,48 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.64</v>
+        <v>1.76</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>30/09/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
           <t>30/09/2023 15:48</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O108" t="inlineStr">
+      <c r="R108" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S108" t="inlineStr">
         <is>
           <t>23/09/2023 17:13</t>
         </is>
       </c>
-      <c r="P108" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:48</t>
-        </is>
-      </c>
-      <c r="R108" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>23/09/2023 17:13</t>
-        </is>
-      </c>
       <c r="T108" t="n">
-        <v>2.72</v>
+        <v>5.02</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:40</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:39</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.7</v>
+        <v>3.97</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.74</v>
+        <v>4.05</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.02</v>
+        <v>4.23</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>30/09/2023 15:40</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-cheltenham/Yu9vFDlG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>1</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Leyton Orient</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
       <c r="J110" t="n">
-        <v>2.16</v>
+        <v>3.09</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.23</v>
+        <v>2.64</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.34</v>
+        <v>2.44</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.36</v>
+        <v>2.72</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-leyton-orient/vJ9zGgZ9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.73</v>
+        <v>2.67</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.53</v>
+        <v>3.43</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.57</v>
+        <v>2.4</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-northampton/0SAWGZJ3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>2.53</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.18</v>
+        <v>3.2</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.2</v>
+        <v>3.42</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.3</v>
+        <v>2.83</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.29</v>
+        <v>3.06</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>2.18</v>
+        <v>3.14</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.51</v>
+        <v>3.11</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:38</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.55</v>
+        <v>2.42</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.81</v>
+        <v>2.31</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.96</v>
+        <v>3.7</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.97</v>
+        <v>3.41</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.05</v>
+        <v>4.31</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.23</v>
+        <v>4.31</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-carlisle/YuV9Uhl3/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Fleetwood</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>2</v>
-      </c>
       <c r="J115" t="n">
-        <v>2.98</v>
+        <v>1.56</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.37</v>
+        <v>1.53</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.32</v>
+        <v>4.11</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.19</v>
+        <v>4.21</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.36</v>
+        <v>6.08</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.36</v>
+        <v>6.92</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.8</v>
+        <v>2.43</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.78</v>
+        <v>3.49</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.72</v>
+        <v>3.54</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>4.57</v>
+        <v>2.79</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.73</v>
+        <v>2.95</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>1.56</v>
+        <v>2.98</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.53</v>
+        <v>3.37</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.11</v>
+        <v>3.32</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.21</v>
+        <v>3.19</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>6.08</v>
+        <v>2.36</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>6.92</v>
+        <v>2.36</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>3.49</v>
+        <v>1.78</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.66</v>
+        <v>1.8</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.52</v>
+        <v>3.78</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.11</v>
+        <v>4.57</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.06</v>
+        <v>4.73</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.41</v>
+        <v>3.49</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.43</v>
+        <v>3.66</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.54</v>
+        <v>3.62</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.79</v>
+        <v>2.11</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.95</v>
+        <v>2.06</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.98</v>
+        <v>2.17</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.62</v>
+        <v>1.87</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.28</v>
+        <v>3.83</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:22</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.4</v>
+        <v>3.38</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.88</v>
+        <v>4.17</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:31</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.61</v>
+        <v>2.98</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.52</v>
+        <v>3.28</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>03/10/2023 20:19</t>
+          <t>03/10/2023 20:31</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-wigan/2LMQQAmS/</t>
         </is>
       </c>
     </row>
@@ -11613,71 +11613,71 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.57</v>
+        <v>2.08</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.24</v>
+        <v>3.54</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:37</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3</v>
+        <v>3.71</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.97</v>
+        <v>3.7</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>03/10/2023 20:26</t>
+          <t>03/10/2023 20:32</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.87</v>
+        <v>2.57</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.83</v>
+        <v>3.24</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:37</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.17</v>
+        <v>2.97</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:26</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-derby/S2UDTC39/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" t="n">
-        <v>2.06</v>
+        <v>2.61</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.08</v>
+        <v>2.84</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.71</v>
+        <v>2.64</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>03/10/2023 20:32</t>
+          <t>03/10/2023 20:19</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-port-vale/OUNMRjYL/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-barnsley/K09hMUeq/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.81</v>
+        <v>3.75</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.61</v>
+        <v>4.07</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.15</v>
+        <v>4.71</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.8</v>
+        <v>5.88</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.95</v>
+        <v>3.81</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.37</v>
+        <v>3.61</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.22</v>
+        <v>4.15</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.52</v>
+        <v>4.8</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.14</v>
+        <v>2.41</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.4</v>
+        <v>3.03</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>3.39</v>
+        <v>2.9</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>3.14</v>
+        <v>2.57</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2.43</v>
+        <v>1.66</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.29</v>
+        <v>1.6</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.27</v>
+        <v>3.95</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.37</v>
+        <v>4.37</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:46</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.07</v>
+        <v>5.22</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.34</v>
+        <v>5.52</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>07/10/2023 15:50</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>1</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
       <c r="J131" t="n">
-        <v>2.41</v>
+        <v>2.14</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>3.03</v>
+        <v>2.4</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.9</v>
+        <v>3.39</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.57</v>
+        <v>3.14</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-reading/SxoNfk28/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J132" t="n">
-        <v>4.29</v>
+        <v>2.43</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>6.41</v>
+        <v>2.29</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.7</v>
+        <v>3.27</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.02</v>
+        <v>3.37</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:46</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>1.78</v>
+        <v>3.07</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1.58</v>
+        <v>3.34</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:50</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-wycombe/QX6vW5P7/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.36</v>
+        <v>2.93</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:51</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.79</v>
+        <v>3.11</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:53</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.6</v>
+        <v>4.29</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.55</v>
+        <v>6.41</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.06</v>
+        <v>3.7</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.29</v>
+        <v>4.02</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>5.69</v>
+        <v>1.78</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>6.25</v>
+        <v>1.58</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>07/10/2023 16:00</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.93</v>
+        <v>2.36</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:51</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.11</v>
+        <v>2.79</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:53</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-blackpool/vH4SY7uk/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 16:00</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.75</v>
+        <v>4.06</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>4.07</v>
+        <v>4.29</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.71</v>
+        <v>5.69</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>5.88</v>
+        <v>6.25</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-lincoln-city/YyDfxsns/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-carlisle/Aon4vUHR/</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -13461,14 +13461,14 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2.8</v>
+        <v>1.89</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.67</v>
+        <v>2.03</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.38</v>
+        <v>3.64</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.35</v>
+        <v>3.53</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.46</v>
+        <v>4.12</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.78</v>
+        <v>3.85</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.97</v>
+        <v>2.67</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.69</v>
+        <v>3.38</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:52</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.65</v>
+        <v>2.46</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.15</v>
+        <v>2.78</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>21/10/2023 15:51</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:52</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>4.12</v>
+        <v>4.65</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 15:51</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-blackpool/fViWbeaB/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-port-vale/MuxBiDio/</t>
         </is>
       </c>
     </row>
@@ -15109,22 +15109,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>3.92</v>
+        <v>2.1</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -15132,15 +15132,15 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>4.29</v>
+        <v>2.46</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.67</v>
+        <v>3.29</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -15148,15 +15148,15 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>1.87</v>
+        <v>3.57</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="T160" t="n">
-        <v>1.89</v>
+        <v>3.09</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-burton/Sbv2CETA/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>2.63</v>
+        <v>3.92</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2.42</v>
+        <v>4.29</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.29</v>
+        <v>3.67</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3.39</v>
+        <v>3.65</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>2.79</v>
+        <v>1.87</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>3.07</v>
+        <v>1.89</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-stevenage/fotfEzab/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>1.41</v>
+        <v>2.63</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.38</v>
+        <v>2.42</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>4.5</v>
+        <v>3.29</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4.82</v>
+        <v>3.39</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         </is>
       </c>
       <c r="R162" t="n">
-        <v>7.23</v>
+        <v>2.79</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>9.26</v>
+        <v>3.07</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-stevenage/fotfEzab/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.09</v>
+        <v>4.5</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.71</v>
+        <v>4.82</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>5.9</v>
+        <v>7.23</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>5.2</v>
+        <v>9.26</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.46</v>
+        <v>1.74</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.29</v>
+        <v>4.09</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.3</v>
+        <v>3.71</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>3.57</v>
+        <v>5.9</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.09</v>
+        <v>5.2</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-burton/Sbv2CETA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.17</v>
+        <v>2.93</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.34</v>
+        <v>2.93</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.69</v>
+        <v>2.64</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>3</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>2.55</v>
+        <v>3.38</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.93</v>
+        <v>3.56</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.21</v>
+        <v>3.57</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.93</v>
+        <v>2.08</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,14 +15853,14 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>3.38</v>
+        <v>1.88</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>3.56</v>
+        <v>2.17</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.57</v>
+        <v>3.32</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.08</v>
+        <v>4.34</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.11</v>
+        <v>3.69</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>2</v>
       </c>
       <c r="J169" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:32</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.63</v>
+        <v>3.88</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.58</v>
+        <v>4.91</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>5.1</v>
+        <v>4.07</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:32</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.88</v>
+        <v>3.63</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>4.91</v>
+        <v>4.58</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>4.07</v>
+        <v>5.1</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
         </is>
       </c>
     </row>
@@ -18762,6 +18762,98 @@
       <c r="V199" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/stevenage-lincoln-city/YLzFSoy6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45251.86458333334</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>30/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>21/11/2023 20:30</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>30/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>21/11/2023 20:30</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>30/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>21/11/2023 20:30</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-lincoln-city/t6fmrCI2/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V212"/>
+  <dimension ref="A1:V223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,38 +2421,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.44</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4.44</v>
+        <v>2.24</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.64</v>
+        <v>3.41</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.87</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>05/08/2023 16:12</t>
+          <t>06/08/2023 23:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 15:17</t>
+          <t>12/08/2023 15:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,38 +2697,38 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.55</v>
+        <v>3.44</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.24</v>
+        <v>4.44</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.41</v>
+        <v>3.64</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,24 +2736,24 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.87</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>06/08/2023 23:12</t>
+          <t>05/08/2023 16:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12/08/2023 15:51</t>
+          <t>12/08/2023 15:17</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-blackpool/Qq3uewuf/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-bolton/ng4ydJPm/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.53</v>
+        <v>2.67</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.42</v>
+        <v>3.08</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:18</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.06</v>
+        <v>2.4</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.67</v>
+        <v>3.09</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.08</v>
+        <v>2.64</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:18</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>30/09/2023 15:57</t>
+          <t>30/09/2023 15:48</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-charlton/vslJ7Vtj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>3.09</v>
+        <v>2.53</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.23</v>
+        <v>3.2</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.49</v>
+        <v>3.42</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.44</v>
+        <v>2.83</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.72</v>
+        <v>3.06</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:48</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-bolton/U72mDiJS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.18</v>
+        <v>3.96</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.2</v>
+        <v>3.97</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>5.3</v>
+        <v>4.05</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.29</v>
+        <v>4.23</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.18</v>
+        <v>1.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.51</v>
+        <v>1.64</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.31</v>
+        <v>4.18</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:50</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>24/09/2023 03:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.81</v>
+        <v>5.29</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.83</v>
+        <v>2.51</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.97</v>
+        <v>3.6</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:50</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>4.05</v>
+        <v>3.55</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 03:13</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.23</v>
+        <v>2.81</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-blackpool/40HNIeki/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>3.49</v>
+        <v>1.78</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.66</v>
+        <v>1.8</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:21</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.52</v>
+        <v>3.78</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.11</v>
+        <v>4.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.06</v>
+        <v>4.73</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 19:57</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:21</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.78</v>
+        <v>4.11</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.72</v>
+        <v>4.21</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>4.57</v>
+        <v>6.08</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.73</v>
+        <v>6.92</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/10/2023 19:57</t>
+          <t>03/10/2023 20:33</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-wycombe/GOn0uA2L/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>1.56</v>
+        <v>2.98</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.53</v>
+        <v>3.37</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.11</v>
+        <v>3.32</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.21</v>
+        <v>3.19</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:08</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>6.08</v>
+        <v>2.36</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>6.92</v>
+        <v>2.36</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/10/2023 20:33</t>
+          <t>03/10/2023 20:30</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-shrewsbury/2LrdtjmF/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
         </is>
       </c>
     </row>
@@ -11245,34 +11245,34 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.41</v>
+        <v>2.17</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="N118" t="n">
@@ -11280,36 +11280,36 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.54</v>
+        <v>3.83</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.79</v>
+        <v>3.38</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>30/09/2023 22:42</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.95</v>
+        <v>4.17</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/10/2023 20:44</t>
+          <t>03/10/2023 20:35</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.98</v>
+        <v>3.49</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.37</v>
+        <v>3.66</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.19</v>
+        <v>3.62</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:08</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>03/10/2023 20:30</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-fleetwood-town/hj15JSu2/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-peterborough/WzDdLlBk/</t>
         </is>
       </c>
     </row>
@@ -11429,34 +11429,34 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.87</v>
+        <v>2.43</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="N120" t="n">
@@ -11464,36 +11464,36 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.83</v>
+        <v>3.54</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.38</v>
+        <v>2.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>30/09/2023 22:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.17</v>
+        <v>2.95</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>03/10/2023 20:35</t>
+          <t>03/10/2023 20:44</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-exeter/Ea21K8Qe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-reading/KdgisWX8/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.03</v>
+        <v>1.82</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.33</v>
+        <v>3.81</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.19</v>
+        <v>3.61</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.9</v>
+        <v>4.15</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.57</v>
+        <v>4.8</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>07/10/2023 15:58</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.66</v>
+        <v>2.41</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.6</v>
+        <v>3.03</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.95</v>
+        <v>3.33</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.37</v>
+        <v>3.19</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.22</v>
+        <v>2.9</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.52</v>
+        <v>2.57</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>07/10/2023 15:57</t>
+          <t>07/10/2023 15:58</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-northampton/fi13zLGg/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.81</v>
+        <v>3.95</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.61</v>
+        <v>4.37</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.15</v>
+        <v>5.22</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>4.8</v>
+        <v>5.52</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 15:57</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-wigan/6R47ZvWa/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-port-vale/CSBby11m/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>2.26</v>
+        <v>4.29</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.93</v>
+        <v>6.41</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.38</v>
+        <v>3.7</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.46</v>
+        <v>4.02</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.11</v>
+        <v>1.78</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>07/10/2023 15:52</t>
+          <t>07/10/2023 15:39</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>4.29</v>
+        <v>2.26</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>6.41</v>
+        <v>2.93</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.7</v>
+        <v>3.38</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.02</v>
+        <v>3.46</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>1.78</v>
+        <v>3.11</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>07/10/2023 15:39</t>
+          <t>07/10/2023 15:52</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-derby/I73WXRfe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-barnsley/CU2zXoA1/</t>
         </is>
       </c>
     </row>
@@ -13085,30 +13085,30 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
@@ -13116,31 +13116,31 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>14/10/2023 15:29</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>07/10/2023 17:12</t>
+          <t>09/10/2023 20:11</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.57</v>
+        <v>3.93</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.89</v>
+        <v>2.38</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.04</v>
+        <v>2.72</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:54</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>4.32</v>
+        <v>3.03</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>09/10/2023 20:11</t>
+          <t>07/10/2023 17:12</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>4.15</v>
+        <v>2.73</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>14/10/2023 15:58</t>
+          <t>14/10/2023 15:52</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Leyton Orient</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
       <c r="J140" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.22</v>
+        <v>3.33</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:54</t>
+          <t>14/10/2023 15:29</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.03</v>
+        <v>3.54</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.73</v>
+        <v>3.57</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>14/10/2023 15:52</t>
+          <t>14/10/2023 15:58</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-leyton-orient/lAp6ft8P/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-stevenage/vu3FXI0C/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>1</v>
       </c>
       <c r="J141" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.93</v>
+        <v>4.15</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-burton/8fRxkKVn/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-shrewsbury/z7dOVdVO/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.67</v>
+        <v>2.19</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13864,11 +13864,11 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.46</v>
+        <v>3.51</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>21/10/2023 15:46</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.19</v>
+        <v>2.67</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13956,11 +13956,11 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.51</v>
+        <v>2.46</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.6</v>
+        <v>2.78</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:46</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-lincoln-city/YF3N0HUb/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-barnsley/GvgSayp5/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.14</v>
+        <v>3.77</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.25</v>
+        <v>3.91</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.75</v>
+        <v>3.96</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>14/10/2023 17:12</t>
+          <t>14/10/2023 13:43</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>21/10/2023 15:58</t>
+          <t>21/10/2023 15:31</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,63 +14105,63 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1.83</v>
+        <v>2.76</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.92</v>
+        <v>2.81</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.77</v>
+        <v>3.34</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.91</v>
+        <v>3.48</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:24</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.96</v>
+        <v>2.62</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>14/10/2023 13:43</t>
+          <t>14/10/2023 17:12</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>3.9</v>
+        <v>2.57</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>21/10/2023 15:31</t>
+          <t>21/10/2023 15:57</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-reading/2HnC3Jpt/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.81</v>
+        <v>1.42</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.34</v>
+        <v>4.15</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.48</v>
+        <v>4.85</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.62</v>
+        <v>5.86</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.57</v>
+        <v>7.77</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>21/10/2023 15:57</t>
+          <t>21/10/2023 15:19</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-bristol-rovers/2sG5rzFU/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1.57</v>
+        <v>2.77</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.42</v>
+        <v>3.1</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>4.15</v>
+        <v>3.14</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>5.86</v>
+        <v>2.75</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>7.77</v>
+        <v>2.48</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>21/10/2023 15:19</t>
+          <t>21/10/2023 15:58</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-carlisle/2eevcZTN/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-cambridge-utd/t8oG2w0n/</t>
         </is>
       </c>
     </row>
@@ -14557,22 +14557,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
-        <v>2.98</v>
+        <v>2.21</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -14580,15 +14580,15 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>3.31</v>
+        <v>2.58</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.37</v>
+        <v>3.32</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
@@ -14596,15 +14596,15 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.6</v>
+        <v>3.14</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:38</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -14612,16 +14612,16 @@
         </is>
       </c>
       <c r="T154" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -14657,14 +14657,14 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J155" t="n">
-        <v>2.21</v>
+        <v>2.88</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.14</v>
+        <v>3.48</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:38</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.45</v>
+        <v>2.51</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-leyton-orient/2HWE9CDT/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,14 +14749,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.56</v>
+        <v>3.2</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,11 +14780,11 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="R156" t="n">
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.81</v>
+        <v>2.27</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-bolton/xYmRCrui/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.91</v>
+        <v>2.98</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-oxford-utd/YaNp4jyi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-peterborough/f9Ot5WLp/</t>
         </is>
       </c>
     </row>
@@ -15017,22 +15017,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>3.92</v>
+        <v>1.41</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -15040,15 +15040,15 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>4.29</v>
+        <v>1.38</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:36</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.67</v>
+        <v>4.5</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
@@ -15056,15 +15056,15 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.65</v>
+        <v>4.82</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:29</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>1.87</v>
+        <v>7.23</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -15072,16 +15072,16 @@
         </is>
       </c>
       <c r="T159" t="n">
-        <v>1.89</v>
+        <v>9.26</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>24/10/2023 20:04</t>
+          <t>24/10/2023 20:41</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
         </is>
       </c>
     </row>
@@ -15201,22 +15201,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.5</v>
+        <v>3.92</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.6</v>
+        <v>4.29</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.14</v>
+        <v>3.65</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:29</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>6.03</v>
+        <v>1.87</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.91</v>
+        <v>1.89</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>24/10/2023 20:44</t>
+          <t>24/10/2023 20:04</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-portsmouth/YyubDfE4/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:36</t>
+          <t>24/10/2023 20:16</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.5</v>
+        <v>4.09</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.82</v>
+        <v>3.71</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:37</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>7.23</v>
+        <v>5.9</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>9.26</v>
+        <v>5.2</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>24/10/2023 20:41</t>
+          <t>24/10/2023 20:43</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-cheltenham/EZOdFGqh/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:16</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.09</v>
+        <v>4.28</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.71</v>
+        <v>4.14</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:37</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>5.9</v>
+        <v>6.03</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>5.2</v>
+        <v>5.91</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>24/10/2023 20:43</t>
+          <t>24/10/2023 20:44</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-shrewsbury/zqQhGdUo/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-exeter/t2r6BYrH/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>2</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Shrewsbury</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.17</v>
+        <v>1.74</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.55</v>
+        <v>3.63</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.32</v>
+        <v>3.79</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.34</v>
+        <v>4.58</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.69</v>
+        <v>5.1</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
         </is>
       </c>
     </row>
@@ -15753,22 +15753,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>3</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>2.55</v>
+        <v>3.38</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -15776,15 +15776,15 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.93</v>
+        <v>3.56</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -15792,15 +15792,15 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.21</v>
+        <v>3.57</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.93</v>
+        <v>2.08</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -15808,16 +15808,16 @@
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -15853,14 +15853,14 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>3.38</v>
+        <v>1.71</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -15868,15 +15868,15 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>3.56</v>
+        <v>1.93</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:32</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
@@ -15884,15 +15884,15 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.08</v>
+        <v>4.91</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -15900,16 +15900,16 @@
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.11</v>
+        <v>4.07</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:59</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/reading-portsmouth/xA1DBg0E/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.74</v>
+        <v>2.17</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.79</v>
+        <v>3.32</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>5.1</v>
+        <v>3.69</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-cheltenham/bJ29CZp8/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.71</v>
+        <v>2.55</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.93</v>
+        <v>2.93</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:32</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.88</v>
+        <v>3.24</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.59</v>
+        <v>3.21</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>4.91</v>
+        <v>2.93</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>4.07</v>
+        <v>2.64</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:59</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-wycombe/p2aSmj87/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2.43</v>
+        <v>1.83</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:47</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.13</v>
+        <v>4.03</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.18</v>
+        <v>3.84</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>28/10/2023 11:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.96</v>
+        <v>4.46</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>3.27</v>
+        <v>4.4</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>28/10/2023 13:34</t>
+          <t>28/10/2023 15:47</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-fleetwood-town/rVjZAM93/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2.51</v>
+        <v>2.04</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>3.16</v>
+        <v>2.43</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.37</v>
+        <v>3.13</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3.37</v>
+        <v>3.18</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 11:52</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>2.74</v>
+        <v>3.96</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>2.38</v>
+        <v>3.27</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 13:34</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-carlisle/Aq7FjhOl/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J174" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.59</v>
+        <v>3.46</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.95</v>
+        <v>3.31</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>4.19</v>
+        <v>3.17</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
         <v>2</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Peterborough</t>
-        </is>
-      </c>
-      <c r="I175" t="n">
-        <v>4</v>
-      </c>
       <c r="J175" t="n">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>2.89</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.17</v>
+        <v>2.9</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.68</v>
+        <v>2.51</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.83</v>
+        <v>3.16</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>28/10/2023 15:47</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>4.03</v>
+        <v>3.37</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.84</v>
+        <v>3.37</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         </is>
       </c>
       <c r="R176" t="n">
-        <v>4.46</v>
+        <v>2.74</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.4</v>
+        <v>2.38</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>28/10/2023 15:47</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-fleetwood-town/rVjZAM93/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.47</v>
+        <v>1.95</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.89</v>
+        <v>3.95</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.9</v>
+        <v>4.19</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>2.49</v>
+        <v>1.61</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:31</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.68</v>
+        <v>3.85</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:44</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.81</v>
+        <v>5.4</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>2.98</v>
+        <v>7.11</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>31/10/2023 20:29</t>
+          <t>31/10/2023 20:44</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-charlton/Mq0Zjn0s/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-northampton/0hvagK4r/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>1.61</v>
+        <v>3.31</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:31</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.85</v>
+        <v>3.19</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:44</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>5.4</v>
+        <v>2.25</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>7.11</v>
+        <v>2.34</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>31/10/2023 20:44</t>
+          <t>31/10/2023 20:16</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-northampton/0hvagK4r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-oxford-utd/zBWBjIl1/</t>
         </is>
       </c>
     </row>
@@ -16949,22 +16949,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J180" t="n">
-        <v>3.31</v>
+        <v>2.49</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -16972,15 +16972,15 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:29</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
@@ -16988,15 +16988,15 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.21</v>
+        <v>3.68</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:29</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>2.25</v>
+        <v>2.81</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="T180" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>31/10/2023 20:16</t>
+          <t>31/10/2023 20:29</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-oxford-utd/zBWBjIl1/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-charlton/Mq0Zjn0s/</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -17601,63 +17601,63 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I187" t="n">
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="L187" t="n">
-        <v>2.64</v>
+        <v>3.17</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:18</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.79</v>
+        <v>2.35</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-stevenage/vw0zHlxf/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.53</v>
+        <v>3.37</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:49</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2.98</v>
+        <v>2.29</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-reading/QZeWHUMm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:44</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>4.01</v>
+        <v>3.93</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>4.21</v>
+        <v>5.09</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-charlton/rB6RIA7s/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-barnsley/QZZ02kN0/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>2.11</v>
+        <v>2.44</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.6</v>
+        <v>2.13</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.71</v>
+        <v>3.03</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-port-vale/YyHiPCUD/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-exeter/KdZ419x7/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-burton/CSFeOWqK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-port-vale/YyHiPCUD/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.78</v>
+        <v>3.36</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.93</v>
+        <v>3.36</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>4.5</v>
+        <v>3.94</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>5.09</v>
+        <v>3.25</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-barnsley/QZZ02kN0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-burton/CSFeOWqK/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.72</v>
+        <v>1.74</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>3.37</v>
+        <v>1.82</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:44</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.34</v>
+        <v>4.01</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.76</v>
+        <v>4.95</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.29</v>
+        <v>4.21</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-charlton/rB6RIA7s/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.92</v>
+        <v>2.47</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>3.17</v>
+        <v>2.53</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.42</v>
+        <v>3.32</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.35</v>
+        <v>2.98</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-reading/QZeWHUMm/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
         <v>1</v>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Blackpool</t>
-        </is>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>2.61</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:18</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>3.79</v>
+        <v>2.55</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>3.16</v>
+        <v>2.79</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-blackpool/jHsl5iwr/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-stevenage/vw0zHlxf/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.13</v>
+        <v>2.28</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:59</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.31</v>
+        <v>3.55</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>3.03</v>
+        <v>3.79</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.44</v>
+        <v>3.16</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:59</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-exeter/KdZ419x7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-blackpool/jHsl5iwr/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>18/11/2023 15:57</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>4.07</v>
+        <v>3.23</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4.21</v>
+        <v>3.33</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="R198" t="n">
-        <v>6.18</v>
+        <v>5.25</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>7.03</v>
+        <v>5.29</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>18/11/2023 15:59</t>
+          <t>18/11/2023 15:58</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-shrewsbury/CjbrFS66/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-lincoln-city/YLzFSoy6/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:57</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.23</v>
+        <v>4.07</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.33</v>
+        <v>4.21</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         </is>
       </c>
       <c r="R199" t="n">
-        <v>5.25</v>
+        <v>6.18</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>5.29</v>
+        <v>7.03</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>18/11/2023 15:58</t>
+          <t>18/11/2023 15:59</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-lincoln-city/YLzFSoy6/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-shrewsbury/CjbrFS66/</t>
         </is>
       </c>
     </row>
@@ -18881,71 +18881,71 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I201" t="n">
         <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>21/11/2023 21:12</t>
+          <t>18/11/2023 18:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:49</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.2</v>
+        <v>3.62</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>21/11/2023 21:12</t>
+          <t>18/11/2023 18:12</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.41</v>
+        <v>3.7</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:49</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>2.73</v>
+        <v>3.92</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>21/11/2023 21:12</t>
+          <t>18/11/2023 18:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>2.29</v>
+        <v>3.48</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:49</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-barnsley/YZFmsoja/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-reading/hrVXLzKj/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>1.74</v>
+        <v>2.75</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:49</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.76</v>
+        <v>3.2</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>25/11/2023 15:51</t>
+          <t>25/11/2023 15:49</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>4.44</v>
+        <v>2.73</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>4.09</v>
+        <v>2.29</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:49</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-wigan/jBQrrRzg/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-barnsley/YZFmsoja/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J207" t="n">
-        <v>1.67</v>
+        <v>2.96</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.57</v>
+        <v>2.94</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>25/11/2023 15:50</t>
+          <t>25/11/2023 15:55</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4.27</v>
+        <v>3.38</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>25/11/2023 15:52</t>
+          <t>25/11/2023 15:55</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>5.1</v>
+        <v>2.38</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>6.05</v>
+        <v>2.52</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>25/11/2023 15:52</t>
+          <t>25/11/2023 15:53</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-bristol-rovers/roNzpm6t/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-stevenage/x8Mvq7Ln/</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -19533,14 +19533,14 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>4.18</v>
+        <v>1.67</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>4.44</v>
+        <v>1.57</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 15:50</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.61</v>
+        <v>3.96</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19564,15 +19564,15 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.59</v>
+        <v>4.27</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 15:52</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>1.83</v>
+        <v>5.1</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>1.88</v>
+        <v>6.05</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>25/11/2023 15:59</t>
+          <t>25/11/2023 15:52</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-oxford-utd/txy9lTcP/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-bristol-rovers/roNzpm6t/</t>
         </is>
       </c>
     </row>
@@ -19617,22 +19617,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>2.78</v>
+        <v>4.18</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -19640,15 +19640,15 @@
         </is>
       </c>
       <c r="L209" t="n">
-        <v>3.24</v>
+        <v>4.44</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>25/11/2023 15:56</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.35</v>
+        <v>3.61</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
@@ -19656,15 +19656,15 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3.54</v>
+        <v>3.59</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>25/11/2023 15:56</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>2.49</v>
+        <v>1.83</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -19672,16 +19672,16 @@
         </is>
       </c>
       <c r="T209" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>25/11/2023 15:56</t>
+          <t>25/11/2023 15:59</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-charlton/4KiQPqLO/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-oxford-utd/txy9lTcP/</t>
         </is>
       </c>
     </row>
@@ -19709,22 +19709,22 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -19732,15 +19732,15 @@
         </is>
       </c>
       <c r="L210" t="n">
-        <v>1.48</v>
+        <v>3.24</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>25/11/2023 15:50</t>
+          <t>25/11/2023 15:56</t>
         </is>
       </c>
       <c r="N210" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -19748,15 +19748,15 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>4.47</v>
+        <v>3.54</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>25/11/2023 15:53</t>
+          <t>25/11/2023 15:56</t>
         </is>
       </c>
       <c r="R210" t="n">
-        <v>4.68</v>
+        <v>2.49</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         </is>
       </c>
       <c r="T210" t="n">
-        <v>7.18</v>
+        <v>2.26</v>
       </c>
       <c r="U210" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-exeter/QThMQP5I/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-charlton/4KiQPqLO/</t>
         </is>
       </c>
     </row>
@@ -19801,22 +19801,22 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G211" t="n">
+        <v>7</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Stevenage</t>
-        </is>
-      </c>
-      <c r="I211" t="n">
-        <v>3</v>
-      </c>
       <c r="J211" t="n">
-        <v>2.96</v>
+        <v>1.75</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -19824,15 +19824,15 @@
         </is>
       </c>
       <c r="L211" t="n">
-        <v>2.94</v>
+        <v>1.48</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>25/11/2023 15:55</t>
+          <t>25/11/2023 15:50</t>
         </is>
       </c>
       <c r="N211" t="n">
-        <v>3.31</v>
+        <v>3.85</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
@@ -19840,15 +19840,15 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>3.38</v>
+        <v>4.47</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>25/11/2023 15:55</t>
+          <t>25/11/2023 15:53</t>
         </is>
       </c>
       <c r="R211" t="n">
-        <v>2.38</v>
+        <v>4.68</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
@@ -19856,16 +19856,16 @@
         </is>
       </c>
       <c r="T211" t="n">
-        <v>2.52</v>
+        <v>7.18</v>
       </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>25/11/2023 15:53</t>
+          <t>25/11/2023 15:56</t>
         </is>
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-stevenage/x8Mvq7Ln/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-exeter/QThMQP5I/</t>
         </is>
       </c>
     </row>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -19901,63 +19901,1075 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>21/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>21/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>21/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-wigan/jBQrrRzg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-derby/08fBZglj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-bolton/WYk7zzZq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Shrewsbury</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-shrewsbury/UP3uuGQS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
         <v>2</v>
       </c>
-      <c r="J212" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>25/11/2023 15:54</t>
-        </is>
-      </c>
-      <c r="N212" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P212" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q212" t="inlineStr">
-        <is>
-          <t>25/11/2023 15:54</t>
-        </is>
-      </c>
-      <c r="R212" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T212" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U212" t="inlineStr">
-        <is>
-          <t>25/11/2023 15:54</t>
-        </is>
-      </c>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-reading/hrVXLzKj/</t>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Cheltenham</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-cheltenham/n1EztdBM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-leyton-orient/2DCOrbR3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Burton</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-portsmouth/t4BSsItA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-northampton/pxIJqvCc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Wycombe</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:34</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-wycombe/6oJFpKdi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>2</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-peterborough/vagFYD3d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-lincoln-city/zRAWtxdG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45258.86458333334</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Wigan</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>3</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-fleetwood-town/t4Xccctc/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V223"/>
+  <dimension ref="A1:V224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>3.14</v>
+        <v>2.53</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.11</v>
+        <v>2.42</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>30/09/2023 15:38</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.42</v>
+        <v>2.83</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.31</v>
+        <v>3.06</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>30/09/2023 14:21</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>2.53</v>
+        <v>3.14</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,48 +10348,48 @@
         </is>
       </c>
       <c r="L108" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>30/09/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>2.42</v>
       </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O108" t="inlineStr">
+      <c r="S108" t="inlineStr">
         <is>
           <t>24/09/2023 03:13</t>
         </is>
       </c>
-      <c r="P108" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R108" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>24/09/2023 03:13</t>
-        </is>
-      </c>
       <c r="T108" t="n">
-        <v>3.06</v>
+        <v>2.31</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 14:21</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-oxford-utd/IXnN6kdd/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-portsmouth/KxR5VYYd/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.96</v>
+        <v>4.18</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.97</v>
+        <v>4.2</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.05</v>
+        <v>5.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.23</v>
+        <v>5.29</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>30/09/2023 15:52</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.18</v>
+        <v>3.96</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.2</v>
+        <v>3.97</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>5.3</v>
+        <v>4.05</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.29</v>
+        <v>4.23</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:52</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-cambridge-utd/riGRHF4c/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/peterborough-bristol-rovers/nqDrEX3M/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G201" t="n">
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
         <v>1</v>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="I201" t="n">
-        <v>2</v>
-      </c>
       <c r="J201" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:31</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.62</v>
+        <v>3.06</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.7</v>
+        <v>3.23</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:31</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>3.92</v>
+        <v>2.85</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>3.48</v>
+        <v>2.64</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:31</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-reading/hrVXLzKj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-port-vale/vuRTMG4p/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
         <v>2</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Port Vale</t>
-        </is>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
       <c r="J206" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>25/11/2023 15:31</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.06</v>
+        <v>3.62</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.23</v>
+        <v>3.7</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>25/11/2023 15:31</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>2.85</v>
+        <v>3.92</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2.64</v>
+        <v>3.48</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>25/11/2023 15:31</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-port-vale/vuRTMG4p/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-reading/hrVXLzKj/</t>
         </is>
       </c>
     </row>
@@ -19985,22 +19985,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="n">
-        <v>3.32</v>
+        <v>2.49</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>3.88</v>
+        <v>2.5</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.32</v>
+        <v>3.33</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="R213" t="n">
-        <v>2.27</v>
+        <v>2.93</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>2.06</v>
+        <v>2.91</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-derby/08fBZglj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-peterborough/vagFYD3d/</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -20085,14 +20085,14 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>2.08</v>
+        <v>3.32</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>2.72</v>
+        <v>3.88</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,15 +20116,15 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.49</v>
+        <v>3.42</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>3.6</v>
+        <v>2.27</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
@@ -20132,16 +20132,16 @@
         </is>
       </c>
       <c r="T214" t="n">
-        <v>2.64</v>
+        <v>2.06</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-bolton/WYk7zzZq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-derby/08fBZglj/</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G215" t="n">
@@ -20177,14 +20177,14 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1.95</v>
+        <v>2.72</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,15 +20208,15 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>3.41</v>
+        <v>3.6</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -20224,16 +20224,16 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>4.25</v>
+        <v>2.64</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-shrewsbury/UP3uuGQS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-bolton/WYk7zzZq/</t>
         </is>
       </c>
     </row>
@@ -20261,22 +20261,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -20284,15 +20284,15 @@
         </is>
       </c>
       <c r="L216" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>4.29</v>
+        <v>3.54</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -20300,15 +20300,15 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>4.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>6.09</v>
+        <v>3.41</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
@@ -20316,16 +20316,16 @@
         </is>
       </c>
       <c r="T216" t="n">
-        <v>5.66</v>
+        <v>4.25</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-cheltenham/n1EztdBM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-shrewsbury/UP3uuGQS/</t>
         </is>
       </c>
     </row>
@@ -20353,22 +20353,22 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I217" t="n">
         <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>2.07</v>
+        <v>1.54</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -20376,15 +20376,15 @@
         </is>
       </c>
       <c r="L217" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -20392,15 +20392,15 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3.56</v>
+        <v>4.43</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>3.63</v>
+        <v>6.09</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
@@ -20408,16 +20408,16 @@
         </is>
       </c>
       <c r="T217" t="n">
-        <v>3.78</v>
+        <v>5.66</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-leyton-orient/2DCOrbR3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-cheltenham/n1EztdBM/</t>
         </is>
       </c>
     </row>
@@ -20445,22 +20445,22 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>3.83</v>
+        <v>2.07</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -20468,15 +20468,15 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>3.74</v>
+        <v>2.05</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -20484,15 +20484,15 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>1.99</v>
+        <v>3.63</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
@@ -20500,16 +20500,16 @@
         </is>
       </c>
       <c r="T218" t="n">
-        <v>2.09</v>
+        <v>3.78</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-portsmouth/t4BSsItA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-leyton-orient/2DCOrbR3/</t>
         </is>
       </c>
     </row>
@@ -20537,22 +20537,22 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I219" t="n">
         <v>2</v>
       </c>
       <c r="J219" t="n">
-        <v>1.7</v>
+        <v>3.83</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -20560,15 +20560,15 @@
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1.45</v>
+        <v>3.74</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.81</v>
+        <v>3.57</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -20576,15 +20576,15 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>4.62</v>
+        <v>3.47</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>5.14</v>
+        <v>1.99</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
@@ -20592,16 +20592,16 @@
         </is>
       </c>
       <c r="T219" t="n">
-        <v>7.43</v>
+        <v>2.09</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-northampton/pxIJqvCc/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-portsmouth/t4BSsItA/</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -20637,14 +20637,14 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -20652,15 +20652,15 @@
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.6</v>
+        <v>3.81</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -20668,15 +20668,15 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3.72</v>
+        <v>4.62</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>28/11/2023 20:34</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>3.89</v>
+        <v>5.14</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="T220" t="n">
-        <v>4.32</v>
+        <v>7.43</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-wycombe/6oJFpKdi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-northampton/pxIJqvCc/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:34</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>2.93</v>
+        <v>3.89</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>2.91</v>
+        <v>4.32</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-peterborough/vagFYD3d/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-wycombe/6oJFpKdi/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G222" t="n">
+        <v>3</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="I222" t="n">
-        <v>3</v>
-      </c>
       <c r="J222" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:42</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.17</v>
+        <v>3.52</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.13</v>
+        <v>3.58</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:42</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:42</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-lincoln-city/zRAWtxdG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-fleetwood-town/t4Xccctc/</t>
         </is>
       </c>
     </row>
@@ -20905,22 +20905,22 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
         <v>3</v>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Fleetwood</t>
-        </is>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
       <c r="J223" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -20928,15 +20928,15 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>28/11/2023 20:42</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.52</v>
+        <v>3.17</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -20944,15 +20944,15 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.58</v>
+        <v>3.13</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>28/11/2023 20:42</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
@@ -20960,16 +20960,108 @@
         </is>
       </c>
       <c r="T223" t="n">
-        <v>2.81</v>
+        <v>3.1</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>28/11/2023 20:42</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-fleetwood-town/t4Xccctc/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-lincoln-city/zRAWtxdG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45258.875</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>5</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>28/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/reading-carlisle/f7y2dHe3/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V224"/>
+  <dimension ref="A1:V225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.17</v>
+        <v>2.93</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.55</v>
+        <v>3.24</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>4.34</v>
+        <v>2.93</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>3.69</v>
+        <v>2.64</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:44</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.93</v>
+        <v>2.17</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.24</v>
+        <v>3.55</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.93</v>
+        <v>4.34</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.64</v>
+        <v>3.69</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>28/10/2023 15:44</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-derby/KYjIADFK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-shrewsbury/YyeM9XUQ/</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -16221,14 +16221,14 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J172" t="n">
-        <v>1.68</v>
+        <v>2.13</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:47</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>4.03</v>
+        <v>3.46</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.84</v>
+        <v>3.43</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>4.46</v>
+        <v>3.31</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>4.4</v>
+        <v>3.17</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>28/10/2023 15:47</t>
+          <t>28/10/2023 15:52</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-fleetwood-town/rVjZAM93/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
         </is>
       </c>
     </row>
@@ -16397,22 +16397,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.13</v>
+        <v>2.51</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:55</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.31</v>
+        <v>2.74</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.17</v>
+        <v>2.38</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>28/10/2023 15:52</t>
+          <t>28/10/2023 15:56</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-peterborough/MLkwAtP9/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2.47</v>
+        <v>1.95</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.89</v>
+        <v>3.95</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.9</v>
+        <v>4.19</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>28/10/2023 15:57</t>
+          <t>28/10/2023 15:53</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.51</v>
+        <v>1.68</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,15 +16604,15 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.16</v>
+        <v>1.83</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>28/10/2023 15:55</t>
+          <t>28/10/2023 15:47</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.37</v>
+        <v>4.03</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.37</v>
+        <v>3.84</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.74</v>
+        <v>4.46</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,16 +16636,16 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.38</v>
+        <v>4.4</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>28/10/2023 15:56</t>
+          <t>28/10/2023 15:47</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-leyton-orient/GM7BiY8r/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-fleetwood-town/rVjZAM93/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>2</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Northampton</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
       <c r="J177" t="n">
-        <v>1.95</v>
+        <v>2.47</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.95</v>
+        <v>2.89</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>4.19</v>
+        <v>2.9</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>28/10/2023 15:53</t>
+          <t>28/10/2023 15:57</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-northampton/vcpr90vG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-bolton/OnBJkCwe/</t>
         </is>
       </c>
     </row>
@@ -17593,22 +17593,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Bristol Rovers</t>
-        </is>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
       <c r="J187" t="n">
-        <v>2.92</v>
+        <v>2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -17616,15 +17616,15 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>3.17</v>
+        <v>2.28</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:59</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
@@ -17632,15 +17632,15 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="R187" t="n">
-        <v>2.36</v>
+        <v>3.79</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -17648,16 +17648,16 @@
         </is>
       </c>
       <c r="T187" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:59</t>
         </is>
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bolton-blackpool/jHsl5iwr/</t>
         </is>
       </c>
     </row>
@@ -17685,71 +17685,71 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I188" t="n">
         <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>3.37</v>
+        <v>3.17</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
         </is>
       </c>
     </row>
@@ -17777,22 +17777,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -17800,15 +17800,15 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.71</v>
+        <v>3.37</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.78</v>
+        <v>3.2</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
@@ -17816,15 +17816,15 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.93</v>
+        <v>3.34</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="T189" t="n">
-        <v>5.09</v>
+        <v>2.29</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/derby-barnsley/QZZ02kN0/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Fleetwood</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -17877,14 +17877,14 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>2.44</v>
+        <v>1.79</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>2.13</v>
+        <v>1.71</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.31</v>
+        <v>3.78</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.64</v>
+        <v>3.93</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>3.03</v>
+        <v>4.5</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>3.44</v>
+        <v>5.09</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>11/11/2023 15:47</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-exeter/KdZ419x7/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/derby-barnsley/QZZ02kN0/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Fleetwood</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.9</v>
+        <v>2.13</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.29</v>
+        <v>3.64</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:25</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>2.38</v>
+        <v>3.03</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>2.59</v>
+        <v>3.44</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:47</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-oxford-utd/WWx90TiD/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/fleetwood-town-exeter/KdZ419x7/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.2</v>
+        <v>3.29</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:25</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.71</v>
+        <v>2.38</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.98</v>
+        <v>2.59</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:48</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-port-vale/YyHiPCUD/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-oxford-utd/WWx90TiD/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>3.94</v>
+        <v>3.71</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>11/11/2023 15:51</t>
+          <t>11/11/2023 15:48</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/northampton-burton/CSFeOWqK/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/lincoln-city-port-vale/YyHiPCUD/</t>
         </is>
       </c>
     </row>
@@ -18237,7 +18237,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -18245,14 +18245,14 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>1.74</v>
+        <v>2.03</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1.82</v>
+        <v>2.33</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:44</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.7</v>
+        <v>3.36</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>4.01</v>
+        <v>3.36</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.95</v>
+        <v>3.94</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.21</v>
+        <v>3.25</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-charlton/rB6RIA7s/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-burton/CSFeOWqK/</t>
         </is>
       </c>
     </row>
@@ -18329,62 +18329,62 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.47</v>
+        <v>1.74</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.53</v>
+        <v>1.82</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
+          <t>11/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
           <t>11/11/2023 15:58</t>
         </is>
       </c>
-      <c r="N195" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>07/11/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P195" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q195" t="inlineStr">
-        <is>
-          <t>11/11/2023 15:49</t>
-        </is>
-      </c>
       <c r="R195" t="n">
-        <v>3.05</v>
+        <v>4.95</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.98</v>
+        <v>4.21</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-reading/QZeWHUMm/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/portsmouth-charlton/rB6RIA7s/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="n">
-        <v>2.61</v>
+        <v>2.47</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.64</v>
+        <v>2.53</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.49</v>
+        <v>3.22</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.38</v>
+        <v>3.32</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:18</t>
+          <t>11/11/2023 15:49</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:52</t>
+          <t>11/11/2023 15:58</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-stevenage/vw0zHlxf/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-reading/QZeWHUMm/</t>
         </is>
       </c>
     </row>
@@ -18513,71 +18513,71 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
         <v>1</v>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Blackpool</t>
-        </is>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
       <c r="J197" t="n">
-        <v>2</v>
+        <v>2.61</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>11/11/2023 15:58</t>
+          <t>11/11/2023 15:18</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>3.79</v>
+        <v>2.55</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.16</v>
+        <v>2.79</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>11/11/2023 15:59</t>
+          <t>11/11/2023 15:52</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bolton-blackpool/jHsl5iwr/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-stevenage/vw0zHlxf/</t>
         </is>
       </c>
     </row>
@@ -18881,22 +18881,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
         <v>2</v>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Port Vale</t>
-        </is>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
       <c r="J201" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,15 +18904,15 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:31</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.06</v>
+        <v>3.62</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
@@ -18920,15 +18920,15 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.23</v>
+        <v>3.7</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:31</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>2.85</v>
+        <v>3.92</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -18936,16 +18936,16 @@
         </is>
       </c>
       <c r="T201" t="n">
-        <v>2.64</v>
+        <v>3.48</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>25/11/2023 15:31</t>
+          <t>25/11/2023 15:54</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-port-vale/vuRTMG4p/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wycombe-reading/hrVXLzKj/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G206" t="n">
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
         <v>1</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="I206" t="n">
-        <v>2</v>
-      </c>
       <c r="J206" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:31</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.62</v>
+        <v>3.06</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.7</v>
+        <v>3.23</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:31</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.92</v>
+        <v>2.85</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.48</v>
+        <v>2.64</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>25/11/2023 15:54</t>
+          <t>25/11/2023 15:31</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wycombe-reading/hrVXLzKj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/shrewsbury-port-vale/vuRTMG4p/</t>
         </is>
       </c>
     </row>
@@ -19985,22 +19985,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Peterborough</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>2.49</v>
+        <v>3.32</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.5</v>
+        <v>3.88</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="R213" t="n">
-        <v>2.93</v>
+        <v>2.27</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         </is>
       </c>
       <c r="T213" t="n">
-        <v>2.91</v>
+        <v>2.06</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/stevenage-peterborough/vagFYD3d/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/port-vale-derby/08fBZglj/</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -20085,14 +20085,14 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Bolton</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>3.32</v>
+        <v>2.08</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>3.88</v>
+        <v>2.72</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,15 +20116,15 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>2.27</v>
+        <v>3.6</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
@@ -20132,16 +20132,16 @@
         </is>
       </c>
       <c r="T214" t="n">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/port-vale-derby/08fBZglj/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-bolton/WYk7zzZq/</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G215" t="n">
@@ -20177,14 +20177,14 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Bolton</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>2.72</v>
+        <v>1.95</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,15 +20208,15 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -20224,16 +20224,16 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>2.64</v>
+        <v>4.25</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/oxford-utd-bolton/WYk7zzZq/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/exeter-shrewsbury/UP3uuGQS/</t>
         </is>
       </c>
     </row>
@@ -20261,22 +20261,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Charlton</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -20284,15 +20284,15 @@
         </is>
       </c>
       <c r="L216" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="N216" t="n">
-        <v>3.54</v>
+        <v>4.29</v>
       </c>
       <c r="O216" t="inlineStr">
         <is>
@@ -20300,15 +20300,15 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3.47</v>
+        <v>4.43</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="R216" t="n">
-        <v>3.41</v>
+        <v>6.09</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
@@ -20316,16 +20316,16 @@
         </is>
       </c>
       <c r="T216" t="n">
-        <v>4.25</v>
+        <v>5.66</v>
       </c>
       <c r="U216" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/exeter-shrewsbury/UP3uuGQS/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/charlton-cheltenham/n1EztdBM/</t>
         </is>
       </c>
     </row>
@@ -20353,22 +20353,22 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Charlton</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I217" t="n">
         <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -20376,15 +20376,15 @@
         </is>
       </c>
       <c r="L217" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N217" t="n">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="O217" t="inlineStr">
         <is>
@@ -20392,15 +20392,15 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>4.43</v>
+        <v>3.56</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="R217" t="n">
-        <v>6.09</v>
+        <v>3.63</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
@@ -20408,16 +20408,16 @@
         </is>
       </c>
       <c r="T217" t="n">
-        <v>5.66</v>
+        <v>3.78</v>
       </c>
       <c r="U217" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/charlton-cheltenham/n1EztdBM/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-leyton-orient/2DCOrbR3/</t>
         </is>
       </c>
     </row>
@@ -20445,22 +20445,22 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J218" t="n">
-        <v>2.07</v>
+        <v>3.83</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -20468,15 +20468,15 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>2.05</v>
+        <v>3.74</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>28/11/2023 20:40</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -20484,15 +20484,15 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>3.63</v>
+        <v>1.99</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
@@ -20500,16 +20500,16 @@
         </is>
       </c>
       <c r="T218" t="n">
-        <v>3.78</v>
+        <v>2.09</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:43</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/bristol-rovers-leyton-orient/2DCOrbR3/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/burton-portsmouth/t4BSsItA/</t>
         </is>
       </c>
     </row>
@@ -20537,22 +20537,22 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Northampton</t>
         </is>
       </c>
       <c r="I219" t="n">
         <v>2</v>
       </c>
       <c r="J219" t="n">
-        <v>3.83</v>
+        <v>1.7</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -20560,15 +20560,15 @@
         </is>
       </c>
       <c r="L219" t="n">
-        <v>3.74</v>
+        <v>1.45</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="N219" t="n">
-        <v>3.57</v>
+        <v>3.81</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
@@ -20576,15 +20576,15 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3.47</v>
+        <v>4.62</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="R219" t="n">
-        <v>1.99</v>
+        <v>5.14</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
@@ -20592,16 +20592,16 @@
         </is>
       </c>
       <c r="T219" t="n">
-        <v>2.09</v>
+        <v>7.43</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>28/11/2023 20:43</t>
+          <t>28/11/2023 20:41</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/burton-portsmouth/t4BSsItA/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/blackpool-northampton/pxIJqvCc/</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -20637,14 +20637,14 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Northampton</t>
+          <t>Wycombe</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -20652,15 +20652,15 @@
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.81</v>
+        <v>3.6</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -20668,15 +20668,15 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>4.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:34</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>5.14</v>
+        <v>3.89</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="T220" t="n">
-        <v>7.43</v>
+        <v>4.32</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>28/11/2023 20:41</t>
+          <t>28/11/2023 20:39</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/blackpool-northampton/pxIJqvCc/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/barnsley-wycombe/6oJFpKdi/</t>
         </is>
       </c>
     </row>
@@ -20721,22 +20721,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Wycombe</t>
+          <t>Peterborough</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3.72</v>
+        <v>3.45</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>28/11/2023 20:34</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>3.89</v>
+        <v>2.93</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>4.32</v>
+        <v>2.91</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>28/11/2023 20:39</t>
+          <t>28/11/2023 20:40</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/barnsley-wycombe/6oJFpKdi/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/stevenage-peterborough/vagFYD3d/</t>
         </is>
       </c>
     </row>
@@ -20813,22 +20813,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Cambridge Utd</t>
         </is>
       </c>
       <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
         <v>3</v>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Fleetwood</t>
-        </is>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
       <c r="J222" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -20836,15 +20836,15 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>28/11/2023 20:42</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="N222" t="n">
-        <v>3.52</v>
+        <v>3.17</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
@@ -20852,15 +20852,15 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3.58</v>
+        <v>3.13</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>28/11/2023 20:42</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="R222" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -20868,16 +20868,16 @@
         </is>
       </c>
       <c r="T222" t="n">
-        <v>2.81</v>
+        <v>3.1</v>
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>28/11/2023 20:42</t>
+          <t>28/11/2023 20:44</t>
         </is>
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/wigan-fleetwood-town/t4Xccctc/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-lincoln-city/zRAWtxdG/</t>
         </is>
       </c>
     </row>
@@ -20905,22 +20905,22 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Cambridge Utd</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="G223" t="n">
+        <v>3</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Fleetwood</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="I223" t="n">
-        <v>3</v>
-      </c>
       <c r="J223" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -20928,15 +20928,15 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:42</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.17</v>
+        <v>3.52</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -20944,15 +20944,15 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.13</v>
+        <v>3.58</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:42</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
@@ -20960,16 +20960,16 @@
         </is>
       </c>
       <c r="T223" t="n">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>28/11/2023 20:44</t>
+          <t>28/11/2023 20:42</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cambridge-utd-lincoln-city/zRAWtxdG/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/wigan-fleetwood-town/t4Xccctc/</t>
         </is>
       </c>
     </row>
@@ -21062,6 +21062,98 @@
       <c r="V224" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/league-one/reading-carlisle/f7y2dHe3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>league-one</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Northampton</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>3</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:04</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>28/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/league-one/northampton-portsmouth/noQtlvog/</t>
         </is>
       </c>
     </row>

--- a/2023/england_league-one_2023-2024.xlsx
+++ b/2023/england_league-one_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V250"/>
+  <dimension ref="A1:V251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18053,71 +18053,71 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Wigan</t>
         </is>
       </c>
       <c r="I192" t="n">
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>3.17</v>
+        <v>3.37</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>07/11/2023 21:12</t>
+          <t>03/11/2023 16:42</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>11/11/2023 15:57</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/carlisle-bristol-rovers/U7th4Bhl/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Wigan</t>
+          <t>Oxford Utd</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J195" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>3.37</v>
+        <v>2.9</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:25</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.29</v>
+        <v>2.59</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:55</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/league-one/cheltenham-wigan/nqyc3V7f/</t>
+          <t>https://www.betexplorer.com/football/england/league-one/leyton-orient-oxford-utd/WWx90TiD/</t>
         </is>
       </c>
     </row>
@@ -18421,71 +18421,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Oxford Utd</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</t>
+          <t>07/11/2023 21:12</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.9</v>
+        <v>3.17</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>11/11/2023 15:55</t>
+          <t>11/11/2023 15:57</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>03/11/2023 16:42</